--- a/proiel/rResults/Gospel_V_others.xlsx
+++ b/proiel/rResults/Gospel_V_others.xlsx
@@ -10,12 +10,12 @@
     <sheet name="New_zscores_Nov14" sheetId="1" r:id="rId1"/>
     <sheet name="possible topics" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="689">
   <si>
     <t>1Corinthians</t>
   </si>
@@ -2077,6 +2077,12 @@
   <si>
     <t>#-pred*v-*obl*pp / #-pred*v-*obl*pp</t>
   </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>sWord</t>
+  </si>
 </sst>
 </file>
 
@@ -2907,13 +2913,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AYA24"/>
+  <dimension ref="A1:AYC24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AH4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3598,6 +3604,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1327" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>687</v>
+      </c>
       <c r="B1">
         <v>1</v>
       </c>
@@ -7578,6 +7587,9 @@
       </c>
     </row>
     <row r="2" spans="1:1327" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>688</v>
+      </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -67136,7 +67148,7 @@
         <v>1.9233533787856301</v>
       </c>
     </row>
-    <row r="17" spans="1:1327" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1329" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -71119,7 +71131,7 @@
         <v>-2.3374066999150199E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:1327" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1329" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -75102,7 +75114,7 @@
         <v>-0.62940693092845001</v>
       </c>
     </row>
-    <row r="19" spans="1:1327" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1329" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -79085,7 +79097,7 @@
         <v>-0.62940693092845001</v>
       </c>
     </row>
-    <row r="20" spans="1:1327" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1329" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -83068,7 +83080,7 @@
         <v>-0.62940693092845001</v>
       </c>
     </row>
-    <row r="21" spans="1:1327" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1329" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -87050,8 +87062,12 @@
       <c r="AYA21" s="2">
         <v>0.10272854310077199</v>
       </c>
+      <c r="AYC21" s="2">
+        <f>SMALL(B21:AYA21,3)</f>
+        <v>-1.3226049198232299</v>
+      </c>
     </row>
-    <row r="23" spans="1:1327" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1329" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>683</v>
       </c>
@@ -87060,2655 +87076,2655 @@
         <v>4.8043809929201702E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:BO23" si="0">AVERAGE(D4:D21)</f>
+        <f t="shared" ref="D23" si="0">AVERAGE(D4:D21)</f>
         <v>2.676091368217683E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:BQ23" si="1">AVERAGE(F4:F21)</f>
+        <f t="shared" ref="F23" si="1">AVERAGE(F4:F21)</f>
         <v>1.8495719472631338E-2</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:BS23" si="2">AVERAGE(H4:H21)</f>
+        <f t="shared" ref="H23" si="2">AVERAGE(H4:H21)</f>
         <v>1.1679539529763788E-2</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:BU23" si="3">AVERAGE(J4:J21)</f>
+        <f t="shared" ref="J23" si="3">AVERAGE(J4:J21)</f>
         <v>9.7002714612224126E-3</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23:BW23" si="4">AVERAGE(L4:L21)</f>
+        <f t="shared" ref="L23" si="4">AVERAGE(L4:L21)</f>
         <v>1.0557264812619061E-2</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:BY23" si="5">AVERAGE(N4:N21)</f>
+        <f t="shared" ref="N23" si="5">AVERAGE(N4:N21)</f>
         <v>8.8311361895894239E-3</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23:CA23" si="6">AVERAGE(P4:P21)</f>
+        <f t="shared" ref="P23" si="6">AVERAGE(P4:P21)</f>
         <v>8.1532446430345931E-3</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:CC23" si="7">AVERAGE(R4:R21)</f>
+        <f t="shared" ref="R23" si="7">AVERAGE(R4:R21)</f>
         <v>7.0936476946662852E-3</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:CE23" si="8">AVERAGE(T4:T21)</f>
+        <f t="shared" ref="T23" si="8">AVERAGE(T4:T21)</f>
         <v>5.8762049091842005E-3</v>
       </c>
       <c r="V23">
-        <f t="shared" ref="V23:CG23" si="9">AVERAGE(V4:V21)</f>
+        <f t="shared" ref="V23" si="9">AVERAGE(V4:V21)</f>
         <v>7.1354920377538844E-3</v>
       </c>
       <c r="X23">
-        <f t="shared" ref="X23:CI23" si="10">AVERAGE(X4:X21)</f>
+        <f t="shared" ref="X23" si="10">AVERAGE(X4:X21)</f>
         <v>6.7816668364773626E-3</v>
       </c>
       <c r="Z23">
-        <f t="shared" ref="Z23:CK23" si="11">AVERAGE(Z4:Z21)</f>
+        <f t="shared" ref="Z23" si="11">AVERAGE(Z4:Z21)</f>
         <v>6.3764118560257219E-3</v>
       </c>
       <c r="AB23">
-        <f t="shared" ref="AB23:CM23" si="12">AVERAGE(AB4:AB21)</f>
+        <f t="shared" ref="AB23" si="12">AVERAGE(AB4:AB21)</f>
         <v>6.7650587042726489E-3</v>
       </c>
       <c r="AD23">
-        <f t="shared" ref="AD23:CO23" si="13">AVERAGE(AD4:AD21)</f>
+        <f t="shared" ref="AD23" si="13">AVERAGE(AD4:AD21)</f>
         <v>2.0540932464567902E-3</v>
       </c>
       <c r="AF23">
-        <f t="shared" ref="AF23:CQ23" si="14">AVERAGE(AF4:AF21)</f>
+        <f t="shared" ref="AF23" si="14">AVERAGE(AF4:AF21)</f>
         <v>5.833322419489217E-3</v>
       </c>
       <c r="AH23">
-        <f t="shared" ref="AH23:CS23" si="15">AVERAGE(AH4:AH21)</f>
+        <f t="shared" ref="AH23" si="15">AVERAGE(AH4:AH21)</f>
         <v>5.4689121089154099E-3</v>
       </c>
       <c r="AJ23">
-        <f t="shared" ref="AJ23:CU23" si="16">AVERAGE(AJ4:AJ21)</f>
+        <f t="shared" ref="AJ23" si="16">AVERAGE(AJ4:AJ21)</f>
         <v>1.4458869966458778E-3</v>
       </c>
       <c r="AL23">
-        <f t="shared" ref="AL23:CW23" si="17">AVERAGE(AL4:AL21)</f>
+        <f t="shared" ref="AL23" si="17">AVERAGE(AL4:AL21)</f>
         <v>3.4156846168727278E-3</v>
       </c>
       <c r="AN23">
-        <f t="shared" ref="AN23:CY23" si="18">AVERAGE(AN4:AN21)</f>
+        <f t="shared" ref="AN23" si="18">AVERAGE(AN4:AN21)</f>
         <v>3.8729705801802006E-3</v>
       </c>
       <c r="AP23">
-        <f t="shared" ref="AP23:DA23" si="19">AVERAGE(AP4:AP21)</f>
+        <f t="shared" ref="AP23" si="19">AVERAGE(AP4:AP21)</f>
         <v>3.6856456274141237E-3</v>
       </c>
       <c r="AR23">
-        <f t="shared" ref="AR23:DC23" si="20">AVERAGE(AR4:AR21)</f>
+        <f t="shared" ref="AR23" si="20">AVERAGE(AR4:AR21)</f>
         <v>3.768176993696519E-3</v>
       </c>
       <c r="AT23">
-        <f t="shared" ref="AT23:DE23" si="21">AVERAGE(AT4:AT21)</f>
+        <f t="shared" ref="AT23" si="21">AVERAGE(AT4:AT21)</f>
         <v>3.3875937559311124E-3</v>
       </c>
       <c r="AV23">
-        <f t="shared" ref="AV23:DG23" si="22">AVERAGE(AV4:AV21)</f>
+        <f t="shared" ref="AV23" si="22">AVERAGE(AV4:AV21)</f>
         <v>3.1211233298290989E-3</v>
       </c>
       <c r="AX23">
-        <f t="shared" ref="AX23:DI23" si="23">AVERAGE(AX4:AX21)</f>
+        <f t="shared" ref="AX23" si="23">AVERAGE(AX4:AX21)</f>
         <v>3.9741414052582554E-3</v>
       </c>
       <c r="AZ23">
-        <f t="shared" ref="AZ23:DK23" si="24">AVERAGE(AZ4:AZ21)</f>
+        <f t="shared" ref="AZ23" si="24">AVERAGE(AZ4:AZ21)</f>
         <v>3.1280968007962378E-3</v>
       </c>
       <c r="BB23">
-        <f t="shared" ref="BB23:DM23" si="25">AVERAGE(BB4:BB21)</f>
+        <f t="shared" ref="BB23" si="25">AVERAGE(BB4:BB21)</f>
         <v>3.2849877737919243E-3</v>
       </c>
       <c r="BD23">
-        <f t="shared" ref="BD23:DO23" si="26">AVERAGE(BD4:BD21)</f>
+        <f t="shared" ref="BD23" si="26">AVERAGE(BD4:BD21)</f>
         <v>2.8235847747952085E-3</v>
       </c>
       <c r="BF23">
-        <f t="shared" ref="BF23:DQ23" si="27">AVERAGE(BF4:BF21)</f>
+        <f t="shared" ref="BF23" si="27">AVERAGE(BF4:BF21)</f>
         <v>3.0352049897804803E-3</v>
       </c>
       <c r="BH23">
-        <f t="shared" ref="BH23:DS23" si="28">AVERAGE(BH4:BH21)</f>
+        <f t="shared" ref="BH23" si="28">AVERAGE(BH4:BH21)</f>
         <v>2.5920756986697311E-3</v>
       </c>
       <c r="BJ23">
-        <f t="shared" ref="BJ23:DU23" si="29">AVERAGE(BJ4:BJ21)</f>
+        <f t="shared" ref="BJ23" si="29">AVERAGE(BJ4:BJ21)</f>
         <v>2.5561485223221294E-3</v>
       </c>
       <c r="BL23">
-        <f t="shared" ref="BL23:DW23" si="30">AVERAGE(BL4:BL21)</f>
+        <f t="shared" ref="BL23" si="30">AVERAGE(BL4:BL21)</f>
         <v>2.7914599703270609E-3</v>
       </c>
       <c r="BN23">
-        <f t="shared" ref="BN23:DY23" si="31">AVERAGE(BN4:BN21)</f>
+        <f t="shared" ref="BN23" si="31">AVERAGE(BN4:BN21)</f>
         <v>3.0153955622870712E-3</v>
       </c>
       <c r="BP23">
-        <f t="shared" ref="BP23:EA23" si="32">AVERAGE(BP4:BP21)</f>
+        <f t="shared" ref="BP23" si="32">AVERAGE(BP4:BP21)</f>
         <v>2.0373395413803837E-3</v>
       </c>
       <c r="BR23">
-        <f t="shared" ref="BR23:EC23" si="33">AVERAGE(BR4:BR21)</f>
+        <f t="shared" ref="BR23" si="33">AVERAGE(BR4:BR21)</f>
         <v>2.3077116608840476E-3</v>
       </c>
       <c r="BT23">
-        <f t="shared" ref="BT23:EE23" si="34">AVERAGE(BT4:BT21)</f>
+        <f t="shared" ref="BT23" si="34">AVERAGE(BT4:BT21)</f>
         <v>1.9773976881505098E-3</v>
       </c>
       <c r="BV23">
-        <f t="shared" ref="BV23:EG23" si="35">AVERAGE(BV4:BV21)</f>
+        <f t="shared" ref="BV23" si="35">AVERAGE(BV4:BV21)</f>
         <v>1.5755963203391533E-3</v>
       </c>
       <c r="BX23">
-        <f t="shared" ref="BX23:EI23" si="36">AVERAGE(BX4:BX21)</f>
+        <f t="shared" ref="BX23" si="36">AVERAGE(BX4:BX21)</f>
         <v>2.087817620610573E-3</v>
       </c>
       <c r="BZ23">
-        <f t="shared" ref="BZ23:EK23" si="37">AVERAGE(BZ4:BZ21)</f>
+        <f t="shared" ref="BZ23" si="37">AVERAGE(BZ4:BZ21)</f>
         <v>2.2597280187144787E-3</v>
       </c>
       <c r="CB23">
-        <f t="shared" ref="CB23:EM23" si="38">AVERAGE(CB4:CB21)</f>
+        <f t="shared" ref="CB23" si="38">AVERAGE(CB4:CB21)</f>
         <v>2.4302630858536538E-3</v>
       </c>
       <c r="CD23">
-        <f t="shared" ref="CD23:EO23" si="39">AVERAGE(CD4:CD21)</f>
+        <f t="shared" ref="CD23" si="39">AVERAGE(CD4:CD21)</f>
         <v>1.9643342754136041E-3</v>
       </c>
       <c r="CF23">
-        <f t="shared" ref="CF23:EQ23" si="40">AVERAGE(CF4:CF21)</f>
+        <f t="shared" ref="CF23" si="40">AVERAGE(CF4:CF21)</f>
         <v>2.1806178756469119E-3</v>
       </c>
       <c r="CH23">
-        <f t="shared" ref="CH23:ES23" si="41">AVERAGE(CH4:CH21)</f>
+        <f t="shared" ref="CH23" si="41">AVERAGE(CH4:CH21)</f>
         <v>1.5561690228790724E-3</v>
       </c>
       <c r="CJ23">
-        <f t="shared" ref="CJ23:EU23" si="42">AVERAGE(CJ4:CJ21)</f>
+        <f t="shared" ref="CJ23" si="42">AVERAGE(CJ4:CJ21)</f>
         <v>1.8759741187015337E-3</v>
       </c>
       <c r="CL23">
-        <f t="shared" ref="CL23:EW23" si="43">AVERAGE(CL4:CL21)</f>
+        <f t="shared" ref="CL23" si="43">AVERAGE(CL4:CL21)</f>
         <v>2.3791148923077137E-3</v>
       </c>
       <c r="CN23">
-        <f t="shared" ref="CN23:EY23" si="44">AVERAGE(CN4:CN21)</f>
+        <f t="shared" ref="CN23" si="44">AVERAGE(CN4:CN21)</f>
         <v>2.0377913711230027E-3</v>
       </c>
       <c r="CP23">
-        <f t="shared" ref="CP23:FA23" si="45">AVERAGE(CP4:CP21)</f>
+        <f t="shared" ref="CP23" si="45">AVERAGE(CP4:CP21)</f>
         <v>1.9518609549808001E-3</v>
       </c>
       <c r="CR23">
-        <f t="shared" ref="CR23:FC23" si="46">AVERAGE(CR4:CR21)</f>
+        <f t="shared" ref="CR23" si="46">AVERAGE(CR4:CR21)</f>
         <v>1.6248105913169359E-3</v>
       </c>
       <c r="CT23">
-        <f t="shared" ref="CT23:FE23" si="47">AVERAGE(CT4:CT21)</f>
+        <f t="shared" ref="CT23" si="47">AVERAGE(CT4:CT21)</f>
         <v>2.1518249471704737E-3</v>
       </c>
       <c r="CV23">
-        <f t="shared" ref="CV23:FG23" si="48">AVERAGE(CV4:CV21)</f>
+        <f t="shared" ref="CV23" si="48">AVERAGE(CV4:CV21)</f>
         <v>2.1820485140704861E-3</v>
       </c>
       <c r="CX23">
-        <f t="shared" ref="CX23:FI23" si="49">AVERAGE(CX4:CX21)</f>
+        <f t="shared" ref="CX23" si="49">AVERAGE(CX4:CX21)</f>
         <v>1.5392356458668287E-3</v>
       </c>
       <c r="CZ23">
-        <f t="shared" ref="CZ23:FK23" si="50">AVERAGE(CZ4:CZ21)</f>
+        <f t="shared" ref="CZ23" si="50">AVERAGE(CZ4:CZ21)</f>
         <v>1.8510681413008842E-3</v>
       </c>
       <c r="DB23">
-        <f t="shared" ref="DB23:FM23" si="51">AVERAGE(DB4:DB21)</f>
+        <f t="shared" ref="DB23" si="51">AVERAGE(DB4:DB21)</f>
         <v>1.7146536645053093E-3</v>
       </c>
       <c r="DD23">
-        <f t="shared" ref="DD23:FO23" si="52">AVERAGE(DD4:DD21)</f>
+        <f t="shared" ref="DD23" si="52">AVERAGE(DD4:DD21)</f>
         <v>1.3596693344685E-3</v>
       </c>
       <c r="DF23">
-        <f t="shared" ref="DF23:FQ23" si="53">AVERAGE(DF4:DF21)</f>
+        <f t="shared" ref="DF23" si="53">AVERAGE(DF4:DF21)</f>
         <v>1.8991093833267117E-3</v>
       </c>
       <c r="DH23">
-        <f t="shared" ref="DH23:FS23" si="54">AVERAGE(DH4:DH21)</f>
+        <f t="shared" ref="DH23" si="54">AVERAGE(DH4:DH21)</f>
         <v>1.4308979525580207E-3</v>
       </c>
       <c r="DJ23">
-        <f t="shared" ref="DJ23:FU23" si="55">AVERAGE(DJ4:DJ21)</f>
+        <f t="shared" ref="DJ23" si="55">AVERAGE(DJ4:DJ21)</f>
         <v>1.7001351319363687E-3</v>
       </c>
       <c r="DL23">
-        <f t="shared" ref="DL23:FW23" si="56">AVERAGE(DL4:DL21)</f>
+        <f t="shared" ref="DL23" si="56">AVERAGE(DL4:DL21)</f>
         <v>1.7230704894668626E-3</v>
       </c>
       <c r="DN23">
-        <f t="shared" ref="DN23:FY23" si="57">AVERAGE(DN4:DN21)</f>
+        <f t="shared" ref="DN23" si="57">AVERAGE(DN4:DN21)</f>
         <v>1.8090644904570372E-3</v>
       </c>
       <c r="DP23">
-        <f t="shared" ref="DP23:GA23" si="58">AVERAGE(DP4:DP21)</f>
+        <f t="shared" ref="DP23" si="58">AVERAGE(DP4:DP21)</f>
         <v>1.4465328503892616E-3</v>
       </c>
       <c r="DR23">
-        <f t="shared" ref="DR23:GC23" si="59">AVERAGE(DR4:DR21)</f>
+        <f t="shared" ref="DR23" si="59">AVERAGE(DR4:DR21)</f>
         <v>1.5807269783274652E-3</v>
       </c>
       <c r="DT23">
-        <f t="shared" ref="DT23:GE23" si="60">AVERAGE(DT4:DT21)</f>
+        <f t="shared" ref="DT23" si="60">AVERAGE(DT4:DT21)</f>
         <v>1.5483101627383423E-3</v>
       </c>
       <c r="DV23">
-        <f t="shared" ref="DV23:GG23" si="61">AVERAGE(DV4:DV21)</f>
+        <f t="shared" ref="DV23" si="61">AVERAGE(DV4:DV21)</f>
         <v>1.4012806123496328E-3</v>
       </c>
       <c r="DX23">
-        <f t="shared" ref="DX23:GI23" si="62">AVERAGE(DX4:DX21)</f>
+        <f t="shared" ref="DX23" si="62">AVERAGE(DX4:DX21)</f>
         <v>1.0988729780272036E-3</v>
       </c>
       <c r="DZ23">
-        <f t="shared" ref="DZ23:GK23" si="63">AVERAGE(DZ4:DZ21)</f>
+        <f t="shared" ref="DZ23" si="63">AVERAGE(DZ4:DZ21)</f>
         <v>1.4600935287937119E-3</v>
       </c>
       <c r="EB23">
-        <f t="shared" ref="EB23:GM23" si="64">AVERAGE(EB4:EB21)</f>
+        <f t="shared" ref="EB23" si="64">AVERAGE(EB4:EB21)</f>
         <v>1.2905109390934492E-3</v>
       </c>
       <c r="ED23">
-        <f t="shared" ref="ED23:GO23" si="65">AVERAGE(ED4:ED21)</f>
+        <f t="shared" ref="ED23" si="65">AVERAGE(ED4:ED21)</f>
         <v>1.5850026779101786E-3</v>
       </c>
       <c r="EF23">
-        <f t="shared" ref="EF23:GQ23" si="66">AVERAGE(EF4:EF21)</f>
+        <f t="shared" ref="EF23" si="66">AVERAGE(EF4:EF21)</f>
         <v>1.1893092953103061E-3</v>
       </c>
       <c r="EH23">
-        <f t="shared" ref="EH23:GS23" si="67">AVERAGE(EH4:EH21)</f>
+        <f t="shared" ref="EH23" si="67">AVERAGE(EH4:EH21)</f>
         <v>1.4129177057268418E-3</v>
       </c>
       <c r="EJ23">
-        <f t="shared" ref="EJ23:GU23" si="68">AVERAGE(EJ4:EJ21)</f>
+        <f t="shared" ref="EJ23" si="68">AVERAGE(EJ4:EJ21)</f>
         <v>1.4308441490766034E-3</v>
       </c>
       <c r="EL23">
-        <f t="shared" ref="EL23:GW23" si="69">AVERAGE(EL4:EL21)</f>
+        <f t="shared" ref="EL23" si="69">AVERAGE(EL4:EL21)</f>
         <v>1.2860747605152123E-3</v>
       </c>
       <c r="EN23">
-        <f t="shared" ref="EN23:GY23" si="70">AVERAGE(EN4:EN21)</f>
+        <f t="shared" ref="EN23" si="70">AVERAGE(EN4:EN21)</f>
         <v>1.3537570281686993E-3</v>
       </c>
       <c r="EP23">
-        <f t="shared" ref="EP23:HA23" si="71">AVERAGE(EP4:EP21)</f>
+        <f t="shared" ref="EP23" si="71">AVERAGE(EP4:EP21)</f>
         <v>1.144716946080482E-3</v>
       </c>
       <c r="ER23">
-        <f t="shared" ref="ER23:HC23" si="72">AVERAGE(ER4:ER21)</f>
+        <f t="shared" ref="ER23" si="72">AVERAGE(ER4:ER21)</f>
         <v>1.2065500621895964E-3</v>
       </c>
       <c r="ET23">
-        <f t="shared" ref="ET23:HE23" si="73">AVERAGE(ET4:ET21)</f>
+        <f t="shared" ref="ET23" si="73">AVERAGE(ET4:ET21)</f>
         <v>1.1876767916477328E-3</v>
       </c>
       <c r="EV23">
-        <f t="shared" ref="EV23:HG23" si="74">AVERAGE(EV4:EV21)</f>
+        <f t="shared" ref="EV23" si="74">AVERAGE(EV4:EV21)</f>
         <v>1.2706631537699484E-3</v>
       </c>
       <c r="EX23">
-        <f t="shared" ref="EX23:HI23" si="75">AVERAGE(EX4:EX21)</f>
+        <f t="shared" ref="EX23" si="75">AVERAGE(EX4:EX21)</f>
         <v>1.2760361483922218E-3</v>
       </c>
       <c r="EZ23">
-        <f t="shared" ref="EZ23:HK23" si="76">AVERAGE(EZ4:EZ21)</f>
+        <f t="shared" ref="EZ23" si="76">AVERAGE(EZ4:EZ21)</f>
         <v>5.9980715558783878E-4</v>
       </c>
       <c r="FB23">
-        <f t="shared" ref="FB23:HM23" si="77">AVERAGE(FB4:FB21)</f>
+        <f t="shared" ref="FB23" si="77">AVERAGE(FB4:FB21)</f>
         <v>9.5735542176272469E-4</v>
       </c>
       <c r="FD23">
-        <f t="shared" ref="FD23:HO23" si="78">AVERAGE(FD4:FD21)</f>
+        <f t="shared" ref="FD23" si="78">AVERAGE(FD4:FD21)</f>
         <v>1.1519170376254933E-3</v>
       </c>
       <c r="FF23">
-        <f t="shared" ref="FF23:HQ23" si="79">AVERAGE(FF4:FF21)</f>
+        <f t="shared" ref="FF23" si="79">AVERAGE(FF4:FF21)</f>
         <v>1.3217391156270563E-3</v>
       </c>
       <c r="FH23">
-        <f t="shared" ref="FH23:HS23" si="80">AVERAGE(FH4:FH21)</f>
+        <f t="shared" ref="FH23" si="80">AVERAGE(FH4:FH21)</f>
         <v>1.2128202412735223E-3</v>
       </c>
       <c r="FJ23">
-        <f t="shared" ref="FJ23:HU23" si="81">AVERAGE(FJ4:FJ21)</f>
+        <f t="shared" ref="FJ23" si="81">AVERAGE(FJ4:FJ21)</f>
         <v>1.1376823545850797E-3</v>
       </c>
       <c r="FL23">
-        <f t="shared" ref="FL23:HW23" si="82">AVERAGE(FL4:FL21)</f>
+        <f t="shared" ref="FL23" si="82">AVERAGE(FL4:FL21)</f>
         <v>1.2609347112969597E-3</v>
       </c>
       <c r="FN23">
-        <f t="shared" ref="FN23:HY23" si="83">AVERAGE(FN4:FN21)</f>
+        <f t="shared" ref="FN23" si="83">AVERAGE(FN4:FN21)</f>
         <v>1.2530892440740086E-3</v>
       </c>
       <c r="FP23">
-        <f t="shared" ref="FP23:IA23" si="84">AVERAGE(FP4:FP21)</f>
+        <f t="shared" ref="FP23" si="84">AVERAGE(FP4:FP21)</f>
         <v>1.0911683378632903E-3</v>
       </c>
       <c r="FR23">
-        <f t="shared" ref="FR23:IC23" si="85">AVERAGE(FR4:FR21)</f>
+        <f t="shared" ref="FR23" si="85">AVERAGE(FR4:FR21)</f>
         <v>9.8254160778434322E-4</v>
       </c>
       <c r="FT23">
-        <f t="shared" ref="FT23:IE23" si="86">AVERAGE(FT4:FT21)</f>
+        <f t="shared" ref="FT23" si="86">AVERAGE(FT4:FT21)</f>
         <v>1.1863500168446557E-3</v>
       </c>
       <c r="FV23">
-        <f t="shared" ref="FV23:IG23" si="87">AVERAGE(FV4:FV21)</f>
+        <f t="shared" ref="FV23" si="87">AVERAGE(FV4:FV21)</f>
         <v>1.1713016948456158E-3</v>
       </c>
       <c r="FX23">
-        <f t="shared" ref="FX23:II23" si="88">AVERAGE(FX4:FX21)</f>
+        <f t="shared" ref="FX23" si="88">AVERAGE(FX4:FX21)</f>
         <v>9.4633205269090527E-4</v>
       </c>
       <c r="FZ23">
-        <f t="shared" ref="FZ23:IK23" si="89">AVERAGE(FZ4:FZ21)</f>
+        <f t="shared" ref="FZ23" si="89">AVERAGE(FZ4:FZ21)</f>
         <v>1.0500540358734016E-3</v>
       </c>
       <c r="GB23">
-        <f t="shared" ref="GB23:IM23" si="90">AVERAGE(GB4:GB21)</f>
+        <f t="shared" ref="GB23" si="90">AVERAGE(GB4:GB21)</f>
         <v>1.1983952671167728E-3</v>
       </c>
       <c r="GD23">
-        <f t="shared" ref="GD23:IO23" si="91">AVERAGE(GD4:GD21)</f>
+        <f t="shared" ref="GD23" si="91">AVERAGE(GD4:GD21)</f>
         <v>1.0761515141972039E-3</v>
       </c>
       <c r="GF23">
-        <f t="shared" ref="GF23:IQ23" si="92">AVERAGE(GF4:GF21)</f>
+        <f t="shared" ref="GF23" si="92">AVERAGE(GF4:GF21)</f>
         <v>9.5765299926520988E-4</v>
       </c>
       <c r="GH23">
-        <f t="shared" ref="GH23:IS23" si="93">AVERAGE(GH4:GH21)</f>
+        <f t="shared" ref="GH23" si="93">AVERAGE(GH4:GH21)</f>
         <v>1.1061555645960363E-3</v>
       </c>
       <c r="GJ23">
-        <f t="shared" ref="GJ23:IU23" si="94">AVERAGE(GJ4:GJ21)</f>
+        <f t="shared" ref="GJ23" si="94">AVERAGE(GJ4:GJ21)</f>
         <v>1.1670422442370599E-3</v>
       </c>
       <c r="GL23">
-        <f t="shared" ref="GL23:IW23" si="95">AVERAGE(GL4:GL21)</f>
+        <f t="shared" ref="GL23" si="95">AVERAGE(GL4:GL21)</f>
         <v>1.1463876514604232E-3</v>
       </c>
       <c r="GN23">
-        <f t="shared" ref="GN23:IY23" si="96">AVERAGE(GN4:GN21)</f>
+        <f t="shared" ref="GN23" si="96">AVERAGE(GN4:GN21)</f>
         <v>9.3444475399808943E-4</v>
       </c>
       <c r="GP23">
-        <f t="shared" ref="GP23:JA23" si="97">AVERAGE(GP4:GP21)</f>
+        <f t="shared" ref="GP23" si="97">AVERAGE(GP4:GP21)</f>
         <v>9.7599065982627569E-4</v>
       </c>
       <c r="GR23">
-        <f t="shared" ref="GR23:JC23" si="98">AVERAGE(GR4:GR21)</f>
+        <f t="shared" ref="GR23" si="98">AVERAGE(GR4:GR21)</f>
         <v>1.0487471568968914E-3</v>
       </c>
       <c r="GT23">
-        <f t="shared" ref="GT23:JE23" si="99">AVERAGE(GT4:GT21)</f>
+        <f t="shared" ref="GT23" si="99">AVERAGE(GT4:GT21)</f>
         <v>1.0907165175254279E-3</v>
       </c>
       <c r="GV23">
-        <f t="shared" ref="GV23:JG23" si="100">AVERAGE(GV4:GV21)</f>
+        <f t="shared" ref="GV23" si="100">AVERAGE(GV4:GV21)</f>
         <v>9.3556006130937923E-4</v>
       </c>
       <c r="GX23">
-        <f t="shared" ref="GX23:JI23" si="101">AVERAGE(GX4:GX21)</f>
+        <f t="shared" ref="GX23" si="101">AVERAGE(GX4:GX21)</f>
         <v>7.0894859424449177E-4</v>
       </c>
       <c r="GZ23">
-        <f t="shared" ref="GZ23:JK23" si="102">AVERAGE(GZ4:GZ21)</f>
+        <f t="shared" ref="GZ23" si="102">AVERAGE(GZ4:GZ21)</f>
         <v>9.1767392819157051E-4</v>
       </c>
       <c r="HB23">
-        <f t="shared" ref="HB23:JM23" si="103">AVERAGE(HB4:HB21)</f>
+        <f t="shared" ref="HB23" si="103">AVERAGE(HB4:HB21)</f>
         <v>9.7894478221105053E-4</v>
       </c>
       <c r="HD23">
-        <f t="shared" ref="HD23:JO23" si="104">AVERAGE(HD4:HD21)</f>
+        <f t="shared" ref="HD23" si="104">AVERAGE(HD4:HD21)</f>
         <v>8.4526303840701462E-4</v>
       </c>
       <c r="HF23">
-        <f t="shared" ref="HF23:JQ23" si="105">AVERAGE(HF4:HF21)</f>
+        <f t="shared" ref="HF23" si="105">AVERAGE(HF4:HF21)</f>
         <v>7.9008328288890524E-4</v>
       </c>
       <c r="HH23">
-        <f t="shared" ref="HH23:JS23" si="106">AVERAGE(HH4:HH21)</f>
+        <f t="shared" ref="HH23" si="106">AVERAGE(HH4:HH21)</f>
         <v>8.4242370848190077E-4</v>
       </c>
       <c r="HJ23">
-        <f t="shared" ref="HJ23:JU23" si="107">AVERAGE(HJ4:HJ21)</f>
+        <f t="shared" ref="HJ23" si="107">AVERAGE(HJ4:HJ21)</f>
         <v>8.9967547379554398E-4</v>
       </c>
       <c r="HL23">
-        <f t="shared" ref="HL23:JW23" si="108">AVERAGE(HL4:HL21)</f>
+        <f t="shared" ref="HL23" si="108">AVERAGE(HL4:HL21)</f>
         <v>1.0057691736823282E-3</v>
       </c>
       <c r="HN23">
-        <f t="shared" ref="HN23:JY23" si="109">AVERAGE(HN4:HN21)</f>
+        <f t="shared" ref="HN23" si="109">AVERAGE(HN4:HN21)</f>
         <v>6.1506865050366599E-4</v>
       </c>
       <c r="HP23">
-        <f t="shared" ref="HP23:KA23" si="110">AVERAGE(HP4:HP21)</f>
+        <f t="shared" ref="HP23" si="110">AVERAGE(HP4:HP21)</f>
         <v>6.9749311700420514E-4</v>
       </c>
       <c r="HR23">
-        <f t="shared" ref="HR23:KC23" si="111">AVERAGE(HR4:HR21)</f>
+        <f t="shared" ref="HR23" si="111">AVERAGE(HR4:HR21)</f>
         <v>8.0885780159622219E-4</v>
       </c>
       <c r="HT23">
-        <f t="shared" ref="HT23:KE23" si="112">AVERAGE(HT4:HT21)</f>
+        <f t="shared" ref="HT23" si="112">AVERAGE(HT4:HT21)</f>
         <v>7.0793706260976715E-4</v>
       </c>
       <c r="HV23">
-        <f t="shared" ref="HV23:KG23" si="113">AVERAGE(HV4:HV21)</f>
+        <f t="shared" ref="HV23" si="113">AVERAGE(HV4:HV21)</f>
         <v>7.4018097558875551E-4</v>
       </c>
       <c r="HX23">
-        <f t="shared" ref="HX23:KI23" si="114">AVERAGE(HX4:HX21)</f>
+        <f t="shared" ref="HX23" si="114">AVERAGE(HX4:HX21)</f>
         <v>8.2329086912774304E-4</v>
       </c>
       <c r="HZ23">
-        <f t="shared" ref="HZ23:KK23" si="115">AVERAGE(HZ4:HZ21)</f>
+        <f t="shared" ref="HZ23" si="115">AVERAGE(HZ4:HZ21)</f>
         <v>8.5778858231683002E-4</v>
       </c>
       <c r="IB23">
-        <f t="shared" ref="IB23:KM23" si="116">AVERAGE(IB4:IB21)</f>
+        <f t="shared" ref="IB23" si="116">AVERAGE(IB4:IB21)</f>
         <v>7.8743797702144453E-4</v>
       </c>
       <c r="ID23">
-        <f t="shared" ref="ID23:KO23" si="117">AVERAGE(ID4:ID21)</f>
+        <f t="shared" ref="ID23" si="117">AVERAGE(ID4:ID21)</f>
         <v>7.8652913778563165E-4</v>
       </c>
       <c r="IF23">
-        <f t="shared" ref="IF23:KQ23" si="118">AVERAGE(IF4:IF21)</f>
+        <f t="shared" ref="IF23" si="118">AVERAGE(IF4:IF21)</f>
         <v>6.8754068474213554E-4</v>
       </c>
       <c r="IH23">
-        <f t="shared" ref="IH23:KS23" si="119">AVERAGE(IH4:IH21)</f>
+        <f t="shared" ref="IH23" si="119">AVERAGE(IH4:IH21)</f>
         <v>8.0432448441768384E-4</v>
       </c>
       <c r="IJ23">
-        <f t="shared" ref="IJ23:KU23" si="120">AVERAGE(IJ4:IJ21)</f>
+        <f t="shared" ref="IJ23" si="120">AVERAGE(IJ4:IJ21)</f>
         <v>7.2669024792572834E-4</v>
       </c>
       <c r="IL23">
-        <f t="shared" ref="IL23:KW23" si="121">AVERAGE(IL4:IL21)</f>
+        <f t="shared" ref="IL23" si="121">AVERAGE(IL4:IL21)</f>
         <v>6.9950188544627278E-4</v>
       </c>
       <c r="IN23">
-        <f t="shared" ref="IN23:KY23" si="122">AVERAGE(IN4:IN21)</f>
+        <f t="shared" ref="IN23" si="122">AVERAGE(IN4:IN21)</f>
         <v>2.0805820289509166E-4</v>
       </c>
       <c r="IP23">
-        <f t="shared" ref="IP23:LA23" si="123">AVERAGE(IP4:IP21)</f>
+        <f t="shared" ref="IP23" si="123">AVERAGE(IP4:IP21)</f>
         <v>7.6381882257842496E-4</v>
       </c>
       <c r="IR23">
-        <f t="shared" ref="IR23:LC23" si="124">AVERAGE(IR4:IR21)</f>
+        <f t="shared" ref="IR23" si="124">AVERAGE(IR4:IR21)</f>
         <v>6.917437387404091E-4</v>
       </c>
       <c r="IT23">
-        <f t="shared" ref="IT23:LE23" si="125">AVERAGE(IT4:IT21)</f>
+        <f t="shared" ref="IT23" si="125">AVERAGE(IT4:IT21)</f>
         <v>4.8716721999823718E-4</v>
       </c>
       <c r="IV23">
-        <f t="shared" ref="IV23:LG23" si="126">AVERAGE(IV4:IV21)</f>
+        <f t="shared" ref="IV23" si="126">AVERAGE(IV4:IV21)</f>
         <v>7.0674944420054907E-4</v>
       </c>
       <c r="IX23">
-        <f t="shared" ref="IX23:LI23" si="127">AVERAGE(IX4:IX21)</f>
+        <f t="shared" ref="IX23" si="127">AVERAGE(IX4:IX21)</f>
         <v>8.074935400516777E-4</v>
       </c>
       <c r="IZ23">
-        <f t="shared" ref="IZ23:LK23" si="128">AVERAGE(IZ4:IZ21)</f>
+        <f t="shared" ref="IZ23" si="128">AVERAGE(IZ4:IZ21)</f>
         <v>5.264779713139156E-4</v>
       </c>
       <c r="JB23">
-        <f t="shared" ref="JB23:LM23" si="129">AVERAGE(JB4:JB21)</f>
+        <f t="shared" ref="JB23" si="129">AVERAGE(JB4:JB21)</f>
         <v>5.6696238955604493E-4</v>
       </c>
       <c r="JD23">
-        <f t="shared" ref="JD23:LO23" si="130">AVERAGE(JD4:JD21)</f>
+        <f t="shared" ref="JD23" si="130">AVERAGE(JD4:JD21)</f>
         <v>6.7532346053672011E-4</v>
       </c>
       <c r="JF23">
-        <f t="shared" ref="JF23:LQ23" si="131">AVERAGE(JF4:JF21)</f>
+        <f t="shared" ref="JF23" si="131">AVERAGE(JF4:JF21)</f>
         <v>4.8245891036648593E-4</v>
       </c>
       <c r="JH23">
-        <f t="shared" ref="JH23:LS23" si="132">AVERAGE(JH4:JH21)</f>
+        <f t="shared" ref="JH23" si="132">AVERAGE(JH4:JH21)</f>
         <v>7.0752367825725228E-4</v>
       </c>
       <c r="JJ23">
-        <f t="shared" ref="JJ23:LU23" si="133">AVERAGE(JJ4:JJ21)</f>
+        <f t="shared" ref="JJ23" si="133">AVERAGE(JJ4:JJ21)</f>
         <v>7.1566788256379648E-4</v>
       </c>
       <c r="JL23">
-        <f t="shared" ref="JL23:LW23" si="134">AVERAGE(JL4:JL21)</f>
+        <f t="shared" ref="JL23" si="134">AVERAGE(JL4:JL21)</f>
         <v>5.5138222048944853E-4</v>
       </c>
       <c r="JN23">
-        <f t="shared" ref="JN23:LY23" si="135">AVERAGE(JN4:JN21)</f>
+        <f t="shared" ref="JN23" si="135">AVERAGE(JN4:JN21)</f>
         <v>6.7579924945435413E-4</v>
       </c>
       <c r="JP23">
-        <f t="shared" ref="JP23:MA23" si="136">AVERAGE(JP4:JP21)</f>
+        <f t="shared" ref="JP23" si="136">AVERAGE(JP4:JP21)</f>
         <v>7.7653405575900457E-4</v>
       </c>
       <c r="JR23">
-        <f t="shared" ref="JR23:MC23" si="137">AVERAGE(JR4:JR21)</f>
+        <f t="shared" ref="JR23" si="137">AVERAGE(JR4:JR21)</f>
         <v>7.2534771239389701E-4</v>
       </c>
       <c r="JT23">
-        <f t="shared" ref="JT23:ME23" si="138">AVERAGE(JT4:JT21)</f>
+        <f t="shared" ref="JT23" si="138">AVERAGE(JT4:JT21)</f>
         <v>6.0121731186654499E-4</v>
       </c>
       <c r="JV23">
-        <f t="shared" ref="JV23:MG23" si="139">AVERAGE(JV4:JV21)</f>
+        <f t="shared" ref="JV23" si="139">AVERAGE(JV4:JV21)</f>
         <v>6.936537242255501E-4</v>
       </c>
       <c r="JX23">
-        <f t="shared" ref="JX23:MI23" si="140">AVERAGE(JX4:JX21)</f>
+        <f t="shared" ref="JX23" si="140">AVERAGE(JX4:JX21)</f>
         <v>6.461528620289236E-4</v>
       </c>
       <c r="JZ23">
-        <f t="shared" ref="JZ23:MK23" si="141">AVERAGE(JZ4:JZ21)</f>
+        <f t="shared" ref="JZ23" si="141">AVERAGE(JZ4:JZ21)</f>
         <v>6.5259528309430782E-4</v>
       </c>
       <c r="KB23">
-        <f t="shared" ref="KB23:MM23" si="142">AVERAGE(KB4:KB21)</f>
+        <f t="shared" ref="KB23" si="142">AVERAGE(KB4:KB21)</f>
         <v>5.1262436822674157E-4</v>
       </c>
       <c r="KD23">
-        <f t="shared" ref="KD23:MO23" si="143">AVERAGE(KD4:KD21)</f>
+        <f t="shared" ref="KD23" si="143">AVERAGE(KD4:KD21)</f>
         <v>6.163081128508003E-4</v>
       </c>
       <c r="KF23">
-        <f t="shared" ref="KF23:MQ23" si="144">AVERAGE(KF4:KF21)</f>
+        <f t="shared" ref="KF23" si="144">AVERAGE(KF4:KF21)</f>
         <v>6.3124414260895328E-4</v>
       </c>
       <c r="KH23">
-        <f t="shared" ref="KH23:MS23" si="145">AVERAGE(KH4:KH21)</f>
+        <f t="shared" ref="KH23" si="145">AVERAGE(KH4:KH21)</f>
         <v>6.6055486147048798E-4</v>
       </c>
       <c r="KJ23">
-        <f t="shared" ref="KJ23:MU23" si="146">AVERAGE(KJ4:KJ21)</f>
+        <f t="shared" ref="KJ23" si="146">AVERAGE(KJ4:KJ21)</f>
         <v>5.608313022771828E-4</v>
       </c>
       <c r="KL23">
-        <f t="shared" ref="KL23:MW23" si="147">AVERAGE(KL4:KL21)</f>
+        <f t="shared" ref="KL23" si="147">AVERAGE(KL4:KL21)</f>
         <v>6.0954750845069669E-4</v>
       </c>
       <c r="KN23">
-        <f t="shared" ref="KN23:MY23" si="148">AVERAGE(KN4:KN21)</f>
+        <f t="shared" ref="KN23" si="148">AVERAGE(KN4:KN21)</f>
         <v>6.037212590949459E-4</v>
       </c>
       <c r="KP23">
-        <f t="shared" ref="KP23:NA23" si="149">AVERAGE(KP4:KP21)</f>
+        <f t="shared" ref="KP23" si="149">AVERAGE(KP4:KP21)</f>
         <v>5.789422131840347E-4</v>
       </c>
       <c r="KR23">
-        <f t="shared" ref="KR23:NC23" si="150">AVERAGE(KR4:KR21)</f>
+        <f t="shared" ref="KR23" si="150">AVERAGE(KR4:KR21)</f>
         <v>4.701958139870277E-4</v>
       </c>
       <c r="KT23">
-        <f t="shared" ref="KT23:NE23" si="151">AVERAGE(KT4:KT21)</f>
+        <f t="shared" ref="KT23" si="151">AVERAGE(KT4:KT21)</f>
         <v>5.4744284460943034E-4</v>
       </c>
       <c r="KV23">
-        <f t="shared" ref="KV23:NG23" si="152">AVERAGE(KV4:KV21)</f>
+        <f t="shared" ref="KV23" si="152">AVERAGE(KV4:KV21)</f>
         <v>6.4526032621319332E-4</v>
       </c>
       <c r="KX23">
-        <f t="shared" ref="KX23:NI23" si="153">AVERAGE(KX4:KX21)</f>
+        <f t="shared" ref="KX23" si="153">AVERAGE(KX4:KX21)</f>
         <v>6.7360997223666133E-4</v>
       </c>
       <c r="KZ23">
-        <f t="shared" ref="KZ23:NK23" si="154">AVERAGE(KZ4:KZ21)</f>
+        <f t="shared" ref="KZ23" si="154">AVERAGE(KZ4:KZ21)</f>
         <v>6.628754262354669E-4</v>
       </c>
       <c r="LB23">
-        <f t="shared" ref="LB23:NM23" si="155">AVERAGE(LB4:LB21)</f>
+        <f t="shared" ref="LB23" si="155">AVERAGE(LB4:LB21)</f>
         <v>5.8778292980302745E-4</v>
       </c>
       <c r="LD23">
-        <f t="shared" ref="LD23:NO23" si="156">AVERAGE(LD4:LD21)</f>
+        <f t="shared" ref="LD23" si="156">AVERAGE(LD4:LD21)</f>
         <v>6.4881729007942228E-4</v>
       </c>
       <c r="LF23">
-        <f t="shared" ref="LF23:NQ23" si="157">AVERAGE(LF4:LF21)</f>
+        <f t="shared" ref="LF23" si="157">AVERAGE(LF4:LF21)</f>
         <v>4.9801513877571312E-4</v>
       </c>
       <c r="LH23">
-        <f t="shared" ref="LH23:NS23" si="158">AVERAGE(LH4:LH21)</f>
+        <f t="shared" ref="LH23" si="158">AVERAGE(LH4:LH21)</f>
         <v>6.2535956622499845E-4</v>
       </c>
       <c r="LJ23">
-        <f t="shared" ref="LJ23:NU23" si="159">AVERAGE(LJ4:LJ21)</f>
+        <f t="shared" ref="LJ23" si="159">AVERAGE(LJ4:LJ21)</f>
         <v>5.9142899675304432E-4</v>
       </c>
       <c r="LL23">
-        <f t="shared" ref="LL23:NW23" si="160">AVERAGE(LL4:LL21)</f>
+        <f t="shared" ref="LL23" si="160">AVERAGE(LL4:LL21)</f>
         <v>5.9612183370440469E-4</v>
       </c>
       <c r="LN23">
-        <f t="shared" ref="LN23:NY23" si="161">AVERAGE(LN4:LN21)</f>
+        <f t="shared" ref="LN23" si="161">AVERAGE(LN4:LN21)</f>
         <v>6.4412238325281665E-4</v>
       </c>
       <c r="LP23">
-        <f t="shared" ref="LP23:OA23" si="162">AVERAGE(LP4:LP21)</f>
+        <f t="shared" ref="LP23" si="162">AVERAGE(LP4:LP21)</f>
         <v>5.7448505897518759E-4</v>
       </c>
       <c r="LR23">
-        <f t="shared" ref="LR23:OC23" si="163">AVERAGE(LR4:LR21)</f>
+        <f t="shared" ref="LR23" si="163">AVERAGE(LR4:LR21)</f>
         <v>5.6038018182426623E-4</v>
       </c>
       <c r="LT23">
-        <f t="shared" ref="LT23:OE23" si="164">AVERAGE(LT4:LT21)</f>
+        <f t="shared" ref="LT23" si="164">AVERAGE(LT4:LT21)</f>
         <v>4.8972864660628017E-4</v>
       </c>
       <c r="LV23">
-        <f t="shared" ref="LV23:OG23" si="165">AVERAGE(LV4:LV21)</f>
+        <f t="shared" ref="LV23" si="165">AVERAGE(LV4:LV21)</f>
         <v>5.9662587254421455E-4</v>
       </c>
       <c r="LX23">
-        <f t="shared" ref="LX23:OI23" si="166">AVERAGE(LX4:LX21)</f>
+        <f t="shared" ref="LX23" si="166">AVERAGE(LX4:LX21)</f>
         <v>5.6516396331564994E-4</v>
       </c>
       <c r="LZ23">
-        <f t="shared" ref="LZ23:OK23" si="167">AVERAGE(LZ4:LZ21)</f>
+        <f t="shared" ref="LZ23" si="167">AVERAGE(LZ4:LZ21)</f>
         <v>5.9689919320288134E-4</v>
       </c>
       <c r="MB23">
-        <f t="shared" ref="MB23:OM23" si="168">AVERAGE(MB4:MB21)</f>
+        <f t="shared" ref="MB23" si="168">AVERAGE(MB4:MB21)</f>
         <v>5.17183459263657E-4</v>
       </c>
       <c r="MD23">
-        <f t="shared" ref="MD23:OO23" si="169">AVERAGE(MD4:MD21)</f>
+        <f t="shared" ref="MD23" si="169">AVERAGE(MD4:MD21)</f>
         <v>4.8454269750460764E-4</v>
       </c>
       <c r="MF23">
-        <f t="shared" ref="MF23:OQ23" si="170">AVERAGE(MF4:MF21)</f>
+        <f t="shared" ref="MF23" si="170">AVERAGE(MF4:MF21)</f>
         <v>5.3592602832867593E-4</v>
       </c>
       <c r="MH23">
-        <f t="shared" ref="MH23:OS23" si="171">AVERAGE(MH4:MH21)</f>
+        <f t="shared" ref="MH23" si="171">AVERAGE(MH4:MH21)</f>
         <v>4.6239662023232861E-4</v>
       </c>
       <c r="MJ23">
-        <f t="shared" ref="MJ23:OU23" si="172">AVERAGE(MJ4:MJ21)</f>
+        <f t="shared" ref="MJ23" si="172">AVERAGE(MJ4:MJ21)</f>
         <v>4.7765837265158803E-4</v>
       </c>
       <c r="ML23">
-        <f t="shared" ref="ML23:OW23" si="173">AVERAGE(ML4:ML21)</f>
+        <f t="shared" ref="ML23" si="173">AVERAGE(ML4:ML21)</f>
         <v>5.0987096386697316E-4</v>
       </c>
       <c r="MN23">
-        <f t="shared" ref="MN23:OY23" si="174">AVERAGE(MN4:MN21)</f>
+        <f t="shared" ref="MN23" si="174">AVERAGE(MN4:MN21)</f>
         <v>5.1324379469736795E-4</v>
       </c>
       <c r="MP23">
-        <f t="shared" ref="MP23:PA23" si="175">AVERAGE(MP4:MP21)</f>
+        <f t="shared" ref="MP23" si="175">AVERAGE(MP4:MP21)</f>
         <v>5.950352588493951E-4</v>
       </c>
       <c r="MR23">
-        <f t="shared" ref="MR23:PC23" si="176">AVERAGE(MR4:MR21)</f>
+        <f t="shared" ref="MR23" si="176">AVERAGE(MR4:MR21)</f>
         <v>5.7707621196142382E-4</v>
       </c>
       <c r="MT23">
-        <f t="shared" ref="MT23:PE23" si="177">AVERAGE(MT4:MT21)</f>
+        <f t="shared" ref="MT23" si="177">AVERAGE(MT4:MT21)</f>
         <v>5.4021793877823989E-4</v>
       </c>
       <c r="MV23">
-        <f t="shared" ref="MV23:PG23" si="178">AVERAGE(MV4:MV21)</f>
+        <f t="shared" ref="MV23" si="178">AVERAGE(MV4:MV21)</f>
         <v>5.2105878525132666E-4</v>
       </c>
       <c r="MX23">
-        <f t="shared" ref="MX23:PI23" si="179">AVERAGE(MX4:MX21)</f>
+        <f t="shared" ref="MX23" si="179">AVERAGE(MX4:MX21)</f>
         <v>5.5997159653155401E-4</v>
       </c>
       <c r="MZ23">
-        <f t="shared" ref="MZ23:PK23" si="180">AVERAGE(MZ4:MZ21)</f>
+        <f t="shared" ref="MZ23" si="180">AVERAGE(MZ4:MZ21)</f>
         <v>4.5035460738281893E-4</v>
       </c>
       <c r="NB23">
-        <f t="shared" ref="NB23:PM23" si="181">AVERAGE(NB4:NB21)</f>
+        <f t="shared" ref="NB23" si="181">AVERAGE(NB4:NB21)</f>
         <v>4.3350349577364166E-4</v>
       </c>
       <c r="ND23">
-        <f t="shared" ref="ND23:PO23" si="182">AVERAGE(ND4:ND21)</f>
+        <f t="shared" ref="ND23" si="182">AVERAGE(ND4:ND21)</f>
         <v>5.6487901163336995E-4</v>
       </c>
       <c r="NF23">
-        <f t="shared" ref="NF23:PQ23" si="183">AVERAGE(NF4:NF21)</f>
+        <f t="shared" ref="NF23" si="183">AVERAGE(NF4:NF21)</f>
         <v>5.7124599542585129E-4</v>
       </c>
       <c r="NH23">
-        <f t="shared" ref="NH23:PS23" si="184">AVERAGE(NH4:NH21)</f>
+        <f t="shared" ref="NH23" si="184">AVERAGE(NH4:NH21)</f>
         <v>5.4273448786380937E-4</v>
       </c>
       <c r="NJ23">
-        <f t="shared" ref="NJ23:PU23" si="185">AVERAGE(NJ4:NJ21)</f>
+        <f t="shared" ref="NJ23" si="185">AVERAGE(NJ4:NJ21)</f>
         <v>4.7398667949444039E-4</v>
       </c>
       <c r="NL23">
-        <f t="shared" ref="NL23:PW23" si="186">AVERAGE(NL4:NL21)</f>
+        <f t="shared" ref="NL23" si="186">AVERAGE(NL4:NL21)</f>
         <v>5.5702889038423834E-4</v>
       </c>
       <c r="NN23">
-        <f t="shared" ref="NN23:PY23" si="187">AVERAGE(NN4:NN21)</f>
+        <f t="shared" ref="NN23" si="187">AVERAGE(NN4:NN21)</f>
         <v>5.7485100001091654E-4</v>
       </c>
       <c r="NP23">
-        <f t="shared" ref="NP23:QA23" si="188">AVERAGE(NP4:NP21)</f>
+        <f t="shared" ref="NP23" si="188">AVERAGE(NP4:NP21)</f>
         <v>4.6291250261713016E-4</v>
       </c>
       <c r="NR23">
-        <f t="shared" ref="NR23:QC23" si="189">AVERAGE(NR4:NR21)</f>
+        <f t="shared" ref="NR23" si="189">AVERAGE(NR4:NR21)</f>
         <v>4.4347676590634621E-4</v>
       </c>
       <c r="NT23">
-        <f t="shared" ref="NT23:QE23" si="190">AVERAGE(NT4:NT21)</f>
+        <f t="shared" ref="NT23" si="190">AVERAGE(NT4:NT21)</f>
         <v>5.0762554839640884E-4</v>
       </c>
       <c r="NV23">
-        <f t="shared" ref="NV23:QG23" si="191">AVERAGE(NV4:NV21)</f>
+        <f t="shared" ref="NV23" si="191">AVERAGE(NV4:NV21)</f>
         <v>4.3433513667138785E-4</v>
       </c>
       <c r="NX23">
-        <f t="shared" ref="NX23:QI23" si="192">AVERAGE(NX4:NX21)</f>
+        <f t="shared" ref="NX23" si="192">AVERAGE(NX4:NX21)</f>
         <v>3.859254474355004E-4</v>
       </c>
       <c r="NZ23">
-        <f t="shared" ref="NZ23:QK23" si="193">AVERAGE(NZ4:NZ21)</f>
+        <f t="shared" ref="NZ23" si="193">AVERAGE(NZ4:NZ21)</f>
         <v>5.4546197431142138E-4</v>
       </c>
       <c r="OB23">
-        <f t="shared" ref="OB23:QM23" si="194">AVERAGE(OB4:OB21)</f>
+        <f t="shared" ref="OB23" si="194">AVERAGE(OB4:OB21)</f>
         <v>5.1196057856805761E-4</v>
       </c>
       <c r="OD23">
-        <f t="shared" ref="OD23:QO23" si="195">AVERAGE(OD4:OD21)</f>
+        <f t="shared" ref="OD23" si="195">AVERAGE(OD4:OD21)</f>
         <v>4.3272725588921069E-4</v>
       </c>
       <c r="OF23">
-        <f t="shared" ref="OF23:QQ23" si="196">AVERAGE(OF4:OF21)</f>
+        <f t="shared" ref="OF23" si="196">AVERAGE(OF4:OF21)</f>
         <v>3.3643465565548323E-4</v>
       </c>
       <c r="OH23">
-        <f t="shared" ref="OH23:QS23" si="197">AVERAGE(OH4:OH21)</f>
+        <f t="shared" ref="OH23" si="197">AVERAGE(OH4:OH21)</f>
         <v>4.8223031112253539E-4</v>
       </c>
       <c r="OJ23">
-        <f t="shared" ref="OJ23:QU23" si="198">AVERAGE(OJ4:OJ21)</f>
+        <f t="shared" ref="OJ23" si="198">AVERAGE(OJ4:OJ21)</f>
         <v>5.087507489099734E-4</v>
       </c>
       <c r="OL23">
-        <f t="shared" ref="OL23:QW23" si="199">AVERAGE(OL4:OL21)</f>
+        <f t="shared" ref="OL23" si="199">AVERAGE(OL4:OL21)</f>
         <v>4.1549259828030176E-4</v>
       </c>
       <c r="ON23">
-        <f t="shared" ref="ON23:QY23" si="200">AVERAGE(ON4:ON21)</f>
+        <f t="shared" ref="ON23" si="200">AVERAGE(ON4:ON21)</f>
         <v>5.076585638480193E-4</v>
       </c>
       <c r="OP23">
-        <f t="shared" ref="OP23:RA23" si="201">AVERAGE(OP4:OP21)</f>
+        <f t="shared" ref="OP23" si="201">AVERAGE(OP4:OP21)</f>
         <v>4.6720107605319476E-4</v>
       </c>
       <c r="OR23">
-        <f t="shared" ref="OR23:RC23" si="202">AVERAGE(OR4:OR21)</f>
+        <f t="shared" ref="OR23" si="202">AVERAGE(OR4:OR21)</f>
         <v>3.9038797804012986E-4</v>
       </c>
       <c r="OT23">
-        <f t="shared" ref="OT23:RE23" si="203">AVERAGE(OT4:OT21)</f>
+        <f t="shared" ref="OT23" si="203">AVERAGE(OT4:OT21)</f>
         <v>4.2342076666963423E-4</v>
       </c>
       <c r="OV23">
-        <f t="shared" ref="OV23:RG23" si="204">AVERAGE(OV4:OV21)</f>
+        <f t="shared" ref="OV23" si="204">AVERAGE(OV4:OV21)</f>
         <v>5.2124409295115266E-4</v>
       </c>
       <c r="OX23">
-        <f t="shared" ref="OX23:RI23" si="205">AVERAGE(OX4:OX21)</f>
+        <f t="shared" ref="OX23" si="205">AVERAGE(OX4:OX21)</f>
         <v>4.548540418745001E-4</v>
       </c>
       <c r="OZ23">
-        <f t="shared" ref="OZ23:RK23" si="206">AVERAGE(OZ4:OZ21)</f>
+        <f t="shared" ref="OZ23" si="206">AVERAGE(OZ4:OZ21)</f>
         <v>4.7247925443606319E-4</v>
       </c>
       <c r="PB23">
-        <f t="shared" ref="PB23:RM23" si="207">AVERAGE(PB4:PB21)</f>
+        <f t="shared" ref="PB23" si="207">AVERAGE(PB4:PB21)</f>
         <v>4.2408190509891431E-4</v>
       </c>
       <c r="PD23">
-        <f t="shared" ref="PD23:RO23" si="208">AVERAGE(PD4:PD21)</f>
+        <f t="shared" ref="PD23" si="208">AVERAGE(PD4:PD21)</f>
         <v>4.5607959702388218E-4</v>
       </c>
       <c r="PF23">
-        <f t="shared" ref="PF23:RQ23" si="209">AVERAGE(PF4:PF21)</f>
+        <f t="shared" ref="PF23" si="209">AVERAGE(PF4:PF21)</f>
         <v>4.980087716665683E-4</v>
       </c>
       <c r="PH23">
-        <f t="shared" ref="PH23:RS23" si="210">AVERAGE(PH4:PH21)</f>
+        <f t="shared" ref="PH23" si="210">AVERAGE(PH4:PH21)</f>
         <v>4.980087716665683E-4</v>
       </c>
       <c r="PJ23">
-        <f t="shared" ref="PJ23:RU23" si="211">AVERAGE(PJ4:PJ21)</f>
+        <f t="shared" ref="PJ23" si="211">AVERAGE(PJ4:PJ21)</f>
         <v>4.8300915803700206E-4</v>
       </c>
       <c r="PL23">
-        <f t="shared" ref="PL23:RW23" si="212">AVERAGE(PL4:PL21)</f>
+        <f t="shared" ref="PL23" si="212">AVERAGE(PL4:PL21)</f>
         <v>3.6142754382810759E-4</v>
       </c>
       <c r="PN23">
-        <f t="shared" ref="PN23:RY23" si="213">AVERAGE(PN4:PN21)</f>
+        <f t="shared" ref="PN23" si="213">AVERAGE(PN4:PN21)</f>
         <v>3.9533647343773247E-4</v>
       </c>
       <c r="PP23">
-        <f t="shared" ref="PP23:SA23" si="214">AVERAGE(PP4:PP21)</f>
+        <f t="shared" ref="PP23" si="214">AVERAGE(PP4:PP21)</f>
         <v>3.8298276990613654E-4</v>
       </c>
       <c r="PR23">
-        <f t="shared" ref="PR23:SC23" si="215">AVERAGE(PR4:PR21)</f>
+        <f t="shared" ref="PR23" si="215">AVERAGE(PR4:PR21)</f>
         <v>4.497939034839215E-4</v>
       </c>
       <c r="PT23">
-        <f t="shared" ref="PT23:SE23" si="216">AVERAGE(PT4:PT21)</f>
+        <f t="shared" ref="PT23" si="216">AVERAGE(PT4:PT21)</f>
         <v>4.8449612403100775E-4</v>
       </c>
       <c r="PV23">
-        <f t="shared" ref="PV23:SG23" si="217">AVERAGE(PV4:PV21)</f>
+        <f t="shared" ref="PV23" si="217">AVERAGE(PV4:PV21)</f>
         <v>4.4407478379774137E-4</v>
       </c>
       <c r="PX23">
-        <f t="shared" ref="PX23:SI23" si="218">AVERAGE(PX4:PX21)</f>
+        <f t="shared" ref="PX23" si="218">AVERAGE(PX4:PX21)</f>
         <v>3.6859364236076626E-4</v>
       </c>
       <c r="PZ23">
-        <f t="shared" ref="PZ23:SK23" si="219">AVERAGE(PZ4:PZ21)</f>
+        <f t="shared" ref="PZ23" si="219">AVERAGE(PZ4:PZ21)</f>
         <v>4.4099401889689815E-4</v>
       </c>
       <c r="QB23">
-        <f t="shared" ref="QB23:SM23" si="220">AVERAGE(QB4:QB21)</f>
+        <f t="shared" ref="QB23" si="220">AVERAGE(QB4:QB21)</f>
         <v>4.2557699537647709E-4</v>
       </c>
       <c r="QD23">
-        <f t="shared" ref="QD23:SO23" si="221">AVERAGE(QD4:QD21)</f>
+        <f t="shared" ref="QD23" si="221">AVERAGE(QD4:QD21)</f>
         <v>4.7980999780590614E-4</v>
       </c>
       <c r="QF23">
-        <f t="shared" ref="QF23:SQ23" si="222">AVERAGE(QF4:QF21)</f>
+        <f t="shared" ref="QF23" si="222">AVERAGE(QF4:QF21)</f>
         <v>4.0985280985749562E-4</v>
       </c>
       <c r="QH23">
-        <f t="shared" ref="QH23:SS23" si="223">AVERAGE(QH4:QH21)</f>
+        <f t="shared" ref="QH23" si="223">AVERAGE(QH4:QH21)</f>
         <v>3.4251116053045101E-4</v>
       </c>
       <c r="QJ23">
-        <f t="shared" ref="QJ23:SU23" si="224">AVERAGE(QJ4:QJ21)</f>
+        <f t="shared" ref="QJ23" si="224">AVERAGE(QJ4:QJ21)</f>
         <v>3.3048871207235506E-4</v>
       </c>
       <c r="QL23">
-        <f t="shared" ref="QL23:SW23" si="225">AVERAGE(QL4:QL21)</f>
+        <f t="shared" ref="QL23" si="225">AVERAGE(QL4:QL21)</f>
         <v>4.7261368387156093E-4</v>
       </c>
       <c r="QN23">
-        <f t="shared" ref="QN23:SY23" si="226">AVERAGE(QN4:QN21)</f>
+        <f t="shared" ref="QN23" si="226">AVERAGE(QN4:QN21)</f>
         <v>3.3359343218560862E-4</v>
       </c>
       <c r="QP23">
-        <f t="shared" ref="QP23:TA23" si="227">AVERAGE(QP4:QP21)</f>
+        <f t="shared" ref="QP23" si="227">AVERAGE(QP4:QP21)</f>
         <v>4.3999962106795721E-4</v>
       </c>
       <c r="QR23">
-        <f t="shared" ref="QR23:TC23" si="228">AVERAGE(QR4:QR21)</f>
+        <f t="shared" ref="QR23" si="228">AVERAGE(QR4:QR21)</f>
         <v>4.2336259611565791E-4</v>
       </c>
       <c r="QT23">
-        <f t="shared" ref="QT23:TE23" si="229">AVERAGE(QT4:QT21)</f>
+        <f t="shared" ref="QT23" si="229">AVERAGE(QT4:QT21)</f>
         <v>3.870878710334397E-4</v>
       </c>
       <c r="QV23">
-        <f t="shared" ref="QV23:TG23" si="230">AVERAGE(QV4:QV21)</f>
+        <f t="shared" ref="QV23" si="230">AVERAGE(QV4:QV21)</f>
         <v>3.5960003499526289E-4</v>
       </c>
       <c r="QX23">
-        <f t="shared" ref="QX23:TI23" si="231">AVERAGE(QX4:QX21)</f>
+        <f t="shared" ref="QX23" si="231">AVERAGE(QX4:QX21)</f>
         <v>3.0532899740964565E-4</v>
       </c>
       <c r="QZ23">
-        <f t="shared" ref="QZ23:TK23" si="232">AVERAGE(QZ4:QZ21)</f>
+        <f t="shared" ref="QZ23" si="232">AVERAGE(QZ4:QZ21)</f>
         <v>3.7892120118598893E-4</v>
       </c>
       <c r="RB23">
-        <f t="shared" ref="RB23:TM23" si="233">AVERAGE(RB4:RB21)</f>
+        <f t="shared" ref="RB23" si="233">AVERAGE(RB4:RB21)</f>
         <v>4.2781988246784773E-4</v>
       </c>
       <c r="RD23">
-        <f t="shared" ref="RD23:TO23" si="234">AVERAGE(RD4:RD21)</f>
+        <f t="shared" ref="RD23" si="234">AVERAGE(RD4:RD21)</f>
         <v>3.4522796296323837E-4</v>
       </c>
       <c r="RF23">
-        <f t="shared" ref="RF23:TQ23" si="235">AVERAGE(RF4:RF21)</f>
+        <f t="shared" ref="RF23" si="235">AVERAGE(RF4:RF21)</f>
         <v>4.2740778667157628E-4</v>
       </c>
       <c r="RH23">
-        <f t="shared" ref="RH23:TS23" si="236">AVERAGE(RH4:RH21)</f>
+        <f t="shared" ref="RH23" si="236">AVERAGE(RH4:RH21)</f>
         <v>3.3982614702908367E-4</v>
       </c>
       <c r="RJ23">
-        <f t="shared" ref="RJ23:TU23" si="237">AVERAGE(RJ4:RJ21)</f>
+        <f t="shared" ref="RJ23" si="237">AVERAGE(RJ4:RJ21)</f>
         <v>4.3224208603295908E-4</v>
       </c>
       <c r="RL23">
-        <f t="shared" ref="RL23:TW23" si="238">AVERAGE(RL4:RL21)</f>
+        <f t="shared" ref="RL23" si="238">AVERAGE(RL4:RL21)</f>
         <v>4.3665275217660675E-4</v>
       </c>
       <c r="RN23">
-        <f t="shared" ref="RN23:TY23" si="239">AVERAGE(RN4:RN21)</f>
+        <f t="shared" ref="RN23" si="239">AVERAGE(RN4:RN21)</f>
         <v>3.8147987263846463E-4</v>
       </c>
       <c r="RP23">
-        <f t="shared" ref="RP23:UA23" si="240">AVERAGE(RP4:RP21)</f>
+        <f t="shared" ref="RP23" si="240">AVERAGE(RP4:RP21)</f>
         <v>4.3494782773715663E-4</v>
       </c>
       <c r="RR23">
-        <f t="shared" ref="RR23:UC23" si="241">AVERAGE(RR4:RR21)</f>
+        <f t="shared" ref="RR23" si="241">AVERAGE(RR4:RR21)</f>
         <v>1.389031192810565E-4</v>
       </c>
       <c r="RT23">
-        <f t="shared" ref="RT23:UE23" si="242">AVERAGE(RT4:RT21)</f>
+        <f t="shared" ref="RT23" si="242">AVERAGE(RT4:RT21)</f>
         <v>3.3369611656624572E-4</v>
       </c>
       <c r="RV23">
-        <f t="shared" ref="RV23:UG23" si="243">AVERAGE(RV4:RV21)</f>
+        <f t="shared" ref="RV23" si="243">AVERAGE(RV4:RV21)</f>
         <v>3.4737246375155455E-4</v>
       </c>
       <c r="RX23">
-        <f t="shared" ref="RX23:UI23" si="244">AVERAGE(RX4:RX21)</f>
+        <f t="shared" ref="RX23" si="244">AVERAGE(RX4:RX21)</f>
         <v>3.3555617851012599E-4</v>
       </c>
       <c r="RZ23">
-        <f t="shared" ref="RZ23:UK23" si="245">AVERAGE(RZ4:RZ21)</f>
+        <f t="shared" ref="RZ23" si="245">AVERAGE(RZ4:RZ21)</f>
         <v>3.46244796124112E-4</v>
       </c>
       <c r="SB23">
-        <f t="shared" ref="SB23:UM23" si="246">AVERAGE(SB4:SB21)</f>
+        <f t="shared" ref="SB23" si="246">AVERAGE(SB4:SB21)</f>
         <v>3.6701583253955915E-4</v>
       </c>
       <c r="SD23">
-        <f t="shared" ref="SD23:UO23" si="247">AVERAGE(SD4:SD21)</f>
+        <f t="shared" ref="SD23" si="247">AVERAGE(SD4:SD21)</f>
         <v>3.4584962528057739E-4</v>
       </c>
       <c r="SF23">
-        <f t="shared" ref="SF23:UQ23" si="248">AVERAGE(SF4:SF21)</f>
+        <f t="shared" ref="SF23" si="248">AVERAGE(SF4:SF21)</f>
         <v>3.4754881089730209E-4</v>
       </c>
       <c r="SH23">
-        <f t="shared" ref="SH23:US23" si="249">AVERAGE(SH4:SH21)</f>
+        <f t="shared" ref="SH23" si="249">AVERAGE(SH4:SH21)</f>
         <v>3.6230313080523174E-4</v>
       </c>
       <c r="SJ23">
-        <f t="shared" ref="SJ23:UU23" si="250">AVERAGE(SJ4:SJ21)</f>
+        <f t="shared" ref="SJ23" si="250">AVERAGE(SJ4:SJ21)</f>
         <v>4.0435983780044986E-4</v>
       </c>
       <c r="SL23">
-        <f t="shared" ref="SL23:UW23" si="251">AVERAGE(SL4:SL21)</f>
+        <f t="shared" ref="SL23" si="251">AVERAGE(SL4:SL21)</f>
         <v>3.8811812254912483E-4</v>
       </c>
       <c r="SN23">
-        <f t="shared" ref="SN23:UY23" si="252">AVERAGE(SN4:SN21)</f>
+        <f t="shared" ref="SN23" si="252">AVERAGE(SN4:SN21)</f>
         <v>3.1224032896203451E-4</v>
       </c>
       <c r="SP23">
-        <f t="shared" ref="SP23:VA23" si="253">AVERAGE(SP4:SP21)</f>
+        <f t="shared" ref="SP23" si="253">AVERAGE(SP4:SP21)</f>
         <v>3.8100388486764843E-4</v>
       </c>
       <c r="SR23">
-        <f t="shared" ref="SR23:VC23" si="254">AVERAGE(SR4:SR21)</f>
+        <f t="shared" ref="SR23" si="254">AVERAGE(SR4:SR21)</f>
         <v>3.7443439840121392E-4</v>
       </c>
       <c r="ST23">
-        <f t="shared" ref="ST23:VE23" si="255">AVERAGE(ST4:ST21)</f>
+        <f t="shared" ref="ST23" si="255">AVERAGE(ST4:ST21)</f>
         <v>3.5759656821487355E-4</v>
       </c>
       <c r="SV23">
-        <f t="shared" ref="SV23:VG23" si="256">AVERAGE(SV4:SV21)</f>
+        <f t="shared" ref="SV23" si="256">AVERAGE(SV4:SV21)</f>
         <v>4.1070896751769001E-4</v>
       </c>
       <c r="SX23">
-        <f t="shared" ref="SX23:VI23" si="257">AVERAGE(SX4:SX21)</f>
+        <f t="shared" ref="SX23" si="257">AVERAGE(SX4:SX21)</f>
         <v>3.6955567127898241E-4</v>
       </c>
       <c r="SZ23">
-        <f t="shared" ref="SZ23:VK23" si="258">AVERAGE(SZ4:SZ21)</f>
+        <f t="shared" ref="SZ23" si="258">AVERAGE(SZ4:SZ21)</f>
         <v>3.7924110608475876E-4</v>
       </c>
       <c r="TB23">
-        <f t="shared" ref="TB23:VM23" si="259">AVERAGE(TB4:TB21)</f>
+        <f t="shared" ref="TB23" si="259">AVERAGE(TB4:TB21)</f>
         <v>2.3382492690788754E-4</v>
       </c>
       <c r="TD23">
-        <f t="shared" ref="TD23:VO23" si="260">AVERAGE(TD4:TD21)</f>
+        <f t="shared" ref="TD23" si="260">AVERAGE(TD4:TD21)</f>
         <v>4.0137133464295525E-4</v>
       </c>
       <c r="TF23">
-        <f t="shared" ref="TF23:VQ23" si="261">AVERAGE(TF4:TF21)</f>
+        <f t="shared" ref="TF23" si="261">AVERAGE(TF4:TF21)</f>
         <v>4.0137133464295525E-4</v>
       </c>
       <c r="TH23">
-        <f t="shared" ref="TH23:VS23" si="262">AVERAGE(TH4:TH21)</f>
+        <f t="shared" ref="TH23" si="262">AVERAGE(TH4:TH21)</f>
         <v>3.6035860634264804E-4</v>
       </c>
       <c r="TJ23">
-        <f t="shared" ref="TJ23:VU23" si="263">AVERAGE(TJ4:TJ21)</f>
+        <f t="shared" ref="TJ23" si="263">AVERAGE(TJ4:TJ21)</f>
         <v>3.8352735808683161E-4</v>
       </c>
       <c r="TL23">
-        <f t="shared" ref="TL23:VW23" si="264">AVERAGE(TL4:TL21)</f>
+        <f t="shared" ref="TL23" si="264">AVERAGE(TL4:TL21)</f>
         <v>4.0007568762166236E-4</v>
       </c>
       <c r="TN23">
-        <f t="shared" ref="TN23:VY23" si="265">AVERAGE(TN4:TN21)</f>
+        <f t="shared" ref="TN23" si="265">AVERAGE(TN4:TN21)</f>
         <v>3.9157738270166761E-4</v>
       </c>
       <c r="TP23">
-        <f t="shared" ref="TP23:WA23" si="266">AVERAGE(TP4:TP21)</f>
+        <f t="shared" ref="TP23" si="266">AVERAGE(TP4:TP21)</f>
         <v>2.6123294465728281E-4</v>
       </c>
       <c r="TR23">
-        <f t="shared" ref="TR23:WC23" si="267">AVERAGE(TR4:TR21)</f>
+        <f t="shared" ref="TR23" si="267">AVERAGE(TR4:TR21)</f>
         <v>3.6110782593052303E-4</v>
       </c>
       <c r="TT23">
-        <f t="shared" ref="TT23:WE23" si="268">AVERAGE(TT4:TT21)</f>
+        <f t="shared" ref="TT23" si="268">AVERAGE(TT4:TT21)</f>
         <v>3.2691639614742255E-4</v>
       </c>
       <c r="TV23">
-        <f t="shared" ref="TV23:WG23" si="269">AVERAGE(TV4:TV21)</f>
+        <f t="shared" ref="TV23" si="269">AVERAGE(TV4:TV21)</f>
         <v>2.9583073372048077E-4</v>
       </c>
       <c r="TX23">
-        <f t="shared" ref="TX23:WI23" si="270">AVERAGE(TX4:TX21)</f>
+        <f t="shared" ref="TX23" si="270">AVERAGE(TX4:TX21)</f>
         <v>3.7946817965343096E-4</v>
       </c>
       <c r="TZ23">
-        <f t="shared" ref="TZ23:WK23" si="271">AVERAGE(TZ4:TZ21)</f>
+        <f t="shared" ref="TZ23" si="271">AVERAGE(TZ4:TZ21)</f>
         <v>3.8195140119321938E-4</v>
       </c>
       <c r="UB23">
-        <f t="shared" ref="UB23:WM23" si="272">AVERAGE(UB4:UB21)</f>
+        <f t="shared" ref="UB23" si="272">AVERAGE(UB4:UB21)</f>
         <v>3.7844772933444745E-4</v>
       </c>
       <c r="UD23">
-        <f t="shared" ref="UD23:WO23" si="273">AVERAGE(UD4:UD21)</f>
+        <f t="shared" ref="UD23" si="273">AVERAGE(UD4:UD21)</f>
         <v>3.8676526419389404E-4</v>
       </c>
       <c r="UF23">
-        <f t="shared" ref="UF23:WQ23" si="274">AVERAGE(UF4:UF21)</f>
+        <f t="shared" ref="UF23" si="274">AVERAGE(UF4:UF21)</f>
         <v>3.7901098605764769E-4</v>
       </c>
       <c r="UH23">
-        <f t="shared" ref="UH23:WS23" si="275">AVERAGE(UH4:UH21)</f>
+        <f t="shared" ref="UH23" si="275">AVERAGE(UH4:UH21)</f>
         <v>3.8528144875495845E-4</v>
       </c>
       <c r="UJ23">
-        <f t="shared" ref="UJ23:WU23" si="276">AVERAGE(UJ4:UJ21)</f>
+        <f t="shared" ref="UJ23" si="276">AVERAGE(UJ4:UJ21)</f>
         <v>3.221279486224561E-4</v>
       </c>
       <c r="UL23">
-        <f t="shared" ref="UL23:WW23" si="277">AVERAGE(UL4:UL21)</f>
+        <f t="shared" ref="UL23" si="277">AVERAGE(UL4:UL21)</f>
         <v>3.6098968763802609E-4</v>
       </c>
       <c r="UN23">
-        <f t="shared" ref="UN23:WY23" si="278">AVERAGE(UN4:UN21)</f>
+        <f t="shared" ref="UN23" si="278">AVERAGE(UN4:UN21)</f>
         <v>3.8437933134148589E-4</v>
       </c>
       <c r="UP23">
-        <f t="shared" ref="UP23:XA23" si="279">AVERAGE(UP4:UP21)</f>
+        <f t="shared" ref="UP23" si="279">AVERAGE(UP4:UP21)</f>
         <v>3.7425052345869958E-4</v>
       </c>
       <c r="UR23">
-        <f t="shared" ref="UR23:XC23" si="280">AVERAGE(UR4:UR21)</f>
+        <f t="shared" ref="UR23" si="280">AVERAGE(UR4:UR21)</f>
         <v>3.436065535735655E-4</v>
       </c>
       <c r="UT23">
-        <f t="shared" ref="UT23:XE23" si="281">AVERAGE(UT4:UT21)</f>
+        <f t="shared" ref="UT23" si="281">AVERAGE(UT4:UT21)</f>
         <v>3.8131077930099943E-4</v>
       </c>
       <c r="UV23">
-        <f t="shared" ref="UV23:XG23" si="282">AVERAGE(UV4:UV21)</f>
+        <f t="shared" ref="UV23" si="282">AVERAGE(UV4:UV21)</f>
         <v>3.6936643857609876E-4</v>
       </c>
       <c r="UX23">
-        <f t="shared" ref="UX23:XI23" si="283">AVERAGE(UX4:UX21)</f>
+        <f t="shared" ref="UX23" si="283">AVERAGE(UX4:UX21)</f>
         <v>3.7907921279710724E-4</v>
       </c>
       <c r="UZ23">
-        <f t="shared" ref="UZ23:XK23" si="284">AVERAGE(UZ4:UZ21)</f>
+        <f t="shared" ref="UZ23" si="284">AVERAGE(UZ4:UZ21)</f>
         <v>3.7169254649747018E-4</v>
       </c>
       <c r="VB23">
-        <f t="shared" ref="VB23:XM23" si="285">AVERAGE(VB4:VB21)</f>
+        <f t="shared" ref="VB23" si="285">AVERAGE(VB4:VB21)</f>
         <v>3.3654225453854373E-4</v>
       </c>
       <c r="VD23">
-        <f t="shared" ref="VD23:XO23" si="286">AVERAGE(VD4:VD21)</f>
+        <f t="shared" ref="VD23" si="286">AVERAGE(VD4:VD21)</f>
         <v>2.6294369683937014E-4</v>
       </c>
       <c r="VF23">
-        <f t="shared" ref="VF23:XQ23" si="287">AVERAGE(VF4:VF21)</f>
+        <f t="shared" ref="VF23" si="287">AVERAGE(VF4:VF21)</f>
         <v>3.4048946530862147E-4</v>
       </c>
       <c r="VH23">
-        <f t="shared" ref="VH23:XS23" si="288">AVERAGE(VH4:VH21)</f>
+        <f t="shared" ref="VH23" si="288">AVERAGE(VH4:VH21)</f>
         <v>2.9101382199514471E-4</v>
       </c>
       <c r="VJ23">
-        <f t="shared" ref="VJ23:XU23" si="289">AVERAGE(VJ4:VJ21)</f>
+        <f t="shared" ref="VJ23" si="289">AVERAGE(VJ4:VJ21)</f>
         <v>2.8790077854799501E-4</v>
       </c>
       <c r="VL23">
-        <f t="shared" ref="VL23:XW23" si="290">AVERAGE(VL4:VL21)</f>
+        <f t="shared" ref="VL23" si="290">AVERAGE(VL4:VL21)</f>
         <v>3.5414483727543608E-4</v>
       </c>
       <c r="VN23">
-        <f t="shared" ref="VN23:XY23" si="291">AVERAGE(VN4:VN21)</f>
+        <f t="shared" ref="VN23" si="291">AVERAGE(VN4:VN21)</f>
         <v>2.5937457384213173E-4</v>
       </c>
       <c r="VP23">
-        <f t="shared" ref="VP23:YA23" si="292">AVERAGE(VP4:VP21)</f>
+        <f t="shared" ref="VP23" si="292">AVERAGE(VP4:VP21)</f>
         <v>3.4579699246415989E-4</v>
       </c>
       <c r="VR23">
-        <f t="shared" ref="VR23:YC23" si="293">AVERAGE(VR4:VR21)</f>
+        <f t="shared" ref="VR23" si="293">AVERAGE(VR4:VR21)</f>
         <v>3.6678403755868554E-4</v>
       </c>
       <c r="VT23">
-        <f t="shared" ref="VT23:YE23" si="294">AVERAGE(VT4:VT21)</f>
+        <f t="shared" ref="VT23" si="294">AVERAGE(VT4:VT21)</f>
         <v>3.2238070417472931E-4</v>
       </c>
       <c r="VV23">
-        <f t="shared" ref="VV23:YG23" si="295">AVERAGE(VV4:VV21)</f>
+        <f t="shared" ref="VV23" si="295">AVERAGE(VV4:VV21)</f>
         <v>3.4521878093364566E-4</v>
       </c>
       <c r="VX23">
-        <f t="shared" ref="VX23:YI23" si="296">AVERAGE(VX4:VX21)</f>
+        <f t="shared" ref="VX23" si="296">AVERAGE(VX4:VX21)</f>
         <v>2.6637455826400815E-4</v>
       </c>
       <c r="VZ23">
-        <f t="shared" ref="VZ23:YK23" si="297">AVERAGE(VZ4:VZ21)</f>
+        <f t="shared" ref="VZ23" si="297">AVERAGE(VZ4:VZ21)</f>
         <v>2.6974376791834753E-4</v>
       </c>
       <c r="WB23">
-        <f t="shared" ref="WB23:YM23" si="298">AVERAGE(WB4:WB21)</f>
+        <f t="shared" ref="WB23" si="298">AVERAGE(WB4:WB21)</f>
         <v>3.3103193269497726E-4</v>
       </c>
       <c r="WD23">
-        <f t="shared" ref="WD23:YO23" si="299">AVERAGE(WD4:WD21)</f>
+        <f t="shared" ref="WD23" si="299">AVERAGE(WD4:WD21)</f>
         <v>3.6263417464461834E-4</v>
       </c>
       <c r="WF23">
-        <f t="shared" ref="WF23:YQ23" si="300">AVERAGE(WF4:WF21)</f>
+        <f t="shared" ref="WF23" si="300">AVERAGE(WF4:WF21)</f>
         <v>3.6253548471728013E-4</v>
       </c>
       <c r="WH23">
-        <f t="shared" ref="WH23:YS23" si="301">AVERAGE(WH4:WH21)</f>
+        <f t="shared" ref="WH23" si="301">AVERAGE(WH4:WH21)</f>
         <v>3.6253548471728013E-4</v>
       </c>
       <c r="WJ23">
-        <f t="shared" ref="WJ23:YU23" si="302">AVERAGE(WJ4:WJ21)</f>
+        <f t="shared" ref="WJ23" si="302">AVERAGE(WJ4:WJ21)</f>
         <v>3.307758610593865E-4</v>
       </c>
       <c r="WL23">
-        <f t="shared" ref="WL23:YW23" si="303">AVERAGE(WL4:WL21)</f>
+        <f t="shared" ref="WL23" si="303">AVERAGE(WL4:WL21)</f>
         <v>2.6597098900580719E-4</v>
       </c>
       <c r="WN23">
-        <f t="shared" ref="WN23:YY23" si="304">AVERAGE(WN4:WN21)</f>
+        <f t="shared" ref="WN23" si="304">AVERAGE(WN4:WN21)</f>
         <v>2.3105160856421722E-4</v>
       </c>
       <c r="WP23">
-        <f t="shared" ref="WP23:ZA23" si="305">AVERAGE(WP4:WP21)</f>
+        <f t="shared" ref="WP23" si="305">AVERAGE(WP4:WP21)</f>
         <v>3.0746403068284886E-4</v>
       </c>
       <c r="WR23">
-        <f t="shared" ref="WR23:ZC23" si="306">AVERAGE(WR4:WR21)</f>
+        <f t="shared" ref="WR23" si="306">AVERAGE(WR4:WR21)</f>
         <v>2.0921418002050154E-4</v>
       </c>
       <c r="WT23">
-        <f t="shared" ref="WT23:ZE23" si="307">AVERAGE(WT4:WT21)</f>
+        <f t="shared" ref="WT23" si="307">AVERAGE(WT4:WT21)</f>
         <v>3.5455321968863297E-4</v>
       </c>
       <c r="WV23">
-        <f t="shared" ref="WV23:ZG23" si="308">AVERAGE(WV4:WV21)</f>
+        <f t="shared" ref="WV23" si="308">AVERAGE(WV4:WV21)</f>
         <v>3.4846940073072471E-4</v>
       </c>
       <c r="WX23">
-        <f t="shared" ref="WX23:ZI23" si="309">AVERAGE(WX4:WX21)</f>
+        <f t="shared" ref="WX23" si="309">AVERAGE(WX4:WX21)</f>
         <v>2.3832754645374874E-4</v>
       </c>
       <c r="WZ23">
-        <f t="shared" ref="WZ23:ZK23" si="310">AVERAGE(WZ4:WZ21)</f>
+        <f t="shared" ref="WZ23" si="310">AVERAGE(WZ4:WZ21)</f>
         <v>3.5224870919419945E-4</v>
       </c>
       <c r="XB23">
-        <f t="shared" ref="XB23:ZM23" si="311">AVERAGE(XB4:XB21)</f>
+        <f t="shared" ref="XB23" si="311">AVERAGE(XB4:XB21)</f>
         <v>2.4262233635583691E-4</v>
       </c>
       <c r="XD23">
-        <f t="shared" ref="XD23:ZO23" si="312">AVERAGE(XD4:XD21)</f>
+        <f t="shared" ref="XD23" si="312">AVERAGE(XD4:XD21)</f>
         <v>2.4336182614962933E-4</v>
       </c>
       <c r="XF23">
-        <f t="shared" ref="XF23:ZQ23" si="313">AVERAGE(XF4:XF21)</f>
+        <f t="shared" ref="XF23" si="313">AVERAGE(XF4:XF21)</f>
         <v>2.3963539346237952E-4</v>
       </c>
       <c r="XH23">
-        <f t="shared" ref="XH23:ZS23" si="314">AVERAGE(XH4:XH21)</f>
+        <f t="shared" ref="XH23" si="314">AVERAGE(XH4:XH21)</f>
         <v>2.2859235154056105E-4</v>
       </c>
       <c r="XJ23">
-        <f t="shared" ref="XJ23:ZU23" si="315">AVERAGE(XJ4:XJ21)</f>
+        <f t="shared" ref="XJ23" si="315">AVERAGE(XJ4:XJ21)</f>
         <v>8.6661111846802777E-5</v>
       </c>
       <c r="XL23">
-        <f t="shared" ref="XL23:ZW23" si="316">AVERAGE(XL4:XL21)</f>
+        <f t="shared" ref="XL23" si="316">AVERAGE(XL4:XL21)</f>
         <v>3.2236798128698911E-4</v>
       </c>
       <c r="XN23">
-        <f t="shared" ref="XN23:ZY23" si="317">AVERAGE(XN4:XN21)</f>
+        <f t="shared" ref="XN23" si="317">AVERAGE(XN4:XN21)</f>
         <v>3.4287633265258309E-4</v>
       </c>
       <c r="XP23">
-        <f t="shared" ref="XP23:AAA23" si="318">AVERAGE(XP4:XP21)</f>
+        <f t="shared" ref="XP23" si="318">AVERAGE(XP4:XP21)</f>
         <v>3.0412949397299531E-4</v>
       </c>
       <c r="XR23">
-        <f t="shared" ref="XR23:AAC23" si="319">AVERAGE(XR4:XR21)</f>
+        <f t="shared" ref="XR23" si="319">AVERAGE(XR4:XR21)</f>
         <v>3.4268054145645697E-4</v>
       </c>
       <c r="XT23">
-        <f t="shared" ref="XT23:AAE23" si="320">AVERAGE(XT4:XT21)</f>
+        <f t="shared" ref="XT23" si="320">AVERAGE(XT4:XT21)</f>
         <v>2.9744813667044868E-4</v>
       </c>
       <c r="XV23">
-        <f t="shared" ref="XV23:AAG23" si="321">AVERAGE(XV4:XV21)</f>
+        <f t="shared" ref="XV23" si="321">AVERAGE(XV4:XV21)</f>
         <v>3.1820746791867346E-4</v>
       </c>
       <c r="XX23">
-        <f t="shared" ref="XX23:AAI23" si="322">AVERAGE(XX4:XX21)</f>
+        <f t="shared" ref="XX23" si="322">AVERAGE(XX4:XX21)</f>
         <v>2.715816787837078E-4</v>
       </c>
       <c r="XZ23">
-        <f t="shared" ref="XZ23:AAK23" si="323">AVERAGE(XZ4:XZ21)</f>
+        <f t="shared" ref="XZ23" si="323">AVERAGE(XZ4:XZ21)</f>
         <v>2.8080074128716413E-4</v>
       </c>
       <c r="YB23">
-        <f t="shared" ref="YB23:AAM23" si="324">AVERAGE(YB4:YB21)</f>
+        <f t="shared" ref="YB23" si="324">AVERAGE(YB4:YB21)</f>
         <v>3.2645967595765321E-4</v>
       </c>
       <c r="YD23">
-        <f t="shared" ref="YD23:AAO23" si="325">AVERAGE(YD4:YD21)</f>
+        <f t="shared" ref="YD23" si="325">AVERAGE(YD4:YD21)</f>
         <v>2.6815773290828429E-4</v>
       </c>
       <c r="YF23">
-        <f t="shared" ref="YF23:AAQ23" si="326">AVERAGE(YF4:YF21)</f>
+        <f t="shared" ref="YF23" si="326">AVERAGE(YF4:YF21)</f>
         <v>2.9019339229399238E-4</v>
       </c>
       <c r="YH23">
-        <f t="shared" ref="YH23:AAS23" si="327">AVERAGE(YH4:YH21)</f>
+        <f t="shared" ref="YH23" si="327">AVERAGE(YH4:YH21)</f>
         <v>3.2811431382683985E-4</v>
       </c>
       <c r="YJ23">
-        <f t="shared" ref="YJ23:AAU23" si="328">AVERAGE(YJ4:YJ21)</f>
+        <f t="shared" ref="YJ23" si="328">AVERAGE(YJ4:YJ21)</f>
         <v>2.8878311868851613E-4</v>
       </c>
       <c r="YL23">
-        <f t="shared" ref="YL23:AAW23" si="329">AVERAGE(YL4:YL21)</f>
+        <f t="shared" ref="YL23" si="329">AVERAGE(YL4:YL21)</f>
         <v>2.8105296323362004E-4</v>
       </c>
       <c r="YN23">
-        <f t="shared" ref="YN23:AAY23" si="330">AVERAGE(YN4:YN21)</f>
+        <f t="shared" ref="YN23" si="330">AVERAGE(YN4:YN21)</f>
         <v>2.6357695035530293E-4</v>
       </c>
       <c r="YP23">
-        <f t="shared" ref="YP23:ABA23" si="331">AVERAGE(YP4:YP21)</f>
+        <f t="shared" ref="YP23" si="331">AVERAGE(YP4:YP21)</f>
         <v>2.5911682757102992E-4</v>
       </c>
       <c r="YR23">
-        <f t="shared" ref="YR23:ABC23" si="332">AVERAGE(YR4:YR21)</f>
+        <f t="shared" ref="YR23" si="332">AVERAGE(YR4:YR21)</f>
         <v>3.2567846424291292E-4</v>
       </c>
       <c r="YT23">
-        <f t="shared" ref="YT23:ABE23" si="333">AVERAGE(YT4:YT21)</f>
+        <f t="shared" ref="YT23" si="333">AVERAGE(YT4:YT21)</f>
         <v>2.7420582522540892E-4</v>
       </c>
       <c r="YV23">
-        <f t="shared" ref="YV23:ABG23" si="334">AVERAGE(YV4:YV21)</f>
+        <f t="shared" ref="YV23" si="334">AVERAGE(YV4:YV21)</f>
         <v>3.2299741602067169E-4</v>
       </c>
       <c r="YX23">
-        <f t="shared" ref="YX23:ABI23" si="335">AVERAGE(YX4:YX21)</f>
+        <f t="shared" ref="YX23" si="335">AVERAGE(YX4:YX21)</f>
         <v>3.2299741602067169E-4</v>
       </c>
       <c r="YZ23">
-        <f t="shared" ref="YZ23:ABK23" si="336">AVERAGE(YZ4:YZ21)</f>
+        <f t="shared" ref="YZ23" si="336">AVERAGE(YZ4:YZ21)</f>
         <v>2.0604749690677422E-4</v>
       </c>
       <c r="ZB23">
-        <f t="shared" ref="ZB23:ABM23" si="337">AVERAGE(ZB4:ZB21)</f>
+        <f t="shared" ref="ZB23" si="337">AVERAGE(ZB4:ZB21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="ZD23">
-        <f t="shared" ref="ZD23:ABO23" si="338">AVERAGE(ZD4:ZD21)</f>
+        <f t="shared" ref="ZD23" si="338">AVERAGE(ZD4:ZD21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="ZF23">
-        <f t="shared" ref="ZF23:ABQ23" si="339">AVERAGE(ZF4:ZF21)</f>
+        <f t="shared" ref="ZF23" si="339">AVERAGE(ZF4:ZF21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="ZH23">
-        <f t="shared" ref="ZH23:ABS23" si="340">AVERAGE(ZH4:ZH21)</f>
+        <f t="shared" ref="ZH23" si="340">AVERAGE(ZH4:ZH21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="ZJ23">
-        <f t="shared" ref="ZJ23:ABU23" si="341">AVERAGE(ZJ4:ZJ21)</f>
+        <f t="shared" ref="ZJ23" si="341">AVERAGE(ZJ4:ZJ21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="ZL23">
-        <f t="shared" ref="ZL23:ABW23" si="342">AVERAGE(ZL4:ZL21)</f>
+        <f t="shared" ref="ZL23" si="342">AVERAGE(ZL4:ZL21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="ZN23">
-        <f t="shared" ref="ZN23:ABY23" si="343">AVERAGE(ZN4:ZN21)</f>
+        <f t="shared" ref="ZN23" si="343">AVERAGE(ZN4:ZN21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="ZP23">
-        <f t="shared" ref="ZP23:ACA23" si="344">AVERAGE(ZP4:ZP21)</f>
+        <f t="shared" ref="ZP23" si="344">AVERAGE(ZP4:ZP21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="ZR23">
-        <f t="shared" ref="ZR23:ACC23" si="345">AVERAGE(ZR4:ZR21)</f>
+        <f t="shared" ref="ZR23" si="345">AVERAGE(ZR4:ZR21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="ZT23">
-        <f t="shared" ref="ZT23:ACE23" si="346">AVERAGE(ZT4:ZT21)</f>
+        <f t="shared" ref="ZT23" si="346">AVERAGE(ZT4:ZT21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="ZV23">
-        <f t="shared" ref="ZV23:ACG23" si="347">AVERAGE(ZV4:ZV21)</f>
+        <f t="shared" ref="ZV23" si="347">AVERAGE(ZV4:ZV21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="ZX23">
-        <f t="shared" ref="ZX23:ACI23" si="348">AVERAGE(ZX4:ZX21)</f>
+        <f t="shared" ref="ZX23" si="348">AVERAGE(ZX4:ZX21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="ZZ23">
-        <f t="shared" ref="ZZ23:ACK23" si="349">AVERAGE(ZZ4:ZZ21)</f>
+        <f t="shared" ref="ZZ23" si="349">AVERAGE(ZZ4:ZZ21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="AAB23">
-        <f t="shared" ref="AAB23:ACM23" si="350">AVERAGE(AAB4:AAB21)</f>
+        <f t="shared" ref="AAB23" si="350">AVERAGE(AAB4:AAB21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="AAD23">
-        <f t="shared" ref="AAD23:ACO23" si="351">AVERAGE(AAD4:AAD21)</f>
+        <f t="shared" ref="AAD23" si="351">AVERAGE(AAD4:AAD21)</f>
         <v>3.2206119162640887E-4</v>
       </c>
       <c r="AAF23">
-        <f t="shared" ref="AAF23:ACQ23" si="352">AVERAGE(AAF4:AAF21)</f>
+        <f t="shared" ref="AAF23" si="352">AVERAGE(AAF4:AAF21)</f>
         <v>2.9826200136712835E-4</v>
       </c>
       <c r="AAH23">
-        <f t="shared" ref="AAH23:ACS23" si="353">AVERAGE(AAH4:AAH21)</f>
+        <f t="shared" ref="AAH23" si="353">AVERAGE(AAH4:AAH21)</f>
         <v>3.1628602008530607E-4</v>
       </c>
       <c r="AAJ23">
-        <f t="shared" ref="AAJ23:ACU23" si="354">AVERAGE(AAJ4:AAJ21)</f>
+        <f t="shared" ref="AAJ23" si="354">AVERAGE(AAJ4:AAJ21)</f>
         <v>2.9767767766236106E-4</v>
       </c>
       <c r="AAL23">
-        <f t="shared" ref="AAL23:ACW23" si="355">AVERAGE(AAL4:AAL21)</f>
+        <f t="shared" ref="AAL23" si="355">AVERAGE(AAL4:AAL21)</f>
         <v>2.3582522110747472E-4</v>
       </c>
       <c r="AAN23">
-        <f t="shared" ref="AAN23:ACY23" si="356">AVERAGE(AAN4:AAN21)</f>
+        <f t="shared" ref="AAN23" si="356">AVERAGE(AAN4:AAN21)</f>
         <v>2.6320617869249037E-4</v>
       </c>
       <c r="AAP23">
-        <f t="shared" ref="AAP23:ADA23" si="357">AVERAGE(AAP4:AAP21)</f>
+        <f t="shared" ref="AAP23" si="357">AVERAGE(AAP4:AAP21)</f>
         <v>2.93311727178344E-4</v>
       </c>
       <c r="AAR23">
-        <f t="shared" ref="AAR23:ADC23" si="358">AVERAGE(AAR4:AAR21)</f>
+        <f t="shared" ref="AAR23" si="358">AVERAGE(AAR4:AAR21)</f>
         <v>2.9393314827396604E-4</v>
       </c>
       <c r="AAT23">
-        <f t="shared" ref="AAT23:ADE23" si="359">AVERAGE(AAT4:AAT21)</f>
+        <f t="shared" ref="AAT23" si="359">AVERAGE(AAT4:AAT21)</f>
         <v>2.6418163523474897E-4</v>
       </c>
       <c r="AAV23">
-        <f t="shared" ref="AAV23:ADG23" si="360">AVERAGE(AAV4:AAV21)</f>
+        <f t="shared" ref="AAV23" si="360">AVERAGE(AAV4:AAV21)</f>
         <v>2.9597348104614074E-4</v>
       </c>
       <c r="AAX23">
-        <f t="shared" ref="AAX23:ADI23" si="361">AVERAGE(AAX4:AAX21)</f>
+        <f t="shared" ref="AAX23" si="361">AVERAGE(AAX4:AAX21)</f>
         <v>2.9311701675850525E-4</v>
       </c>
       <c r="AAZ23">
-        <f t="shared" ref="AAZ23:ADK23" si="362">AVERAGE(AAZ4:AAZ21)</f>
+        <f t="shared" ref="AAZ23" si="362">AVERAGE(AAZ4:AAZ21)</f>
         <v>3.1328416168391999E-4</v>
       </c>
       <c r="ABB23">
-        <f t="shared" ref="ABB23:ADM23" si="363">AVERAGE(ABB4:ABB21)</f>
+        <f t="shared" ref="ABB23" si="363">AVERAGE(ABB4:ABB21)</f>
         <v>2.3373862973704353E-4</v>
       </c>
       <c r="ABD23">
-        <f t="shared" ref="ABD23:ADO23" si="364">AVERAGE(ABD4:ABD21)</f>
+        <f t="shared" ref="ABD23" si="364">AVERAGE(ABD4:ABD21)</f>
         <v>3.1215147569022835E-4</v>
       </c>
       <c r="ABF23">
-        <f t="shared" ref="ABF23:ADQ23" si="365">AVERAGE(ABF4:ABF21)</f>
+        <f t="shared" ref="ABF23" si="365">AVERAGE(ABF4:ABF21)</f>
         <v>2.9115734590299484E-4</v>
       </c>
       <c r="ABH23">
-        <f t="shared" ref="ABH23:ADS23" si="366">AVERAGE(ABH4:ABH21)</f>
+        <f t="shared" ref="ABH23" si="366">AVERAGE(ABH4:ABH21)</f>
         <v>1.7911471711251595E-4</v>
       </c>
       <c r="ABJ23">
-        <f t="shared" ref="ABJ23:ADU23" si="367">AVERAGE(ABJ4:ABJ21)</f>
+        <f t="shared" ref="ABJ23" si="367">AVERAGE(ABJ4:ABJ21)</f>
         <v>2.6868630321938907E-4</v>
       </c>
       <c r="ABL23">
-        <f t="shared" ref="ABL23:ADW23" si="368">AVERAGE(ABL4:ABL21)</f>
+        <f t="shared" ref="ABL23" si="368">AVERAGE(ABL4:ABL21)</f>
         <v>3.0084688753859997E-4</v>
       </c>
       <c r="ABN23">
-        <f t="shared" ref="ABN23:ADY23" si="369">AVERAGE(ABN4:ABN21)</f>
+        <f t="shared" ref="ABN23" si="369">AVERAGE(ABN4:ABN21)</f>
         <v>2.8559706490985674E-4</v>
       </c>
       <c r="ABP23">
-        <f t="shared" ref="ABP23:AEA23" si="370">AVERAGE(ABP4:ABP21)</f>
+        <f t="shared" ref="ABP23" si="370">AVERAGE(ABP4:ABP21)</f>
         <v>2.9336922939986421E-4</v>
       </c>
       <c r="ABR23">
-        <f t="shared" ref="ABR23:AEC23" si="371">AVERAGE(ABR4:ABR21)</f>
+        <f t="shared" ref="ABR23" si="371">AVERAGE(ABR4:ABR21)</f>
         <v>2.3411926537929921E-4</v>
       </c>
       <c r="ABT23">
-        <f t="shared" ref="ABT23:AEE23" si="372">AVERAGE(ABT4:ABT21)</f>
+        <f t="shared" ref="ABT23" si="372">AVERAGE(ABT4:ABT21)</f>
         <v>2.3689220436560278E-4</v>
       </c>
       <c r="ABV23">
-        <f t="shared" ref="ABV23:AEG23" si="373">AVERAGE(ABV4:ABV21)</f>
+        <f t="shared" ref="ABV23" si="373">AVERAGE(ABV4:ABV21)</f>
         <v>2.6692675347291005E-4</v>
       </c>
       <c r="ABX23">
-        <f t="shared" ref="ABX23:AEI23" si="374">AVERAGE(ABX4:ABX21)</f>
+        <f t="shared" ref="ABX23" si="374">AVERAGE(ABX4:ABX21)</f>
         <v>2.6823619601772406E-4</v>
       </c>
       <c r="ABZ23">
-        <f t="shared" ref="ABZ23:AEK23" si="375">AVERAGE(ABZ4:ABZ21)</f>
+        <f t="shared" ref="ABZ23" si="375">AVERAGE(ABZ4:ABZ21)</f>
         <v>2.9564596815481324E-4</v>
       </c>
       <c r="ACB23">
-        <f t="shared" ref="ACB23:AEM23" si="376">AVERAGE(ACB4:ACB21)</f>
+        <f t="shared" ref="ACB23" si="376">AVERAGE(ACB4:ACB21)</f>
         <v>2.7958559455175717E-4</v>
       </c>
       <c r="ACD23">
-        <f t="shared" ref="ACD23:AEO23" si="377">AVERAGE(ACD4:ACD21)</f>
+        <f t="shared" ref="ACD23" si="377">AVERAGE(ACD4:ACD21)</f>
         <v>2.8068486126373395E-4</v>
       </c>
       <c r="ACF23">
-        <f t="shared" ref="ACF23:AEQ23" si="378">AVERAGE(ACF4:ACF21)</f>
+        <f t="shared" ref="ACF23" si="378">AVERAGE(ACF4:ACF21)</f>
         <v>2.6173462398132783E-4</v>
       </c>
       <c r="ACH23">
-        <f t="shared" ref="ACH23:AES23" si="379">AVERAGE(ACH4:ACH21)</f>
+        <f t="shared" ref="ACH23" si="379">AVERAGE(ACH4:ACH21)</f>
         <v>2.8006438216321623E-4</v>
       </c>
       <c r="ACJ23">
-        <f t="shared" ref="ACJ23:AEU23" si="380">AVERAGE(ACJ4:ACJ21)</f>
+        <f t="shared" ref="ACJ23" si="380">AVERAGE(ACJ4:ACJ21)</f>
         <v>2.9566042853523215E-4</v>
       </c>
       <c r="ACL23">
-        <f t="shared" ref="ACL23:AEW23" si="381">AVERAGE(ACL4:ACL21)</f>
+        <f t="shared" ref="ACL23" si="381">AVERAGE(ACL4:ACL21)</f>
         <v>2.9616046191612596E-4</v>
       </c>
       <c r="ACN23">
-        <f t="shared" ref="ACN23:AEY23" si="382">AVERAGE(ACN4:ACN21)</f>
+        <f t="shared" ref="ACN23" si="382">AVERAGE(ACN4:ACN21)</f>
         <v>2.9169693334626121E-4</v>
       </c>
       <c r="ACP23">
-        <f t="shared" ref="ACP23:AFA23" si="383">AVERAGE(ACP4:ACP21)</f>
+        <f t="shared" ref="ACP23" si="383">AVERAGE(ACP4:ACP21)</f>
         <v>2.0212386590229896E-4</v>
       </c>
       <c r="ACR23">
-        <f t="shared" ref="ACR23:AFC23" si="384">AVERAGE(ACR4:ACR21)</f>
+        <f t="shared" ref="ACR23" si="384">AVERAGE(ACR4:ACR21)</f>
         <v>2.3972539198344656E-4</v>
       </c>
       <c r="ACT23">
-        <f t="shared" ref="ACT23:AFE23" si="385">AVERAGE(ACT4:ACT21)</f>
+        <f t="shared" ref="ACT23" si="385">AVERAGE(ACT4:ACT21)</f>
         <v>2.5441058876772321E-4</v>
       </c>
       <c r="ACV23">
-        <f t="shared" ref="ACV23:AFG23" si="386">AVERAGE(ACV4:ACV21)</f>
+        <f t="shared" ref="ACV23" si="386">AVERAGE(ACV4:ACV21)</f>
         <v>2.826406542033792E-4</v>
       </c>
       <c r="ACX23">
-        <f t="shared" ref="ACX23:AFI23" si="387">AVERAGE(ACX4:ACX21)</f>
+        <f t="shared" ref="ACX23" si="387">AVERAGE(ACX4:ACX21)</f>
         <v>2.5129823889039331E-4</v>
       </c>
       <c r="ACZ23">
-        <f t="shared" ref="ACZ23:AFK23" si="388">AVERAGE(ACZ4:ACZ21)</f>
+        <f t="shared" ref="ACZ23" si="388">AVERAGE(ACZ4:ACZ21)</f>
         <v>2.2807679565292559E-4</v>
       </c>
       <c r="ADB23">
-        <f t="shared" ref="ADB23:AFM23" si="389">AVERAGE(ADB4:ADB21)</f>
+        <f t="shared" ref="ADB23" si="389">AVERAGE(ADB4:ADB21)</f>
         <v>1.9400661336910568E-4</v>
       </c>
       <c r="ADD23">
-        <f t="shared" ref="ADD23:AFO23" si="390">AVERAGE(ADD4:ADD21)</f>
+        <f t="shared" ref="ADD23" si="390">AVERAGE(ADD4:ADD21)</f>
         <v>2.6150577270679908E-4</v>
       </c>
       <c r="ADF23">
-        <f t="shared" ref="ADF23:AFQ23" si="391">AVERAGE(ADF4:ADF21)</f>
+        <f t="shared" ref="ADF23" si="391">AVERAGE(ADF4:ADF21)</f>
         <v>2.7346731751485431E-4</v>
       </c>
       <c r="ADH23">
-        <f t="shared" ref="ADH23:AFS23" si="392">AVERAGE(ADH4:ADH21)</f>
+        <f t="shared" ref="ADH23" si="392">AVERAGE(ADH4:ADH21)</f>
         <v>2.3167539126696583E-4</v>
       </c>
       <c r="ADJ23">
-        <f t="shared" ref="ADJ23:AFU23" si="393">AVERAGE(ADJ4:ADJ21)</f>
+        <f t="shared" ref="ADJ23" si="393">AVERAGE(ADJ4:ADJ21)</f>
         <v>2.5165505766582404E-4</v>
       </c>
       <c r="ADL23">
-        <f t="shared" ref="ADL23:AFW23" si="394">AVERAGE(ADL4:ADL21)</f>
+        <f t="shared" ref="ADL23" si="394">AVERAGE(ADL4:ADL21)</f>
         <v>2.7771567183027565E-4</v>
       </c>
       <c r="ADN23">
-        <f t="shared" ref="ADN23:AFY23" si="395">AVERAGE(ADN4:ADN21)</f>
+        <f t="shared" ref="ADN23" si="395">AVERAGE(ADN4:ADN21)</f>
         <v>2.7106515667975627E-4</v>
       </c>
       <c r="ADP23">
-        <f t="shared" ref="ADP23:AGA23" si="396">AVERAGE(ADP4:ADP21)</f>
+        <f t="shared" ref="ADP23" si="396">AVERAGE(ADP4:ADP21)</f>
         <v>1.8891386612397224E-4</v>
       </c>
       <c r="ADR23">
-        <f t="shared" ref="ADR23:AGC23" si="397">AVERAGE(ADR4:ADR21)</f>
+        <f t="shared" ref="ADR23" si="397">AVERAGE(ADR4:ADR21)</f>
         <v>2.6439120463806506E-4</v>
       </c>
       <c r="ADT23">
-        <f t="shared" ref="ADT23:AGE23" si="398">AVERAGE(ADT4:ADT21)</f>
+        <f t="shared" ref="ADT23" si="398">AVERAGE(ADT4:ADT21)</f>
         <v>2.5660311235704885E-4</v>
       </c>
       <c r="ADV23">
-        <f t="shared" ref="ADV23:AGG23" si="399">AVERAGE(ADV4:ADV21)</f>
+        <f t="shared" ref="ADV23" si="399">AVERAGE(ADV4:ADV21)</f>
         <v>2.7658906265831538E-4</v>
       </c>
       <c r="ADX23">
-        <f t="shared" ref="ADX23:AGI23" si="400">AVERAGE(ADX4:ADX21)</f>
+        <f t="shared" ref="ADX23" si="400">AVERAGE(ADX4:ADX21)</f>
         <v>2.2221160462052844E-4</v>
       </c>
       <c r="ADZ23">
-        <f t="shared" ref="ADZ23:AGK23" si="401">AVERAGE(ADZ4:ADZ21)</f>
+        <f t="shared" ref="ADZ23" si="401">AVERAGE(ADZ4:ADZ21)</f>
         <v>2.1631710221393604E-4</v>
       </c>
       <c r="AEB23">
-        <f t="shared" ref="AEB23:AGM23" si="402">AVERAGE(AEB4:AEB21)</f>
+        <f t="shared" ref="AEB23" si="402">AVERAGE(AEB4:AEB21)</f>
         <v>1.5604102759040912E-4</v>
       </c>
       <c r="AED23">
-        <f t="shared" ref="AED23:AGO23" si="403">AVERAGE(AED4:AED21)</f>
+        <f t="shared" ref="AED23" si="403">AVERAGE(AED4:AED21)</f>
         <v>2.43063834528388E-4</v>
       </c>
       <c r="AEF23">
-        <f t="shared" ref="AEF23:AGQ23" si="404">AVERAGE(AEF4:AEF21)</f>
+        <f t="shared" ref="AEF23" si="404">AVERAGE(AEF4:AEF21)</f>
         <v>2.1237109106912987E-4</v>
       </c>
       <c r="AEH23">
-        <f t="shared" ref="AEH23:AGS23" si="405">AVERAGE(AEH4:AEH21)</f>
+        <f t="shared" ref="AEH23" si="405">AVERAGE(AEH4:AEH21)</f>
         <v>2.6689590283332043E-4</v>
       </c>
       <c r="AEJ23">
-        <f t="shared" ref="AEJ23:AGU23" si="406">AVERAGE(AEJ4:AEJ21)</f>
+        <f t="shared" ref="AEJ23" si="406">AVERAGE(AEJ4:AEJ21)</f>
         <v>2.5162834215365778E-4</v>
       </c>
       <c r="AEL23">
-        <f t="shared" ref="AEL23:AGW23" si="407">AVERAGE(AEL4:AEL21)</f>
+        <f t="shared" ref="AEL23" si="407">AVERAGE(AEL4:AEL21)</f>
         <v>2.2846215806865937E-4</v>
       </c>
       <c r="AEN23">
-        <f t="shared" ref="AEN23:AGY23" si="408">AVERAGE(AEN4:AEN21)</f>
+        <f t="shared" ref="AEN23" si="408">AVERAGE(AEN4:AEN21)</f>
         <v>2.5818225712404192E-4</v>
       </c>
       <c r="AEP23">
-        <f t="shared" ref="AEP23:AHA23" si="409">AVERAGE(AEP4:AEP21)</f>
+        <f t="shared" ref="AEP23" si="409">AVERAGE(AEP4:AEP21)</f>
         <v>1.9962344610071513E-4</v>
       </c>
       <c r="AER23">
-        <f t="shared" ref="AER23:AHC23" si="410">AVERAGE(AER4:AER21)</f>
+        <f t="shared" ref="AER23" si="410">AVERAGE(AER4:AER21)</f>
         <v>2.6267664281587197E-4</v>
       </c>
       <c r="AET23">
-        <f t="shared" ref="AET23:AHE23" si="411">AVERAGE(AET4:AET21)</f>
+        <f t="shared" ref="AET23" si="411">AVERAGE(AET4:AET21)</f>
         <v>2.3561572129700652E-4</v>
       </c>
       <c r="AEV23">
-        <f t="shared" ref="AEV23:AHG23" si="412">AVERAGE(AEV4:AEV21)</f>
+        <f t="shared" ref="AEV23" si="412">AVERAGE(AEV4:AEV21)</f>
         <v>2.0786919671411799E-4</v>
       </c>
       <c r="AEX23">
-        <f t="shared" ref="AEX23:AHI23" si="413">AVERAGE(AEX4:AEX21)</f>
+        <f t="shared" ref="AEX23" si="413">AVERAGE(AEX4:AEX21)</f>
         <v>2.6611777332716718E-4</v>
       </c>
       <c r="AEZ23">
-        <f t="shared" ref="AEZ23:AHK23" si="414">AVERAGE(AEZ4:AEZ21)</f>
+        <f t="shared" ref="AEZ23" si="414">AVERAGE(AEZ4:AEZ21)</f>
         <v>1.9812642375569294E-4</v>
       </c>
       <c r="AFB23">
-        <f t="shared" ref="AFB23:AHM23" si="415">AVERAGE(AFB4:AFB21)</f>
+        <f t="shared" ref="AFB23" si="415">AVERAGE(AFB4:AFB21)</f>
         <v>2.626591482082716E-4</v>
       </c>
       <c r="AFD23">
-        <f t="shared" ref="AFD23:AHO23" si="416">AVERAGE(AFD4:AFD21)</f>
+        <f t="shared" ref="AFD23" si="416">AVERAGE(AFD4:AFD21)</f>
         <v>2.5765981695517423E-4</v>
       </c>
       <c r="AFF23">
-        <f t="shared" ref="AFF23:AHQ23" si="417">AVERAGE(AFF4:AFF21)</f>
+        <f t="shared" ref="AFF23" si="417">AVERAGE(AFF4:AFF21)</f>
         <v>2.4670779948422143E-4</v>
       </c>
       <c r="AFH23">
-        <f t="shared" ref="AFH23:AHS23" si="418">AVERAGE(AFH4:AFH21)</f>
+        <f t="shared" ref="AFH23" si="418">AVERAGE(AFH4:AFH21)</f>
         <v>2.2138815015015936E-4</v>
       </c>
       <c r="AFJ23">
-        <f t="shared" ref="AFJ23:AHU23" si="419">AVERAGE(AFJ4:AFJ21)</f>
+        <f t="shared" ref="AFJ23" si="419">AVERAGE(AFJ4:AFJ21)</f>
         <v>2.4412222630029753E-4</v>
       </c>
       <c r="AFL23">
-        <f t="shared" ref="AFL23:AHW23" si="420">AVERAGE(AFL4:AFL21)</f>
+        <f t="shared" ref="AFL23" si="420">AVERAGE(AFL4:AFL21)</f>
         <v>2.273094865306304E-4</v>
       </c>
       <c r="AFN23">
-        <f t="shared" ref="AFN23:AHY23" si="421">AVERAGE(AFN4:AFN21)</f>
+        <f t="shared" ref="AFN23" si="421">AVERAGE(AFN4:AFN21)</f>
         <v>2.3531386133036067E-4</v>
       </c>
       <c r="AFP23">
-        <f t="shared" ref="AFP23:AIA23" si="422">AVERAGE(AFP4:AFP21)</f>
+        <f t="shared" ref="AFP23" si="422">AVERAGE(AFP4:AFP21)</f>
         <v>2.227749433243182E-4</v>
       </c>
       <c r="AFR23">
-        <f t="shared" ref="AFR23:AIC23" si="423">AVERAGE(AFR4:AFR21)</f>
+        <f t="shared" ref="AFR23" si="423">AVERAGE(AFR4:AFR21)</f>
         <v>1.1923010360188134E-4</v>
       </c>
       <c r="AFT23">
-        <f t="shared" ref="AFT23:AIE23" si="424">AVERAGE(AFT4:AFT21)</f>
+        <f t="shared" ref="AFT23" si="424">AVERAGE(AFT4:AFT21)</f>
         <v>8.8582778673486611E-5</v>
       </c>
       <c r="AFV23">
-        <f t="shared" ref="AFV23:AIG23" si="425">AVERAGE(AFV4:AFV21)</f>
+        <f t="shared" ref="AFV23" si="425">AVERAGE(AFV4:AFV21)</f>
         <v>2.2294600385079532E-4</v>
       </c>
       <c r="AFX23">
-        <f t="shared" ref="AFX23:AII23" si="426">AVERAGE(AFX4:AFX21)</f>
+        <f t="shared" ref="AFX23" si="426">AVERAGE(AFX4:AFX21)</f>
         <v>2.474055693065886E-4</v>
       </c>
       <c r="AFZ23">
-        <f t="shared" ref="AFZ23:AIK23" si="427">AVERAGE(AFZ4:AFZ21)</f>
+        <f t="shared" ref="AFZ23" si="427">AVERAGE(AFZ4:AFZ21)</f>
         <v>2.0808882995084692E-4</v>
       </c>
       <c r="AGB23">
-        <f t="shared" ref="AGB23:AIM23" si="428">AVERAGE(AGB4:AGB21)</f>
+        <f t="shared" ref="AGB23" si="428">AVERAGE(AGB4:AGB21)</f>
         <v>2.0913816989284709E-4</v>
       </c>
       <c r="AGD23">
-        <f t="shared" ref="AGD23:AIO23" si="429">AVERAGE(AGD4:AGD21)</f>
+        <f t="shared" ref="AGD23" si="429">AVERAGE(AGD4:AGD21)</f>
         <v>2.3787238025768287E-4</v>
       </c>
       <c r="AGF23">
-        <f t="shared" ref="AGF23:AIQ23" si="430">AVERAGE(AGF4:AGF21)</f>
+        <f t="shared" ref="AGF23" si="430">AVERAGE(AGF4:AGF21)</f>
         <v>2.147786183527513E-4</v>
       </c>
       <c r="AGH23">
-        <f t="shared" ref="AGH23:AIS23" si="431">AVERAGE(AGH4:AGH21)</f>
+        <f t="shared" ref="AGH23" si="431">AVERAGE(AGH4:AGH21)</f>
         <v>2.1347740699432729E-4</v>
       </c>
       <c r="AGJ23">
-        <f t="shared" ref="AGJ23:AIU23" si="432">AVERAGE(AGJ4:AGJ21)</f>
+        <f t="shared" ref="AGJ23" si="432">AVERAGE(AGJ4:AGJ21)</f>
         <v>6.109278203768723E-5</v>
       </c>
       <c r="AGL23">
-        <f t="shared" ref="AGL23:AIW23" si="433">AVERAGE(AGL4:AGL21)</f>
+        <f t="shared" ref="AGL23" si="433">AVERAGE(AGL4:AGL21)</f>
         <v>2.2452453150186046E-4</v>
       </c>
       <c r="AGN23">
-        <f t="shared" ref="AGN23:AIY23" si="434">AVERAGE(AGN4:AGN21)</f>
+        <f t="shared" ref="AGN23" si="434">AVERAGE(AGN4:AGN21)</f>
         <v>6.1031605110648335E-5</v>
       </c>
       <c r="AGP23">
-        <f t="shared" ref="AGP23:AJA23" si="435">AVERAGE(AGP4:AGP21)</f>
+        <f t="shared" ref="AGP23" si="435">AVERAGE(AGP4:AGP21)</f>
         <v>2.2843731665946951E-4</v>
       </c>
       <c r="AGR23">
-        <f t="shared" ref="AGR23:AJC23" si="436">AVERAGE(AGR4:AGR21)</f>
+        <f t="shared" ref="AGR23" si="436">AVERAGE(AGR4:AGR21)</f>
         <v>2.4147605942643352E-4</v>
       </c>
       <c r="AGT23">
-        <f t="shared" ref="AGT23:AJE23" si="437">AVERAGE(AGT4:AGT21)</f>
+        <f t="shared" ref="AGT23" si="437">AVERAGE(AGT4:AGT21)</f>
         <v>1.7366508404054542E-4</v>
       </c>
       <c r="AGV23">
-        <f t="shared" ref="AGV23:AJG23" si="438">AVERAGE(AGV4:AGV21)</f>
+        <f t="shared" ref="AGV23" si="438">AVERAGE(AGV4:AGV21)</f>
         <v>6.0701992442067777E-5</v>
       </c>
       <c r="AGX23">
-        <f t="shared" ref="AGX23:AJI23" si="439">AVERAGE(AGX4:AGX21)</f>
+        <f t="shared" ref="AGX23" si="439">AVERAGE(AGX4:AGX21)</f>
         <v>2.4224806201550387E-4</v>
       </c>
       <c r="AGZ23">
-        <f t="shared" ref="AGZ23:AJK23" si="440">AVERAGE(AGZ4:AGZ21)</f>
+        <f t="shared" ref="AGZ23" si="440">AVERAGE(AGZ4:AGZ21)</f>
         <v>2.4224806201550387E-4</v>
       </c>
       <c r="AHB23">
-        <f t="shared" ref="AHB23:AJM23" si="441">AVERAGE(AHB4:AHB21)</f>
+        <f t="shared" ref="AHB23" si="441">AVERAGE(AHB4:AHB21)</f>
         <v>2.4224806201550387E-4</v>
       </c>
       <c r="AHD23">
-        <f t="shared" ref="AHD23:AJO23" si="442">AVERAGE(AHD4:AHD21)</f>
+        <f t="shared" ref="AHD23" si="442">AVERAGE(AHD4:AHD21)</f>
         <v>2.4224806201550387E-4</v>
       </c>
       <c r="AHF23">
-        <f t="shared" ref="AHF23:AJQ23" si="443">AVERAGE(AHF4:AHF21)</f>
+        <f t="shared" ref="AHF23" si="443">AVERAGE(AHF4:AHF21)</f>
         <v>2.4224806201550387E-4</v>
       </c>
       <c r="AHH23">
-        <f t="shared" ref="AHH23:AJS23" si="444">AVERAGE(AHH4:AHH21)</f>
+        <f t="shared" ref="AHH23" si="444">AVERAGE(AHH4:AHH21)</f>
         <v>2.4224806201550387E-4</v>
       </c>
       <c r="AHJ23">
-        <f t="shared" ref="AHJ23:AJU23" si="445">AVERAGE(AHJ4:AHJ21)</f>
+        <f t="shared" ref="AHJ23" si="445">AVERAGE(AHJ4:AHJ21)</f>
         <v>2.2068803504627017E-4</v>
       </c>
       <c r="AHL23">
-        <f t="shared" ref="AHL23:AJW23" si="446">AVERAGE(AHL4:AHL21)</f>
+        <f t="shared" ref="AHL23" si="446">AVERAGE(AHL4:AHL21)</f>
         <v>2.155020535488566E-4</v>
       </c>
       <c r="AHN23">
-        <f t="shared" ref="AHN23:AJY23" si="447">AVERAGE(AHN4:AHN21)</f>
+        <f t="shared" ref="AHN23" si="447">AVERAGE(AHN4:AHN21)</f>
         <v>2.2735511569441216E-4</v>
       </c>
       <c r="AHP23">
-        <f t="shared" ref="AHP23:AKA23" si="448">AVERAGE(AHP4:AHP21)</f>
+        <f t="shared" ref="AHP23" si="448">AVERAGE(AHP4:AHP21)</f>
         <v>1.9687837307504898E-4</v>
       </c>
       <c r="AHR23">
-        <f t="shared" ref="AHR23:AKC23" si="449">AVERAGE(AHR4:AHR21)</f>
+        <f t="shared" ref="AHR23" si="449">AVERAGE(AHR4:AHR21)</f>
         <v>2.1055243643046227E-4</v>
       </c>
       <c r="AHT23">
-        <f t="shared" ref="AHT23:AKE23" si="450">AVERAGE(AHT4:AHT21)</f>
+        <f t="shared" ref="AHT23" si="450">AVERAGE(AHT4:AHT21)</f>
         <v>2.1034270283813256E-4</v>
       </c>
       <c r="AHV23">
-        <f t="shared" ref="AHV23:AKG23" si="451">AVERAGE(AHV4:AHV21)</f>
+        <f t="shared" ref="AHV23" si="451">AVERAGE(AHV4:AHV21)</f>
         <v>2.3439836666039698E-4</v>
       </c>
       <c r="AHX23">
-        <f t="shared" ref="AHX23:AKI23" si="452">AVERAGE(AHX4:AHX21)</f>
+        <f t="shared" ref="AHX23" si="452">AVERAGE(AHX4:AHX21)</f>
         <v>1.5166341692754269E-4</v>
       </c>
       <c r="AHZ23">
-        <f t="shared" ref="AHZ23:AKK23" si="453">AVERAGE(AHZ4:AHZ21)</f>
+        <f t="shared" ref="AHZ23" si="453">AVERAGE(AHZ4:AHZ21)</f>
         <v>1.654267408523121E-4</v>
       </c>
       <c r="AIB23">
-        <f t="shared" ref="AIB23:AKM23" si="454">AVERAGE(AIB4:AIB21)</f>
+        <f t="shared" ref="AIB23" si="454">AVERAGE(AIB4:AIB21)</f>
         <v>2.3756193579040224E-4</v>
       </c>
       <c r="AID23">
-        <f t="shared" ref="AID23:AKO23" si="455">AVERAGE(AID4:AID21)</f>
+        <f t="shared" ref="AID23" si="455">AVERAGE(AID4:AID21)</f>
         <v>2.3756193579040224E-4</v>
       </c>
       <c r="AIF23">
-        <f t="shared" ref="AIF23:AKQ23" si="456">AVERAGE(AIF4:AIF21)</f>
+        <f t="shared" ref="AIF23" si="456">AVERAGE(AIF4:AIF21)</f>
         <v>2.2960611057423243E-4</v>
       </c>
       <c r="AIH23">
-        <f t="shared" ref="AIH23:AKS23" si="457">AVERAGE(AIH4:AIH21)</f>
+        <f t="shared" ref="AIH23" si="457">AVERAGE(AIH4:AIH21)</f>
         <v>1.6597335007177688E-4</v>
       </c>
       <c r="AIJ23">
-        <f t="shared" ref="AIJ23:AKU23" si="458">AVERAGE(AIJ4:AIJ21)</f>
+        <f t="shared" ref="AIJ23" si="458">AVERAGE(AIJ4:AIJ21)</f>
         <v>1.8287899241097193E-4</v>
       </c>
       <c r="AIL23">
-        <f t="shared" ref="AIL23:AKW23" si="459">AVERAGE(AIL4:AIL21)</f>
+        <f t="shared" ref="AIL23" si="459">AVERAGE(AIL4:AIL21)</f>
         <v>1.926549214444547E-4</v>
       </c>
       <c r="AIN23">
-        <f t="shared" ref="AIN23:AKY23" si="460">AVERAGE(AIN4:AIN21)</f>
+        <f t="shared" ref="AIN23" si="460">AVERAGE(AIN4:AIN21)</f>
         <v>2.266638372004089E-4</v>
       </c>
       <c r="AIP23">
-        <f t="shared" ref="AIP23:ALA23" si="461">AVERAGE(AIP4:AIP21)</f>
+        <f t="shared" ref="AIP23" si="461">AVERAGE(AIP4:AIP21)</f>
         <v>1.3163202496955368E-4</v>
       </c>
       <c r="AIR23">
-        <f t="shared" ref="AIR23:ALC23" si="462">AVERAGE(AIR4:AIR21)</f>
+        <f t="shared" ref="AIR23" si="462">AVERAGE(AIR4:AIR21)</f>
         <v>1.4685508125664796E-4</v>
       </c>
       <c r="AIT23">
-        <f t="shared" ref="AIT23:ALE23" si="463">AVERAGE(AIT4:AIT21)</f>
+        <f t="shared" ref="AIT23" si="463">AVERAGE(AIT4:AIT21)</f>
         <v>1.9474549379098658E-4</v>
       </c>
       <c r="AIV23">
-        <f t="shared" ref="AIV23:ALG23" si="464">AVERAGE(AIV4:AIV21)</f>
+        <f t="shared" ref="AIV23" si="464">AVERAGE(AIV4:AIV21)</f>
         <v>1.3856081981221825E-4</v>
       </c>
       <c r="AIX23">
-        <f t="shared" ref="AIX23:ALI23" si="465">AVERAGE(AIX4:AIX21)</f>
+        <f t="shared" ref="AIX23" si="465">AVERAGE(AIX4:AIX21)</f>
         <v>2.0653509176922065E-4</v>
       </c>
       <c r="AIZ23">
-        <f t="shared" ref="AIZ23:ALK23" si="466">AVERAGE(AIZ4:AIZ21)</f>
+        <f t="shared" ref="AIZ23" si="466">AVERAGE(AIZ4:AIZ21)</f>
         <v>2.2287654349135497E-4</v>
       </c>
       <c r="AJB23">
-        <f t="shared" ref="AJB23:ALM23" si="467">AVERAGE(AJB4:AJB21)</f>
+        <f t="shared" ref="AJB23" si="467">AVERAGE(AJB4:AJB21)</f>
         <v>2.2807435065406493E-4</v>
       </c>
       <c r="AJD23">
-        <f t="shared" ref="AJD23:ALO23" si="468">AVERAGE(AJD4:AJD21)</f>
+        <f t="shared" ref="AJD23" si="468">AVERAGE(AJD4:AJD21)</f>
         <v>2.0494637154614936E-4</v>
       </c>
       <c r="AJF23">
-        <f t="shared" ref="AJF23:ALQ23" si="469">AVERAGE(AJF4:AJF21)</f>
+        <f t="shared" ref="AJF23" si="469">AVERAGE(AJF4:AJF21)</f>
         <v>1.9790956640806009E-4</v>
       </c>
       <c r="AJH23">
-        <f t="shared" ref="AJH23:ALS23" si="470">AVERAGE(AJH4:AJH21)</f>
+        <f t="shared" ref="AJH23" si="470">AVERAGE(AJH4:AJH21)</f>
         <v>1.6662403018178045E-4</v>
       </c>
       <c r="AJJ23">
-        <f t="shared" ref="AJJ23:ALU23" si="471">AVERAGE(AJJ4:AJJ21)</f>
+        <f t="shared" ref="AJJ23" si="471">AVERAGE(AJJ4:AJJ21)</f>
         <v>1.6590290201060561E-4</v>
       </c>
       <c r="AJL23">
-        <f t="shared" ref="AJL23:ALW23" si="472">AVERAGE(AJL4:AJL21)</f>
+        <f t="shared" ref="AJL23" si="472">AVERAGE(AJL4:AJL21)</f>
         <v>1.9770464619513483E-4</v>
       </c>
       <c r="AJN23">
-        <f t="shared" ref="AJN23:ALY23" si="473">AVERAGE(AJN4:AJN21)</f>
+        <f t="shared" ref="AJN23" si="473">AVERAGE(AJN4:AJN21)</f>
         <v>2.2937354680759386E-4</v>
       </c>
       <c r="AJP23">
-        <f t="shared" ref="AJP23:AMA23" si="474">AVERAGE(AJP4:AJP21)</f>
+        <f t="shared" ref="AJP23" si="474">AVERAGE(AJP4:AJP21)</f>
         <v>2.2937354680759386E-4</v>
       </c>
       <c r="AJR23">
-        <f t="shared" ref="AJR23:AMC23" si="475">AVERAGE(AJR4:AJR21)</f>
+        <f t="shared" ref="AJR23" si="475">AVERAGE(AJR4:AJR21)</f>
         <v>2.2937354680759386E-4</v>
       </c>
       <c r="AJT23">
-        <f t="shared" ref="AJT23:AME23" si="476">AVERAGE(AJT4:AJT21)</f>
+        <f t="shared" ref="AJT23" si="476">AVERAGE(AJT4:AJT21)</f>
         <v>1.6068847802742713E-4</v>
       </c>
       <c r="AJV23">
-        <f t="shared" ref="AJV23:AMG23" si="477">AVERAGE(AJV4:AJV21)</f>
+        <f t="shared" ref="AJV23" si="477">AVERAGE(AJV4:AJV21)</f>
         <v>2.040979402192199E-4</v>
       </c>
       <c r="AJX23">
-        <f t="shared" ref="AJX23:AMI23" si="478">AVERAGE(AJX4:AJX21)</f>
+        <f t="shared" ref="AJX23" si="478">AVERAGE(AJX4:AJX21)</f>
         <v>1.893836685468794E-4</v>
       </c>
       <c r="AJZ23">
-        <f t="shared" ref="AJZ23:AMK23" si="479">AVERAGE(AJZ4:AJZ21)</f>
+        <f t="shared" ref="AJZ23" si="479">AVERAGE(AJZ4:AJZ21)</f>
         <v>1.6904742177179647E-4</v>
       </c>
       <c r="AKB23">
-        <f t="shared" ref="AKB23:AMM23" si="480">AVERAGE(AKB4:AKB21)</f>
+        <f t="shared" ref="AKB23" si="480">AVERAGE(AKB4:AKB21)</f>
         <v>1.8322821394196136E-4</v>
       </c>
       <c r="AKD23">
-        <f t="shared" ref="AKD23:AMO23" si="481">AVERAGE(AKD4:AKD21)</f>
+        <f t="shared" ref="AKD23" si="481">AVERAGE(AKD4:AKD21)</f>
         <v>2.2723667437837293E-4</v>
       </c>
       <c r="AKF23">
-        <f t="shared" ref="AKF23:AMQ23" si="482">AVERAGE(AKF4:AKF21)</f>
+        <f t="shared" ref="AKF23" si="482">AVERAGE(AKF4:AKF21)</f>
         <v>2.0829561049144911E-4</v>
       </c>
       <c r="AKH23">
-        <f t="shared" ref="AKH23:AMS23" si="483">AVERAGE(AKH4:AKH21)</f>
+        <f t="shared" ref="AKH23" si="483">AVERAGE(AKH4:AKH21)</f>
         <v>2.024497995424804E-4</v>
       </c>
       <c r="AKJ23">
-        <f t="shared" ref="AKJ23:AMU23" si="484">AVERAGE(AKJ4:AKJ21)</f>
+        <f t="shared" ref="AKJ23" si="484">AVERAGE(AKJ4:AKJ21)</f>
         <v>1.6231866333417681E-4</v>
       </c>
       <c r="AKL23">
-        <f t="shared" ref="AKL23:AMW23" si="485">AVERAGE(AKL4:AKL21)</f>
+        <f t="shared" ref="AKL23" si="485">AVERAGE(AKL4:AKL21)</f>
         <v>2.02112781432964E-4</v>
       </c>
       <c r="AKN23">
-        <f t="shared" ref="AKN23:AMY23" si="486">AVERAGE(AKN4:AKN21)</f>
+        <f t="shared" ref="AKN23" si="486">AVERAGE(AKN4:AKN21)</f>
         <v>1.6915041146069231E-4</v>
       </c>
       <c r="AKP23">
-        <f t="shared" ref="AKP23:ANA23" si="487">AVERAGE(AKP4:AKP21)</f>
+        <f t="shared" ref="AKP23" si="487">AVERAGE(AKP4:AKP21)</f>
         <v>2.2143787900037669E-4</v>
       </c>
       <c r="AKR23">
-        <f t="shared" ref="AKR23:ANC23" si="488">AVERAGE(AKR4:AKR21)</f>
+        <f t="shared" ref="AKR23" si="488">AVERAGE(AKR4:AKR21)</f>
         <v>2.0351331436095285E-4</v>
       </c>
       <c r="AKT23">
-        <f t="shared" ref="AKT23:ANE23" si="489">AVERAGE(AKT4:AKT21)</f>
+        <f t="shared" ref="AKT23" si="489">AVERAGE(AKT4:AKT21)</f>
         <v>1.9099293635291078E-4</v>
       </c>
       <c r="AKV23">
-        <f t="shared" ref="AKV23:ANG23" si="490">AVERAGE(AKV4:AKV21)</f>
+        <f t="shared" ref="AKV23" si="490">AVERAGE(AKV4:AKV21)</f>
         <v>1.7715684289398834E-4</v>
       </c>
       <c r="AKX23">
-        <f t="shared" ref="AKX23:ANI23" si="491">AVERAGE(AKX4:AKX21)</f>
+        <f t="shared" ref="AKX23" si="491">AVERAGE(AKX4:AKX21)</f>
         <v>2.1886991562916904E-4</v>
       </c>
       <c r="AKZ23">
-        <f t="shared" ref="AKZ23:ANK23" si="492">AVERAGE(AKZ4:AKZ21)</f>
+        <f t="shared" ref="AKZ23" si="492">AVERAGE(AKZ4:AKZ21)</f>
         <v>1.7492329990068925E-4</v>
       </c>
       <c r="ALB23">
-        <f t="shared" ref="ALB23:ANM23" si="493">AVERAGE(ALB4:ALB21)</f>
+        <f t="shared" ref="ALB23" si="493">AVERAGE(ALB4:ALB21)</f>
         <v>2.10787423962944E-4</v>
       </c>
       <c r="ALD23">
-        <f t="shared" ref="ALD23:ANO23" si="494">AVERAGE(ALD4:ALD21)</f>
+        <f t="shared" ref="ALD23" si="494">AVERAGE(ALD4:ALD21)</f>
         <v>2.0311978594148296E-4</v>
       </c>
       <c r="ALF23">
-        <f t="shared" ref="ALF23:ANQ23" si="495">AVERAGE(ALF4:ALF21)</f>
+        <f t="shared" ref="ALF23" si="495">AVERAGE(ALF4:ALF21)</f>
         <v>2.012961944003711E-4</v>
       </c>
       <c r="ALH23">
-        <f t="shared" ref="ALH23:ANS23" si="496">AVERAGE(ALH4:ALH21)</f>
+        <f t="shared" ref="ALH23" si="496">AVERAGE(ALH4:ALH21)</f>
         <v>1.9593365225425931E-4</v>
       </c>
       <c r="ALJ23">
-        <f t="shared" ref="ALJ23:ANU23" si="497">AVERAGE(ALJ4:ALJ21)</f>
+        <f t="shared" ref="ALJ23" si="497">AVERAGE(ALJ4:ALJ21)</f>
         <v>2.1994428444412469E-4</v>
       </c>
       <c r="ALL23">
-        <f t="shared" ref="ALL23:ANW23" si="498">AVERAGE(ALL4:ALL21)</f>
+        <f t="shared" ref="ALL23" si="498">AVERAGE(ALL4:ALL21)</f>
         <v>1.6234679377232183E-4</v>
       </c>
       <c r="ALN23">
-        <f t="shared" ref="ALN23:ANY23" si="499">AVERAGE(ALN4:ALN21)</f>
+        <f t="shared" ref="ALN23" si="499">AVERAGE(ALN4:ALN21)</f>
         <v>2.1516021740322018E-4</v>
       </c>
       <c r="ALP23">
-        <f t="shared" ref="ALP23:AOA23" si="500">AVERAGE(ALP4:ALP21)</f>
+        <f t="shared" ref="ALP23" si="500">AVERAGE(ALP4:ALP21)</f>
         <v>1.3529683005558349E-4</v>
       </c>
       <c r="ALR23">
-        <f t="shared" ref="ALR23:AOC23" si="501">AVERAGE(ALR4:ALR21)</f>
+        <f t="shared" ref="ALR23" si="501">AVERAGE(ALR4:ALR21)</f>
         <v>2.1013359069009318E-4</v>
       </c>
       <c r="ALT23">
-        <f t="shared" ref="ALT23:AOE23" si="502">AVERAGE(ALT4:ALT21)</f>
+        <f t="shared" ref="ALT23" si="502">AVERAGE(ALT4:ALT21)</f>
         <v>1.8502679564057255E-4</v>
       </c>
       <c r="ALV23">
-        <f t="shared" ref="ALV23:AOG23" si="503">AVERAGE(ALV4:ALV21)</f>
+        <f t="shared" ref="ALV23" si="503">AVERAGE(ALV4:ALV21)</f>
         <v>2.1758050478677113E-4</v>
       </c>
       <c r="ALX23">
-        <f t="shared" ref="ALX23:AOI23" si="504">AVERAGE(ALX4:ALX21)</f>
+        <f t="shared" ref="ALX23" si="504">AVERAGE(ALX4:ALX21)</f>
         <v>2.1758050478677113E-4</v>
       </c>
       <c r="ALZ23">
-        <f t="shared" ref="ALZ23:AOK23" si="505">AVERAGE(ALZ4:ALZ21)</f>
+        <f t="shared" ref="ALZ23" si="505">AVERAGE(ALZ4:ALZ21)</f>
         <v>2.1758050478677113E-4</v>
       </c>
       <c r="AMB23">
-        <f t="shared" ref="AMB23:AOM23" si="506">AVERAGE(AMB4:AMB21)</f>
+        <f t="shared" ref="AMB23" si="506">AVERAGE(AMB4:AMB21)</f>
         <v>2.1758050478677113E-4</v>
       </c>
       <c r="AMD23">
-        <f t="shared" ref="AMD23:AOO23" si="507">AVERAGE(AMD4:AMD21)</f>
+        <f t="shared" ref="AMD23" si="507">AVERAGE(AMD4:AMD21)</f>
         <v>2.1758050478677113E-4</v>
       </c>
       <c r="AMF23">
-        <f t="shared" ref="AMF23:AOQ23" si="508">AVERAGE(AMF4:AMF21)</f>
+        <f t="shared" ref="AMF23" si="508">AVERAGE(AMF4:AMF21)</f>
         <v>2.1758050478677113E-4</v>
       </c>
       <c r="AMH23">
-        <f t="shared" ref="AMH23:AOS23" si="509">AVERAGE(AMH4:AMH21)</f>
+        <f t="shared" ref="AMH23" si="509">AVERAGE(AMH4:AMH21)</f>
         <v>2.1059496491137081E-4</v>
       </c>
       <c r="AMJ23">
-        <f t="shared" ref="AMJ23:AOU23" si="510">AVERAGE(AMJ4:AMJ21)</f>
+        <f t="shared" ref="AMJ23" si="510">AVERAGE(AMJ4:AMJ21)</f>
         <v>1.927381513049811E-4</v>
       </c>
       <c r="AML23">
-        <f t="shared" ref="AML23:AOW23" si="511">AVERAGE(AML4:AML21)</f>
+        <f t="shared" ref="AML23" si="511">AVERAGE(AML4:AML21)</f>
         <v>1.9481319799991508E-4</v>
       </c>
       <c r="AMN23">
-        <f t="shared" ref="AMN23:AOY23" si="512">AVERAGE(AMN4:AMN21)</f>
+        <f t="shared" ref="AMN23" si="512">AVERAGE(AMN4:AMN21)</f>
         <v>2.1645021645021667E-4</v>
       </c>
       <c r="AMP23">
-        <f t="shared" ref="AMP23:APA23" si="513">AVERAGE(AMP4:AMP21)</f>
+        <f t="shared" ref="AMP23" si="513">AVERAGE(AMP4:AMP21)</f>
         <v>2.1645021645021667E-4</v>
       </c>
       <c r="AMR23">
-        <f t="shared" ref="AMR23:APC23" si="514">AVERAGE(AMR4:AMR21)</f>
+        <f t="shared" ref="AMR23" si="514">AVERAGE(AMR4:AMR21)</f>
         <v>2.0432795044181764E-4</v>
       </c>
       <c r="AMT23">
-        <f t="shared" ref="AMT23:APE23" si="515">AVERAGE(AMT4:AMT21)</f>
+        <f t="shared" ref="AMT23" si="515">AVERAGE(AMT4:AMT21)</f>
         <v>2.1421795780862183E-4</v>
       </c>
       <c r="AMV23">
-        <f t="shared" ref="AMV23:APG23" si="516">AVERAGE(AMV4:AMV21)</f>
+        <f t="shared" ref="AMV23" si="516">AVERAGE(AMV4:AMV21)</f>
         <v>1.8282804383128312E-4</v>
       </c>
       <c r="AMX23">
-        <f t="shared" ref="AMX23:API23" si="517">AVERAGE(AMX4:AMX21)</f>
+        <f t="shared" ref="AMX23" si="517">AVERAGE(AMX4:AMX21)</f>
         <v>2.0921733381501533E-4</v>
       </c>
       <c r="AMZ23">
-        <f t="shared" ref="AMZ23:APK23" si="518">AVERAGE(AMZ4:AMZ21)</f>
+        <f t="shared" ref="AMZ23" si="518">AVERAGE(AMZ4:AMZ21)</f>
         <v>1.7352721282791502E-4</v>
       </c>
       <c r="ANB23">
-        <f t="shared" ref="ANB23:APM23" si="519">AVERAGE(ANB4:ANB21)</f>
+        <f t="shared" ref="ANB23" si="519">AVERAGE(ANB4:ANB21)</f>
         <v>2.0811806338581694E-4</v>
       </c>
       <c r="AND23">
-        <f t="shared" ref="AND23:APO23" si="520">AVERAGE(AND4:AND21)</f>
+        <f t="shared" ref="AND23" si="520">AVERAGE(AND4:AND21)</f>
         <v>2.1216933384219503E-4</v>
       </c>
       <c r="ANF23">
-        <f t="shared" ref="ANF23:APQ23" si="521">AVERAGE(ANF4:ANF21)</f>
+        <f t="shared" ref="ANF23" si="521">AVERAGE(ANF4:ANF21)</f>
         <v>1.9706280646158687E-4</v>
       </c>
       <c r="ANH23">
-        <f t="shared" ref="ANH23:APS23" si="522">AVERAGE(ANH4:ANH21)</f>
+        <f t="shared" ref="ANH23" si="522">AVERAGE(ANH4:ANH21)</f>
         <v>2.0545126835365746E-4</v>
       </c>
       <c r="ANJ23">
-        <f t="shared" ref="ANJ23:APU23" si="523">AVERAGE(ANJ4:ANJ21)</f>
+        <f t="shared" ref="ANJ23" si="523">AVERAGE(ANJ4:ANJ21)</f>
         <v>2.1049607600437774E-4</v>
       </c>
       <c r="ANL23">
-        <f t="shared" ref="ANL23:APW23" si="524">AVERAGE(ANL4:ANL21)</f>
+        <f t="shared" ref="ANL23" si="524">AVERAGE(ANL4:ANL21)</f>
         <v>1.6742886302345246E-4</v>
       </c>
       <c r="ANN23">
-        <f t="shared" ref="ANN23:APY23" si="525">AVERAGE(ANN4:ANN21)</f>
+        <f t="shared" ref="ANN23" si="525">AVERAGE(ANN4:ANN21)</f>
         <v>1.7087215613364868E-4</v>
       </c>
       <c r="ANP23">
-        <f t="shared" ref="ANP23:AQA23" si="526">AVERAGE(ANP4:ANP21)</f>
+        <f t="shared" ref="ANP23" si="526">AVERAGE(ANP4:ANP21)</f>
         <v>1.8458650889096987E-4</v>
       </c>
       <c r="ANR23">
-        <f t="shared" ref="ANR23:AQC23" si="527">AVERAGE(ANR4:ANR21)</f>
+        <f t="shared" ref="ANR23" si="527">AVERAGE(ANR4:ANR21)</f>
         <v>1.9899494733386554E-4</v>
       </c>
       <c r="ANT23">
-        <f t="shared" ref="ANT23:AQE23" si="528">AVERAGE(ANT4:ANT21)</f>
+        <f t="shared" ref="ANT23" si="528">AVERAGE(ANT4:ANT21)</f>
         <v>1.9890023011782891E-4</v>
       </c>
       <c r="ANV23">
-        <f t="shared" ref="ANV23:AQG23" si="529">AVERAGE(ANV4:ANV21)</f>
+        <f t="shared" ref="ANV23" si="529">AVERAGE(ANV4:ANV21)</f>
         <v>1.8062296710961556E-4</v>
       </c>
       <c r="ANX23">
-        <f t="shared" ref="ANX23:AQI23" si="530">AVERAGE(ANX4:ANX21)</f>
+        <f t="shared" ref="ANX23" si="530">AVERAGE(ANX4:ANX21)</f>
         <v>2.0230062921150393E-4</v>
       </c>
       <c r="ANZ23">
-        <f t="shared" ref="ANZ23:AQK23" si="531">AVERAGE(ANZ4:ANZ21)</f>
+        <f t="shared" ref="ANZ23" si="531">AVERAGE(ANZ4:ANZ21)</f>
         <v>2.0589699298108268E-4</v>
       </c>
       <c r="AOB23">
-        <f t="shared" ref="AOB23:AQM23" si="532">AVERAGE(AOB4:AOB21)</f>
+        <f t="shared" ref="AOB23" si="532">AVERAGE(AOB4:AOB21)</f>
         <v>2.0631372418464797E-4</v>
       </c>
       <c r="AOD23">
-        <f t="shared" ref="AOD23:AQO23" si="533">AVERAGE(AOD4:AOD21)</f>
+        <f t="shared" ref="AOD23" si="533">AVERAGE(AOD4:AOD21)</f>
         <v>1.93580842851926E-4</v>
       </c>
       <c r="AOF23">
-        <f t="shared" ref="AOF23:AQQ23" si="534">AVERAGE(AOF4:AOF21)</f>
+        <f t="shared" ref="AOF23" si="534">AVERAGE(AOF4:AOF21)</f>
         <v>1.5751573893875022E-4</v>
       </c>
       <c r="AOH23">
-        <f t="shared" ref="AOH23:AQS23" si="535">AVERAGE(AOH4:AOH21)</f>
+        <f t="shared" ref="AOH23" si="535">AVERAGE(AOH4:AOH21)</f>
         <v>2.0618153596615004E-4</v>
       </c>
       <c r="AOJ23">
-        <f t="shared" ref="AOJ23:AQU23" si="536">AVERAGE(AOJ4:AOJ21)</f>
+        <f t="shared" ref="AOJ23" si="536">AVERAGE(AOJ4:AOJ21)</f>
         <v>2.0505547910166781E-4</v>
       </c>
       <c r="AOL23">
-        <f t="shared" ref="AOL23:AQW23" si="537">AVERAGE(AOL4:AOL21)</f>
+        <f t="shared" ref="AOL23" si="537">AVERAGE(AOL4:AOL21)</f>
         <v>2.0502154673586887E-4</v>
       </c>
       <c r="AON23">
-        <f t="shared" ref="AON23:AQY23" si="538">AVERAGE(AON4:AON21)</f>
+        <f t="shared" ref="AON23" si="538">AVERAGE(AON4:AON21)</f>
         <v>1.8305994564535221E-4</v>
       </c>
       <c r="AOP23">
-        <f t="shared" ref="AOP23:ARA23" si="539">AVERAGE(AOP4:AOP21)</f>
+        <f t="shared" ref="AOP23" si="539">AVERAGE(AOP4:AOP21)</f>
         <v>1.0945984182707196E-4</v>
       </c>
       <c r="AOR23">
-        <f t="shared" ref="AOR23:ARC23" si="540">AVERAGE(AOR4:AOR21)</f>
+        <f t="shared" ref="AOR23" si="540">AVERAGE(AOR4:AOR21)</f>
         <v>1.7134561365323727E-4</v>
       </c>
       <c r="AOT23">
-        <f t="shared" ref="AOT23:ARE23" si="541">AVERAGE(AOT4:AOT21)</f>
+        <f t="shared" ref="AOT23" si="541">AVERAGE(AOT4:AOT21)</f>
         <v>1.8467885417035413E-4</v>
       </c>
       <c r="AOV23">
-        <f t="shared" ref="AOV23:ARG23" si="542">AVERAGE(AOV4:AOV21)</f>
+        <f t="shared" ref="AOV23" si="542">AVERAGE(AOV4:AOV21)</f>
         <v>1.6154536132615956E-4</v>
       </c>
       <c r="AOX23">
-        <f t="shared" ref="AOX23:ARI23" si="543">AVERAGE(AOX4:AOX21)</f>
+        <f t="shared" ref="AOX23" si="543">AVERAGE(AOX4:AOX21)</f>
         <v>1.960399431536491E-4</v>
       </c>
       <c r="AOZ23">
-        <f t="shared" ref="AOZ23:ARK23" si="544">AVERAGE(AOZ4:AOZ21)</f>
+        <f t="shared" ref="AOZ23" si="544">AVERAGE(AOZ4:AOZ21)</f>
         <v>1.7173783106578592E-4</v>
       </c>
       <c r="APB23">
-        <f t="shared" ref="APB23:ARM23" si="545">AVERAGE(APB4:APB21)</f>
+        <f t="shared" ref="APB23" si="545">AVERAGE(APB4:APB21)</f>
         <v>1.7522063998633394E-4</v>
       </c>
       <c r="APD23">
-        <f t="shared" ref="APD23:ARO23" si="546">AVERAGE(APD4:APD21)</f>
+        <f t="shared" ref="APD23" si="546">AVERAGE(APD4:APD21)</f>
         <v>1.5644133877452748E-4</v>
       </c>
       <c r="APF23">
-        <f t="shared" ref="APF23:ARQ23" si="547">AVERAGE(APF4:APF21)</f>
+        <f t="shared" ref="APF23" si="547">AVERAGE(APF4:APF21)</f>
         <v>1.9403752551103767E-4</v>
       </c>
       <c r="APH23">
-        <f t="shared" ref="APH23:ARS23" si="548">AVERAGE(APH4:APH21)</f>
+        <f t="shared" ref="APH23" si="548">AVERAGE(APH4:APH21)</f>
         <v>2.0023023742346267E-4</v>
       </c>
       <c r="APJ23">
-        <f t="shared" ref="APJ23:ARU23" si="549">AVERAGE(APJ4:APJ21)</f>
+        <f t="shared" ref="APJ23" si="549">AVERAGE(APJ4:APJ21)</f>
         <v>1.4772948526503994E-4</v>
       </c>
       <c r="APL23">
-        <f t="shared" ref="APL23:ARW23" si="550">AVERAGE(APL4:APL21)</f>
+        <f t="shared" ref="APL23" si="550">AVERAGE(APL4:APL21)</f>
         <v>1.9939082544743843E-4</v>
       </c>
       <c r="APN23">
-        <f t="shared" ref="APN23:ARY23" si="551">AVERAGE(APN4:APN21)</f>
+        <f t="shared" ref="APN23" si="551">AVERAGE(APN4:APN21)</f>
         <v>1.4403444064696073E-4</v>
       </c>
       <c r="APP23">
-        <f t="shared" ref="APP23:ASA23" si="552">AVERAGE(APP4:APP21)</f>
+        <f t="shared" ref="APP23" si="552">AVERAGE(APP4:APP21)</f>
         <v>1.9660166155898481E-4</v>
       </c>
       <c r="APR23">
-        <f t="shared" ref="APR23:ASC23" si="553">AVERAGE(APR4:APR21)</f>
+        <f t="shared" ref="APR23" si="553">AVERAGE(APR4:APR21)</f>
         <v>1.4169190151481866E-4</v>
       </c>
       <c r="APT23">
-        <f t="shared" ref="APT23:ASE23" si="554">AVERAGE(APT4:APT21)</f>
+        <f t="shared" ref="APT23" si="554">AVERAGE(APT4:APT21)</f>
         <v>1.9817677368212444E-4</v>
       </c>
       <c r="APV23">
-        <f t="shared" ref="APV23:ASG23" si="555">AVERAGE(APV4:APV21)</f>
+        <f t="shared" ref="APV23" si="555">AVERAGE(APV4:APV21)</f>
         <v>1.9817677368212444E-4</v>
       </c>
       <c r="APX23">
-        <f t="shared" ref="APX23:ASI23" si="556">AVERAGE(APX4:APX21)</f>
+        <f t="shared" ref="APX23" si="556">AVERAGE(APX4:APX21)</f>
         <v>1.4650331929450189E-4</v>
       </c>
       <c r="APZ23">
-        <f t="shared" ref="APZ23:ASK23" si="557">AVERAGE(APZ4:APZ21)</f>
+        <f t="shared" ref="APZ23" si="557">AVERAGE(APZ4:APZ21)</f>
         <v>1.7779371229074322E-4</v>
       </c>
       <c r="AQB23">
-        <f t="shared" ref="AQB23:ASM23" si="558">AVERAGE(AQB4:AQB21)</f>
+        <f t="shared" ref="AQB23" si="558">AVERAGE(AQB4:AQB21)</f>
         <v>1.7243207291961878E-4</v>
       </c>
       <c r="AQD23">
-        <f t="shared" ref="AQD23:ASO23" si="559">AVERAGE(AQD4:AQD21)</f>
+        <f t="shared" ref="AQD23" si="559">AVERAGE(AQD4:AQD21)</f>
         <v>1.5076799881734874E-4</v>
       </c>
       <c r="AQF23">
-        <f t="shared" ref="AQF23:ASQ23" si="560">AVERAGE(AQF4:AQF21)</f>
+        <f t="shared" ref="AQF23" si="560">AVERAGE(AQF4:AQF21)</f>
         <v>1.6308261988307005E-4</v>
       </c>
       <c r="AQH23">
-        <f t="shared" ref="AQH23:ASS23" si="561">AVERAGE(AQH4:AQH21)</f>
+        <f t="shared" ref="AQH23" si="561">AVERAGE(AQH4:AQH21)</f>
         <v>1.8540972497050958E-4</v>
       </c>
       <c r="AQJ23">
-        <f t="shared" ref="AQJ23:ARO23" si="562">AVERAGE(AQJ4:AQJ21)</f>
+        <f t="shared" ref="AQJ23" si="562">AVERAGE(AQJ4:AQJ21)</f>
         <v>1.9602019523940885E-4</v>
       </c>
       <c r="AQL23">
-        <f t="shared" ref="AQL23:ARQ23" si="563">AVERAGE(AQL4:AQL21)</f>
+        <f t="shared" ref="AQL23" si="563">AVERAGE(AQL4:AQL21)</f>
         <v>1.9330382134207576E-4</v>
       </c>
       <c r="AQN23">
-        <f t="shared" ref="AQN23:ARS23" si="564">AVERAGE(AQN4:AQN21)</f>
+        <f t="shared" ref="AQN23" si="564">AVERAGE(AQN4:AQN21)</f>
         <v>1.6249233506140123E-4</v>
       </c>
       <c r="AQP23">
-        <f t="shared" ref="AQP23:ARU23" si="565">AVERAGE(AQP4:AQP21)</f>
+        <f t="shared" ref="AQP23" si="565">AVERAGE(AQP4:AQP21)</f>
         <v>1.8770203810302831E-4</v>
       </c>
       <c r="AQR23">
-        <f t="shared" ref="AQR23:ARW23" si="566">AVERAGE(AQR4:AQR21)</f>
+        <f t="shared" ref="AQR23" si="566">AVERAGE(AQR4:AQR21)</f>
         <v>1.8971351038971337E-4</v>
       </c>
       <c r="AQT23">
-        <f t="shared" ref="AQT23:ARY23" si="567">AVERAGE(AQT4:AQT21)</f>
+        <f t="shared" ref="AQT23" si="567">AVERAGE(AQT4:AQT21)</f>
         <v>1.7315807049717079E-4</v>
       </c>
       <c r="AQV23">
-        <f t="shared" ref="AQV23:ASA23" si="568">AVERAGE(AQV4:AQV21)</f>
+        <f t="shared" ref="AQV23" si="568">AVERAGE(AQV4:AQV21)</f>
         <v>1.8869793014858431E-4</v>
       </c>
       <c r="AQX23">
-        <f t="shared" ref="AQX23:ASC23" si="569">AVERAGE(AQX4:AQX21)</f>
+        <f t="shared" ref="AQX23" si="569">AVERAGE(AQX4:AQX21)</f>
         <v>1.2816915626782144E-4</v>
       </c>
       <c r="AQZ23">
-        <f t="shared" ref="AQZ23:ASE23" si="570">AVERAGE(AQZ4:AQZ21)</f>
+        <f t="shared" ref="AQZ23" si="570">AVERAGE(AQZ4:AQZ21)</f>
         <v>1.4751012742148572E-4</v>
       </c>
       <c r="ARB23">
-        <f t="shared" ref="ARB23:ASG23" si="571">AVERAGE(ARB4:ARB21)</f>
+        <f t="shared" ref="ARB23" si="571">AVERAGE(ARB4:ARB21)</f>
         <v>1.5079551582054655E-4</v>
       </c>
       <c r="ARD23">
-        <f t="shared" ref="ARD23:ASI23" si="572">AVERAGE(ARD4:ARD21)</f>
+        <f t="shared" ref="ARD23" si="572">AVERAGE(ARD4:ARD21)</f>
         <v>1.2075170492427945E-4</v>
       </c>
       <c r="ARF23">
-        <f t="shared" ref="ARF23:ASK23" si="573">AVERAGE(ARF4:ARF21)</f>
+        <f t="shared" ref="ARF23" si="573">AVERAGE(ARF4:ARF21)</f>
         <v>1.6959065874669698E-4</v>
       </c>
       <c r="ARH23">
-        <f t="shared" ref="ARH23:ASM23" si="574">AVERAGE(ARH4:ARH21)</f>
+        <f t="shared" ref="ARH23" si="574">AVERAGE(ARH4:ARH21)</f>
         <v>1.7548314106404338E-4</v>
       </c>
       <c r="ARJ23">
-        <f t="shared" ref="ARJ23:ASO23" si="575">AVERAGE(ARJ4:ARJ21)</f>
+        <f t="shared" ref="ARJ23" si="575">AVERAGE(ARJ4:ARJ21)</f>
         <v>1.9234442400180822E-4</v>
       </c>
       <c r="ARL23">
-        <f t="shared" ref="ARL23:ASQ23" si="576">AVERAGE(ARL4:ARL21)</f>
+        <f t="shared" ref="ARL23" si="576">AVERAGE(ARL4:ARL21)</f>
         <v>1.7251336507597182E-4</v>
       </c>
       <c r="ARN23">
-        <f t="shared" ref="ARN23:ASS23" si="577">AVERAGE(ARN4:ARN21)</f>
+        <f t="shared" ref="ARN23" si="577">AVERAGE(ARN4:ARN21)</f>
         <v>1.8976432758221714E-4</v>
       </c>
       <c r="ARP23">
-        <f t="shared" ref="ARP23:ASU23" si="578">AVERAGE(ARP4:ARP21)</f>
+        <f t="shared" ref="ARP23" si="578">AVERAGE(ARP4:ARP21)</f>
         <v>1.6178999191403831E-4</v>
       </c>
       <c r="ARR23">
-        <f t="shared" ref="ARR23:ASW23" si="579">AVERAGE(ARR4:ARR21)</f>
+        <f t="shared" ref="ARR23" si="579">AVERAGE(ARR4:ARR21)</f>
         <v>1.8487291916899592E-4</v>
       </c>
       <c r="ART23">
-        <f t="shared" ref="ART23:ASY23" si="580">AVERAGE(ART4:ART21)</f>
+        <f t="shared" ref="ART23" si="580">AVERAGE(ART4:ART21)</f>
         <v>1.6451992137434251E-4</v>
       </c>
       <c r="ARV23">
-        <f t="shared" ref="ARV23:ATA23" si="581">AVERAGE(ARV4:ARV21)</f>
+        <f t="shared" ref="ARV23" si="581">AVERAGE(ARV4:ARV21)</f>
         <v>9.9512383728850174E-5</v>
       </c>
       <c r="ARX23">
-        <f t="shared" ref="ARX23:ATC23" si="582">AVERAGE(ARX4:ARX21)</f>
+        <f t="shared" ref="ARX23" si="582">AVERAGE(ARX4:ARX21)</f>
         <v>1.6859082447146271E-4</v>
       </c>
       <c r="ARZ23">
-        <f t="shared" ref="ARZ23:ATE23" si="583">AVERAGE(ARZ4:ARZ21)</f>
+        <f t="shared" ref="ARZ23" si="583">AVERAGE(ARZ4:ARZ21)</f>
         <v>1.3344108092596031E-4</v>
       </c>
       <c r="ASB23">
-        <f t="shared" ref="ASB23:ATG23" si="584">AVERAGE(ASB4:ASB21)</f>
+        <f t="shared" ref="ASB23" si="584">AVERAGE(ASB4:ASB21)</f>
         <v>1.8889233330858144E-4</v>
       </c>
       <c r="ASD23">
-        <f t="shared" ref="ASD23:ATI23" si="585">AVERAGE(ASD4:ASD21)</f>
+        <f t="shared" ref="ASD23" si="585">AVERAGE(ASD4:ASD21)</f>
         <v>1.9080328181644724E-4</v>
       </c>
       <c r="ASF23">
-        <f t="shared" ref="ASF23:ATK23" si="586">AVERAGE(ASF4:ASF21)</f>
+        <f t="shared" ref="ASF23" si="586">AVERAGE(ASF4:ASF21)</f>
         <v>1.6688388309715567E-4</v>
       </c>
       <c r="ASH23">
-        <f t="shared" ref="ASH23:ATM23" si="587">AVERAGE(ASH4:ASH21)</f>
+        <f t="shared" ref="ASH23" si="587">AVERAGE(ASH4:ASH21)</f>
         <v>1.6059183594941347E-4</v>
       </c>
       <c r="ASJ23">
-        <f t="shared" ref="ASJ23:ATO23" si="588">AVERAGE(ASJ4:ASJ21)</f>
+        <f t="shared" ref="ASJ23" si="588">AVERAGE(ASJ4:ASJ21)</f>
         <v>1.3401418838211089E-4</v>
       </c>
       <c r="ASL23">
-        <f t="shared" ref="ASL23:ATQ23" si="589">AVERAGE(ASL4:ASL21)</f>
+        <f t="shared" ref="ASL23" si="589">AVERAGE(ASL4:ASL21)</f>
         <v>1.7715057201342428E-4</v>
       </c>
       <c r="ASN23">
-        <f t="shared" ref="ASN23:ATS23" si="590">AVERAGE(ASN4:ASN21)</f>
+        <f t="shared" ref="ASN23" si="590">AVERAGE(ASN4:ASN21)</f>
         <v>1.8756737689582334E-4</v>
       </c>
       <c r="ASP23">
-        <f t="shared" ref="ASP23:ATU23" si="591">AVERAGE(ASP4:ASP21)</f>
+        <f t="shared" ref="ASP23" si="591">AVERAGE(ASP4:ASP21)</f>
         <v>1.8680472877128778E-4</v>
       </c>
       <c r="ASR23">
-        <f t="shared" ref="ASR23:ATW23" si="592">AVERAGE(ASR4:ASR21)</f>
+        <f t="shared" ref="ASR23" si="592">AVERAGE(ASR4:ASR21)</f>
         <v>1.3436106501567494E-4</v>
       </c>
       <c r="AST23">
-        <f t="shared" ref="AST23:ATY23" si="593">AVERAGE(AST4:AST21)</f>
+        <f t="shared" ref="AST23" si="593">AVERAGE(AST4:AST21)</f>
         <v>1.8098111241031755E-4</v>
       </c>
       <c r="ASV23">
-        <f t="shared" ref="ASV23:AUA23" si="594">AVERAGE(ASV4:ASV21)</f>
+        <f t="shared" ref="ASV23" si="594">AVERAGE(ASV4:ASV21)</f>
         <v>1.6176236945017166E-4</v>
       </c>
       <c r="ASX23">
-        <f t="shared" ref="ASX23:AUC23" si="595">AVERAGE(ASX4:ASX21)</f>
+        <f t="shared" ref="ASX23" si="595">AVERAGE(ASX4:ASX21)</f>
         <v>1.7390447946049453E-4</v>
       </c>
       <c r="ASZ23">
-        <f t="shared" ref="ASZ23:AUE23" si="596">AVERAGE(ASZ4:ASZ21)</f>
+        <f t="shared" ref="ASZ23" si="596">AVERAGE(ASZ4:ASZ21)</f>
         <v>1.8598193203488091E-4</v>
       </c>
       <c r="ATB23">
-        <f t="shared" ref="ATB23:AUG23" si="597">AVERAGE(ATB4:ATB21)</f>
+        <f t="shared" ref="ATB23" si="597">AVERAGE(ATB4:ATB21)</f>
         <v>1.7210587458099316E-4</v>
       </c>
       <c r="ATD23">
-        <f t="shared" ref="ATD23:AUI23" si="598">AVERAGE(ATD4:ATD21)</f>
+        <f t="shared" ref="ATD23" si="598">AVERAGE(ATD4:ATD21)</f>
         <v>1.8812969698637965E-4</v>
       </c>
       <c r="ATF23">
-        <f t="shared" ref="ATF23:AUK23" si="599">AVERAGE(ATF4:ATF21)</f>
+        <f t="shared" ref="ATF23" si="599">AVERAGE(ATF4:ATF21)</f>
         <v>1.6074473871342042E-4</v>
       </c>
       <c r="ATH23">
-        <f t="shared" ref="ATH23:AUM23" si="600">AVERAGE(ATH4:ATH21)</f>
+        <f t="shared" ref="ATH23" si="600">AVERAGE(ATH4:ATH21)</f>
         <v>1.8604805710553641E-4</v>
       </c>
       <c r="ATJ23">
-        <f t="shared" ref="ATJ23:AUO23" si="601">AVERAGE(ATJ4:ATJ21)</f>
+        <f t="shared" ref="ATJ23" si="601">AVERAGE(ATJ4:ATJ21)</f>
         <v>1.4119748289139438E-4</v>
       </c>
       <c r="ATL23">
-        <f t="shared" ref="ATL23:AUQ23" si="602">AVERAGE(ATL4:ATL21)</f>
+        <f t="shared" ref="ATL23" si="602">AVERAGE(ATL4:ATL21)</f>
         <v>1.7686306324925214E-4</v>
       </c>
       <c r="ATN23">
-        <f t="shared" ref="ATN23:AUS23" si="603">AVERAGE(ATN4:ATN21)</f>
+        <f t="shared" ref="ATN23" si="603">AVERAGE(ATN4:ATN21)</f>
         <v>1.4280524109155999E-4</v>
       </c>
       <c r="ATP23">
-        <f t="shared" ref="ATP23:AUU23" si="604">AVERAGE(ATP4:ATP21)</f>
+        <f t="shared" ref="ATP23" si="604">AVERAGE(ATP4:ATP21)</f>
         <v>1.7713145329836824E-4</v>
       </c>
       <c r="ATR23">
-        <f t="shared" ref="ATR23:AUW23" si="605">AVERAGE(ATR4:ATR21)</f>
+        <f t="shared" ref="ATR23" si="605">AVERAGE(ATR4:ATR21)</f>
         <v>1.2656875290483377E-4</v>
       </c>
       <c r="ATT23">
-        <f t="shared" ref="ATT23:AUY23" si="606">AVERAGE(ATT4:ATT21)</f>
+        <f t="shared" ref="ATT23" si="606">AVERAGE(ATT4:ATT21)</f>
         <v>1.4815745407647043E-4</v>
       </c>
       <c r="ATV23">
-        <f t="shared" ref="ATV23:AVA23" si="607">AVERAGE(ATV4:ATV21)</f>
+        <f t="shared" ref="ATV23" si="607">AVERAGE(ATV4:ATV21)</f>
         <v>1.2415719814462927E-4</v>
       </c>
       <c r="ATX23">
-        <f t="shared" ref="ATX23:AVC23" si="608">AVERAGE(ATX4:ATX21)</f>
+        <f t="shared" ref="ATX23" si="608">AVERAGE(ATX4:ATX21)</f>
         <v>1.8281423290899981E-4</v>
       </c>
       <c r="ATZ23">
-        <f t="shared" ref="ATZ23:AVE23" si="609">AVERAGE(ATZ4:ATZ21)</f>
+        <f t="shared" ref="ATZ23" si="609">AVERAGE(ATZ4:ATZ21)</f>
         <v>1.7326854555165167E-4</v>
       </c>
       <c r="AUB23">
-        <f t="shared" ref="AUB23:AVG23" si="610">AVERAGE(AUB4:AUB21)</f>
+        <f t="shared" ref="AUB23" si="610">AVERAGE(AUB4:AUB21)</f>
         <v>1.8581059658073437E-4</v>
       </c>
       <c r="AUD23">
-        <f t="shared" ref="AUD23:AVI23" si="611">AVERAGE(AUD4:AUD21)</f>
+        <f t="shared" ref="AUD23" si="611">AVERAGE(AUD4:AUD21)</f>
         <v>1.6039592726740926E-4</v>
       </c>
       <c r="AUF23">
-        <f t="shared" ref="AUF23:AVK23" si="612">AVERAGE(AUF4:AUF21)</f>
+        <f t="shared" ref="AUF23" si="612">AVERAGE(AUF4:AUF21)</f>
         <v>1.6585401720384219E-4</v>
       </c>
       <c r="AUH23">
-        <f t="shared" ref="AUH23:AVM23" si="613">AVERAGE(AUH4:AUH21)</f>
+        <f t="shared" ref="AUH23" si="613">AVERAGE(AUH4:AUH21)</f>
         <v>1.8037217902668721E-4</v>
       </c>
       <c r="AUJ23">
-        <f t="shared" ref="AUJ23:AVO23" si="614">AVERAGE(AUJ4:AUJ21)</f>
+        <f t="shared" ref="AUJ23" si="614">AVERAGE(AUJ4:AUJ21)</f>
         <v>1.7312811135693866E-4</v>
       </c>
       <c r="AUL23">
-        <f t="shared" ref="AUL23:AVQ23" si="615">AVERAGE(AUL4:AUL21)</f>
+        <f t="shared" ref="AUL23" si="615">AVERAGE(AUL4:AUL21)</f>
         <v>1.8361415498212945E-4</v>
       </c>
       <c r="AUN23">
-        <f t="shared" ref="AUN23:AVS23" si="616">AVERAGE(AUN4:AUN21)</f>
+        <f t="shared" ref="AUN23" si="616">AVERAGE(AUN4:AUN21)</f>
         <v>1.3956177294177402E-4</v>
       </c>
       <c r="AUP23">
-        <f t="shared" ref="AUP23:AVU23" si="617">AVERAGE(AUP4:AUP21)</f>
+        <f t="shared" ref="AUP23" si="617">AVERAGE(AUP4:AUP21)</f>
         <v>1.7213492368246334E-4</v>
       </c>
       <c r="AUR23">
-        <f t="shared" ref="AUR23:AVW23" si="618">AVERAGE(AUR4:AUR21)</f>
+        <f t="shared" ref="AUR23" si="618">AVERAGE(AUR4:AUR21)</f>
         <v>1.7598639371743354E-4</v>
       </c>
       <c r="AUT23">
-        <f t="shared" ref="AUT23:AVY23" si="619">AVERAGE(AUT4:AUT21)</f>
+        <f t="shared" ref="AUT23" si="619">AVERAGE(AUT4:AUT21)</f>
         <v>1.6903379589929476E-4</v>
       </c>
       <c r="AUV23">
-        <f t="shared" ref="AUV23:AWA23" si="620">AVERAGE(AUV4:AUV21)</f>
+        <f t="shared" ref="AUV23" si="620">AVERAGE(AUV4:AUV21)</f>
         <v>1.8256161220105442E-4</v>
       </c>
       <c r="AUX23">
-        <f t="shared" ref="AUX23:AWC23" si="621">AVERAGE(AUX4:AUX21)</f>
+        <f t="shared" ref="AUX23" si="621">AVERAGE(AUX4:AUX21)</f>
         <v>1.8161386856928427E-4</v>
       </c>
       <c r="AUZ23">
-        <f t="shared" ref="AUZ23:AWE23" si="622">AVERAGE(AUZ4:AUZ21)</f>
+        <f t="shared" ref="AUZ23" si="622">AVERAGE(AUZ4:AUZ21)</f>
         <v>1.7592484313056912E-4</v>
       </c>
       <c r="AVB23">
-        <f t="shared" ref="AVB23:AWG23" si="623">AVERAGE(AVB4:AVB21)</f>
+        <f t="shared" ref="AVB23" si="623">AVERAGE(AVB4:AVB21)</f>
         <v>1.6607134556771328E-4</v>
       </c>
       <c r="AVD23">
-        <f t="shared" ref="AVD23:AWI23" si="624">AVERAGE(AVD4:AVD21)</f>
+        <f t="shared" ref="AVD23" si="624">AVERAGE(AVD4:AVD21)</f>
         <v>1.8089690008317837E-4</v>
       </c>
       <c r="AVF23">
-        <f t="shared" ref="AVF23:AWK23" si="625">AVERAGE(AVF4:AVF21)</f>
+        <f t="shared" ref="AVF23" si="625">AVERAGE(AVF4:AVF21)</f>
         <v>1.8089690008317837E-4</v>
       </c>
       <c r="AVH23">
-        <f t="shared" ref="AVH23:AWM23" si="626">AVERAGE(AVH4:AVH21)</f>
+        <f t="shared" ref="AVH23" si="626">AVERAGE(AVH4:AVH21)</f>
         <v>1.7458659424487457E-4</v>
       </c>
       <c r="AVJ23">
-        <f t="shared" ref="AVJ23:AWO23" si="627">AVERAGE(AVJ4:AVJ21)</f>
+        <f t="shared" ref="AVJ23" si="627">AVERAGE(AVJ4:AVJ21)</f>
         <v>1.8060669290063518E-4</v>
       </c>
       <c r="AVL23">
-        <f t="shared" ref="AVL23:AWQ23" si="628">AVERAGE(AVL4:AVL21)</f>
+        <f t="shared" ref="AVL23" si="628">AVERAGE(AVL4:AVL21)</f>
         <v>1.8060669290063518E-4</v>
       </c>
       <c r="AVN23">
-        <f t="shared" ref="AVN23:AWS23" si="629">AVERAGE(AVN4:AVN21)</f>
+        <f t="shared" ref="AVN23" si="629">AVERAGE(AVN4:AVN21)</f>
         <v>1.5435153402956701E-4</v>
       </c>
       <c r="AVP23">
-        <f t="shared" ref="AVP23:AWU23" si="630">AVERAGE(AVP4:AVP21)</f>
+        <f t="shared" ref="AVP23" si="630">AVERAGE(AVP4:AVP21)</f>
         <v>1.7983679151292744E-4</v>
       </c>
       <c r="AVR23">
-        <f t="shared" ref="AVR23:AWW23" si="631">AVERAGE(AVR4:AVR21)</f>
+        <f t="shared" ref="AVR23" si="631">AVERAGE(AVR4:AVR21)</f>
         <v>1.5976451157660222E-4</v>
       </c>
       <c r="AVT23">
-        <f t="shared" ref="AVT23:AWY23" si="632">AVERAGE(AVT4:AVT21)</f>
+        <f t="shared" ref="AVT23" si="632">AVERAGE(AVT4:AVT21)</f>
         <v>1.7311720879522032E-4</v>
       </c>
       <c r="AVV23">
-        <f t="shared" ref="AVV23:AXA23" si="633">AVERAGE(AVV4:AVV21)</f>
+        <f t="shared" ref="AVV23" si="633">AVERAGE(AVV4:AVV21)</f>
         <v>1.7736180224426333E-4</v>
       </c>
       <c r="AVX23">
-        <f t="shared" ref="AVX23:AXC23" si="634">AVERAGE(AVX4:AVX21)</f>
+        <f t="shared" ref="AVX23" si="634">AVERAGE(AVX4:AVX21)</f>
         <v>1.7688755536283835E-4</v>
       </c>
       <c r="AVZ23">
-        <f t="shared" ref="AVZ23:AXE23" si="635">AVERAGE(AVZ4:AVZ21)</f>
+        <f t="shared" ref="AVZ23" si="635">AVERAGE(AVZ4:AVZ21)</f>
         <v>1.7373519967314938E-4</v>
       </c>
       <c r="AWB23">
-        <f t="shared" ref="AWB23:AXG23" si="636">AVERAGE(AWB4:AWB21)</f>
+        <f t="shared" ref="AWB23" si="636">AVERAGE(AWB4:AWB21)</f>
         <v>1.4400355614435317E-4</v>
       </c>
       <c r="AWD23">
-        <f t="shared" ref="AWD23:AXI23" si="637">AVERAGE(AWD4:AWD21)</f>
+        <f t="shared" ref="AWD23" si="637">AVERAGE(AWD4:AWD21)</f>
         <v>1.4657668207819711E-4</v>
       </c>
       <c r="AWF23">
-        <f t="shared" ref="AWF23:AYA23" si="638">AVERAGE(AWF4:AWF21)</f>
+        <f t="shared" ref="AWF23" si="638">AVERAGE(AWF4:AWF21)</f>
         <v>1.5878515441859634E-4</v>
       </c>
       <c r="AWH23">
-        <f t="shared" ref="AWH23:AYA23" si="639">AVERAGE(AWH4:AWH21)</f>
+        <f t="shared" ref="AWH23" si="639">AVERAGE(AWH4:AWH21)</f>
         <v>1.5058168081854228E-4</v>
       </c>
       <c r="AWJ23">
-        <f t="shared" ref="AWJ23:AYA23" si="640">AVERAGE(AWJ4:AWJ21)</f>
+        <f t="shared" ref="AWJ23" si="640">AVERAGE(AWJ4:AWJ21)</f>
         <v>1.4193755622763992E-4</v>
       </c>
       <c r="AWL23">
-        <f t="shared" ref="AWL23:AYA23" si="641">AVERAGE(AWL4:AWL21)</f>
+        <f t="shared" ref="AWL23" si="641">AVERAGE(AWL4:AWL21)</f>
         <v>1.7321186579614625E-4</v>
       </c>
       <c r="AWN23">
-        <f t="shared" ref="AWN23:AYA23" si="642">AVERAGE(AWN4:AWN21)</f>
+        <f t="shared" ref="AWN23" si="642">AVERAGE(AWN4:AWN21)</f>
         <v>1.7770636935935015E-4</v>
       </c>
       <c r="AWP23">
-        <f t="shared" ref="AWP23:AYA23" si="643">AVERAGE(AWP4:AWP21)</f>
+        <f t="shared" ref="AWP23" si="643">AVERAGE(AWP4:AWP21)</f>
         <v>1.7770636935935015E-4</v>
       </c>
       <c r="AWR23">
-        <f t="shared" ref="AWR23:AYA23" si="644">AVERAGE(AWR4:AWR21)</f>
+        <f t="shared" ref="AWR23" si="644">AVERAGE(AWR4:AWR21)</f>
         <v>1.5940016263468363E-4</v>
       </c>
       <c r="AWT23">
-        <f t="shared" ref="AWT23:AYA23" si="645">AVERAGE(AWT4:AWT21)</f>
+        <f t="shared" ref="AWT23" si="645">AVERAGE(AWT4:AWT21)</f>
         <v>1.473512665985264E-4</v>
       </c>
       <c r="AWV23">
-        <f t="shared" ref="AWV23:AYA23" si="646">AVERAGE(AWV4:AWV21)</f>
+        <f t="shared" ref="AWV23" si="646">AVERAGE(AWV4:AWV21)</f>
         <v>1.4960655797485384E-4</v>
       </c>
       <c r="AWX23">
-        <f t="shared" ref="AWX23:AYA23" si="647">AVERAGE(AWX4:AWX21)</f>
+        <f t="shared" ref="AWX23" si="647">AVERAGE(AWX4:AWX21)</f>
         <v>1.729558828056641E-4</v>
       </c>
       <c r="AWZ23">
-        <f t="shared" ref="AWZ23:AYA23" si="648">AVERAGE(AWZ4:AWZ21)</f>
+        <f t="shared" ref="AWZ23" si="648">AVERAGE(AWZ4:AWZ21)</f>
         <v>1.7657279715849932E-4</v>
       </c>
       <c r="AXB23">
-        <f t="shared" ref="AXB23:AYA23" si="649">AVERAGE(AXB4:AXB21)</f>
+        <f t="shared" ref="AXB23" si="649">AVERAGE(AXB4:AXB21)</f>
         <v>1.7448678834132306E-4</v>
       </c>
       <c r="AXD23">
-        <f t="shared" ref="AXD23:AYA23" si="650">AVERAGE(AXD4:AXD21)</f>
+        <f t="shared" ref="AXD23" si="650">AVERAGE(AXD4:AXD21)</f>
         <v>1.5254801201276686E-4</v>
       </c>
       <c r="AXF23">
-        <f t="shared" ref="AXF23:AYA23" si="651">AVERAGE(AXF4:AXF21)</f>
+        <f t="shared" ref="AXF23" si="651">AVERAGE(AXF4:AXF21)</f>
         <v>1.7617984915659511E-4</v>
       </c>
       <c r="AXH23">
-        <f t="shared" ref="AXH23:AYA23" si="652">AVERAGE(AXH4:AXH21)</f>
+        <f t="shared" ref="AXH23" si="652">AVERAGE(AXH4:AXH21)</f>
         <v>1.7129786984195733E-4</v>
       </c>
       <c r="AXJ23">
-        <f t="shared" ref="AXJ23:AYA23" si="653">AVERAGE(AXJ4:AXJ21)</f>
+        <f t="shared" ref="AXJ23" si="653">AVERAGE(AXJ4:AXJ21)</f>
         <v>1.7608733932030277E-4</v>
       </c>
       <c r="AXL23">
-        <f t="shared" ref="AXL23:AYA23" si="654">AVERAGE(AXL4:AXL21)</f>
+        <f t="shared" ref="AXL23" si="654">AVERAGE(AXL4:AXL21)</f>
         <v>1.7608733932030277E-4</v>
       </c>
       <c r="AXN23">
-        <f t="shared" ref="AXN23:AYA23" si="655">AVERAGE(AXN4:AXN21)</f>
+        <f t="shared" ref="AXN23" si="655">AVERAGE(AXN4:AXN21)</f>
         <v>1.7608733932030277E-4</v>
       </c>
       <c r="AXP23">
-        <f t="shared" ref="AXP23:AYA23" si="656">AVERAGE(AXP4:AXP21)</f>
+        <f t="shared" ref="AXP23" si="656">AVERAGE(AXP4:AXP21)</f>
         <v>1.4657265224197124E-4</v>
       </c>
       <c r="AXR23">
-        <f t="shared" ref="AXR23:AYA23" si="657">AVERAGE(AXR4:AXR21)</f>
+        <f t="shared" ref="AXR23" si="657">AVERAGE(AXR4:AXR21)</f>
         <v>1.3505418662435211E-4</v>
       </c>
       <c r="AXT23">
-        <f t="shared" ref="AXT23:AYA23" si="658">AVERAGE(AXT4:AXT21)</f>
+        <f t="shared" ref="AXT23" si="658">AVERAGE(AXT4:AXT21)</f>
         <v>1.4523806535588814E-4</v>
       </c>
       <c r="AXV23">
-        <f t="shared" ref="AXV23:AYA23" si="659">AVERAGE(AXV4:AXV21)</f>
+        <f t="shared" ref="AXV23" si="659">AVERAGE(AXV4:AXV21)</f>
         <v>9.3199464888366884E-5</v>
       </c>
       <c r="AXX23">
-        <f t="shared" ref="AXX23:AYA23" si="660">AVERAGE(AXX4:AXX21)</f>
+        <f t="shared" ref="AXX23" si="660">AVERAGE(AXX4:AXX21)</f>
         <v>1.7300374935623277E-4</v>
       </c>
       <c r="AXZ23">
-        <f t="shared" ref="AXZ23:AYA23" si="661">AVERAGE(AXZ4:AXZ21)</f>
+        <f t="shared" ref="AXZ23" si="661">AVERAGE(AXZ4:AXZ21)</f>
         <v>1.4658701143610916E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:1327" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1329" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>684</v>
       </c>
@@ -89717,2647 +89733,2647 @@
         <v>1.3791057694371745E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:BO24" si="662">_xlfn.STDEV.S(D4:D21)</f>
+        <f t="shared" ref="D24" si="662">_xlfn.STDEV.S(D4:D21)</f>
         <v>1.2728621854118802E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:BQ24" si="663">_xlfn.STDEV.S(F4:F21)</f>
+        <f t="shared" ref="F24" si="663">_xlfn.STDEV.S(F4:F21)</f>
         <v>1.3451067993683886E-2</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24:BS24" si="664">_xlfn.STDEV.S(H4:H21)</f>
+        <f t="shared" ref="H24" si="664">_xlfn.STDEV.S(H4:H21)</f>
         <v>3.9833350793379678E-3</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24:BU24" si="665">_xlfn.STDEV.S(J4:J21)</f>
+        <f t="shared" ref="J24" si="665">_xlfn.STDEV.S(J4:J21)</f>
         <v>5.9824749044365653E-3</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:BW24" si="666">_xlfn.STDEV.S(L4:L21)</f>
+        <f t="shared" ref="L24" si="666">_xlfn.STDEV.S(L4:L21)</f>
         <v>4.969385665161254E-3</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:BY24" si="667">_xlfn.STDEV.S(N4:N21)</f>
+        <f t="shared" ref="N24" si="667">_xlfn.STDEV.S(N4:N21)</f>
         <v>5.7051822302314611E-3</v>
       </c>
       <c r="P24">
-        <f t="shared" ref="P24:CA24" si="668">_xlfn.STDEV.S(P4:P21)</f>
+        <f t="shared" ref="P24" si="668">_xlfn.STDEV.S(P4:P21)</f>
         <v>3.5559910192317886E-3</v>
       </c>
       <c r="R24">
-        <f t="shared" ref="R24:CC24" si="669">_xlfn.STDEV.S(R4:R21)</f>
+        <f t="shared" ref="R24" si="669">_xlfn.STDEV.S(R4:R21)</f>
         <v>4.1498905423001213E-3</v>
       </c>
       <c r="T24">
-        <f t="shared" ref="T24:CE24" si="670">_xlfn.STDEV.S(T4:T21)</f>
+        <f t="shared" ref="T24" si="670">_xlfn.STDEV.S(T4:T21)</f>
         <v>4.582667702726871E-3</v>
       </c>
       <c r="V24">
-        <f t="shared" ref="V24:CG24" si="671">_xlfn.STDEV.S(V4:V21)</f>
+        <f t="shared" ref="V24" si="671">_xlfn.STDEV.S(V4:V21)</f>
         <v>3.593779232050042E-3</v>
       </c>
       <c r="X24">
-        <f t="shared" ref="X24:CI24" si="672">_xlfn.STDEV.S(X4:X21)</f>
+        <f t="shared" ref="X24" si="672">_xlfn.STDEV.S(X4:X21)</f>
         <v>3.1536591935930362E-3</v>
       </c>
       <c r="Z24">
-        <f t="shared" ref="Z24:CK24" si="673">_xlfn.STDEV.S(Z4:Z21)</f>
+        <f t="shared" ref="Z24" si="673">_xlfn.STDEV.S(Z4:Z21)</f>
         <v>2.8115352288558392E-3</v>
       </c>
       <c r="AB24">
-        <f t="shared" ref="AB24:CM24" si="674">_xlfn.STDEV.S(AB4:AB21)</f>
+        <f t="shared" ref="AB24" si="674">_xlfn.STDEV.S(AB4:AB21)</f>
         <v>2.988069650282994E-3</v>
       </c>
       <c r="AD24">
-        <f t="shared" ref="AD24:CO24" si="675">_xlfn.STDEV.S(AD4:AD21)</f>
+        <f t="shared" ref="AD24" si="675">_xlfn.STDEV.S(AD4:AD21)</f>
         <v>7.4352255114945743E-3</v>
       </c>
       <c r="AF24">
-        <f t="shared" ref="AF24:CQ24" si="676">_xlfn.STDEV.S(AF4:AF21)</f>
+        <f t="shared" ref="AF24" si="676">_xlfn.STDEV.S(AF4:AF21)</f>
         <v>3.3087853053361386E-3</v>
       </c>
       <c r="AH24">
-        <f t="shared" ref="AH24:CS24" si="677">_xlfn.STDEV.S(AH4:AH21)</f>
+        <f t="shared" ref="AH24" si="677">_xlfn.STDEV.S(AH4:AH21)</f>
         <v>2.8578206506283143E-3</v>
       </c>
       <c r="AJ24">
-        <f t="shared" ref="AJ24:CU24" si="678">_xlfn.STDEV.S(AJ4:AJ21)</f>
+        <f t="shared" ref="AJ24" si="678">_xlfn.STDEV.S(AJ4:AJ21)</f>
         <v>6.1343790009465056E-3</v>
       </c>
       <c r="AL24">
-        <f t="shared" ref="AL24:CW24" si="679">_xlfn.STDEV.S(AL4:AL21)</f>
+        <f t="shared" ref="AL24" si="679">_xlfn.STDEV.S(AL4:AL21)</f>
         <v>3.1000840802496558E-3</v>
       </c>
       <c r="AN24">
-        <f t="shared" ref="AN24:CY24" si="680">_xlfn.STDEV.S(AN4:AN21)</f>
+        <f t="shared" ref="AN24" si="680">_xlfn.STDEV.S(AN4:AN21)</f>
         <v>2.4792310970251901E-3</v>
       </c>
       <c r="AP24">
-        <f t="shared" ref="AP24:DA24" si="681">_xlfn.STDEV.S(AP4:AP21)</f>
+        <f t="shared" ref="AP24" si="681">_xlfn.STDEV.S(AP4:AP21)</f>
         <v>2.5177992351583601E-3</v>
       </c>
       <c r="AR24">
-        <f t="shared" ref="AR24:DC24" si="682">_xlfn.STDEV.S(AR4:AR21)</f>
+        <f t="shared" ref="AR24" si="682">_xlfn.STDEV.S(AR4:AR21)</f>
         <v>1.6678284856170053E-3</v>
       </c>
       <c r="AT24">
-        <f t="shared" ref="AT24:DE24" si="683">_xlfn.STDEV.S(AT4:AT21)</f>
+        <f t="shared" ref="AT24" si="683">_xlfn.STDEV.S(AT4:AT21)</f>
         <v>1.8607744817565502E-3</v>
       </c>
       <c r="AV24">
-        <f t="shared" ref="AV24:DG24" si="684">_xlfn.STDEV.S(AV4:AV21)</f>
+        <f t="shared" ref="AV24" si="684">_xlfn.STDEV.S(AV4:AV21)</f>
         <v>3.3869077129524234E-3</v>
       </c>
       <c r="AX24">
-        <f t="shared" ref="AX24:DI24" si="685">_xlfn.STDEV.S(AX4:AX21)</f>
+        <f t="shared" ref="AX24" si="685">_xlfn.STDEV.S(AX4:AX21)</f>
         <v>3.6659878024756388E-3</v>
       </c>
       <c r="AZ24">
-        <f t="shared" ref="AZ24:DK24" si="686">_xlfn.STDEV.S(AZ4:AZ21)</f>
+        <f t="shared" ref="AZ24" si="686">_xlfn.STDEV.S(AZ4:AZ21)</f>
         <v>2.291959986756003E-3</v>
       </c>
       <c r="BB24">
-        <f t="shared" ref="BB24:DM24" si="687">_xlfn.STDEV.S(BB4:BB21)</f>
+        <f t="shared" ref="BB24" si="687">_xlfn.STDEV.S(BB4:BB21)</f>
         <v>2.7609680988732754E-3</v>
       </c>
       <c r="BD24">
-        <f t="shared" ref="BD24:DO24" si="688">_xlfn.STDEV.S(BD4:BD21)</f>
+        <f t="shared" ref="BD24" si="688">_xlfn.STDEV.S(BD4:BD21)</f>
         <v>2.7776464329423867E-3</v>
       </c>
       <c r="BF24">
-        <f t="shared" ref="BF24:DQ24" si="689">_xlfn.STDEV.S(BF4:BF21)</f>
+        <f t="shared" ref="BF24" si="689">_xlfn.STDEV.S(BF4:BF21)</f>
         <v>1.8160705829106838E-3</v>
       </c>
       <c r="BH24">
-        <f t="shared" ref="BH24:DS24" si="690">_xlfn.STDEV.S(BH4:BH21)</f>
+        <f t="shared" ref="BH24" si="690">_xlfn.STDEV.S(BH4:BH21)</f>
         <v>2.6994329321411272E-3</v>
       </c>
       <c r="BJ24">
-        <f t="shared" ref="BJ24:DU24" si="691">_xlfn.STDEV.S(BJ4:BJ21)</f>
+        <f t="shared" ref="BJ24" si="691">_xlfn.STDEV.S(BJ4:BJ21)</f>
         <v>1.695756958216918E-3</v>
       </c>
       <c r="BL24">
-        <f t="shared" ref="BL24:DW24" si="692">_xlfn.STDEV.S(BL4:BL21)</f>
+        <f t="shared" ref="BL24" si="692">_xlfn.STDEV.S(BL4:BL21)</f>
         <v>1.8965445237163554E-3</v>
       </c>
       <c r="BN24">
-        <f t="shared" ref="BN24:DY24" si="693">_xlfn.STDEV.S(BN4:BN21)</f>
+        <f t="shared" ref="BN24" si="693">_xlfn.STDEV.S(BN4:BN21)</f>
         <v>1.6101351779702565E-3</v>
       </c>
       <c r="BP24">
-        <f t="shared" ref="BP24:EA24" si="694">_xlfn.STDEV.S(BP4:BP21)</f>
+        <f t="shared" ref="BP24" si="694">_xlfn.STDEV.S(BP4:BP21)</f>
         <v>2.7229208813892387E-3</v>
       </c>
       <c r="BR24">
-        <f t="shared" ref="BR24:EC24" si="695">_xlfn.STDEV.S(BR4:BR21)</f>
+        <f t="shared" ref="BR24" si="695">_xlfn.STDEV.S(BR4:BR21)</f>
         <v>2.417181487423441E-3</v>
       </c>
       <c r="BT24">
-        <f t="shared" ref="BT24:EE24" si="696">_xlfn.STDEV.S(BT4:BT21)</f>
+        <f t="shared" ref="BT24" si="696">_xlfn.STDEV.S(BT4:BT21)</f>
         <v>3.1259477427423962E-3</v>
       </c>
       <c r="BV24">
-        <f t="shared" ref="BV24:EG24" si="697">_xlfn.STDEV.S(BV4:BV21)</f>
+        <f t="shared" ref="BV24" si="697">_xlfn.STDEV.S(BV4:BV21)</f>
         <v>2.0247001131905719E-3</v>
       </c>
       <c r="BX24">
-        <f t="shared" ref="BX24:EI24" si="698">_xlfn.STDEV.S(BX4:BX21)</f>
+        <f t="shared" ref="BX24" si="698">_xlfn.STDEV.S(BX4:BX21)</f>
         <v>1.1718004845362247E-3</v>
       </c>
       <c r="BZ24">
-        <f t="shared" ref="BZ24:EK24" si="699">_xlfn.STDEV.S(BZ4:BZ21)</f>
+        <f t="shared" ref="BZ24" si="699">_xlfn.STDEV.S(BZ4:BZ21)</f>
         <v>1.8881345665450605E-3</v>
       </c>
       <c r="CB24">
-        <f t="shared" ref="CB24:EM24" si="700">_xlfn.STDEV.S(CB4:CB21)</f>
+        <f t="shared" ref="CB24" si="700">_xlfn.STDEV.S(CB4:CB21)</f>
         <v>2.1256260837451764E-3</v>
       </c>
       <c r="CD24">
-        <f t="shared" ref="CD24:EO24" si="701">_xlfn.STDEV.S(CD4:CD21)</f>
+        <f t="shared" ref="CD24" si="701">_xlfn.STDEV.S(CD4:CD21)</f>
         <v>1.2091440755650322E-3</v>
       </c>
       <c r="CF24">
-        <f t="shared" ref="CF24:EQ24" si="702">_xlfn.STDEV.S(CF4:CF21)</f>
+        <f t="shared" ref="CF24" si="702">_xlfn.STDEV.S(CF4:CF21)</f>
         <v>1.0036029814619631E-3</v>
       </c>
       <c r="CH24">
-        <f t="shared" ref="CH24:ES24" si="703">_xlfn.STDEV.S(CH4:CH21)</f>
+        <f t="shared" ref="CH24" si="703">_xlfn.STDEV.S(CH4:CH21)</f>
         <v>2.6775116790742791E-3</v>
       </c>
       <c r="CJ24">
-        <f t="shared" ref="CJ24:EU24" si="704">_xlfn.STDEV.S(CJ4:CJ21)</f>
+        <f t="shared" ref="CJ24" si="704">_xlfn.STDEV.S(CJ4:CJ21)</f>
         <v>1.5378322248393703E-3</v>
       </c>
       <c r="CL24">
-        <f t="shared" ref="CL24:EW24" si="705">_xlfn.STDEV.S(CL4:CL21)</f>
+        <f t="shared" ref="CL24" si="705">_xlfn.STDEV.S(CL4:CL21)</f>
         <v>1.765871948772451E-3</v>
       </c>
       <c r="CN24">
-        <f t="shared" ref="CN24:EY24" si="706">_xlfn.STDEV.S(CN4:CN21)</f>
+        <f t="shared" ref="CN24" si="706">_xlfn.STDEV.S(CN4:CN21)</f>
         <v>1.2931017534561567E-3</v>
       </c>
       <c r="CP24">
-        <f t="shared" ref="CP24:FA24" si="707">_xlfn.STDEV.S(CP4:CP21)</f>
+        <f t="shared" ref="CP24" si="707">_xlfn.STDEV.S(CP4:CP21)</f>
         <v>1.0466454273986366E-3</v>
       </c>
       <c r="CR24">
-        <f t="shared" ref="CR24:FC24" si="708">_xlfn.STDEV.S(CR4:CR21)</f>
+        <f t="shared" ref="CR24" si="708">_xlfn.STDEV.S(CR4:CR21)</f>
         <v>1.6174417698558436E-3</v>
       </c>
       <c r="CT24">
-        <f t="shared" ref="CT24:FE24" si="709">_xlfn.STDEV.S(CT4:CT21)</f>
+        <f t="shared" ref="CT24" si="709">_xlfn.STDEV.S(CT4:CT21)</f>
         <v>1.1554715656817188E-3</v>
       </c>
       <c r="CV24">
-        <f t="shared" ref="CV24:FG24" si="710">_xlfn.STDEV.S(CV4:CV21)</f>
+        <f t="shared" ref="CV24" si="710">_xlfn.STDEV.S(CV4:CV21)</f>
         <v>2.6181696697217187E-3</v>
       </c>
       <c r="CX24">
-        <f t="shared" ref="CX24:FI24" si="711">_xlfn.STDEV.S(CX4:CX21)</f>
+        <f t="shared" ref="CX24" si="711">_xlfn.STDEV.S(CX4:CX21)</f>
         <v>1.4372909392094883E-3</v>
       </c>
       <c r="CZ24">
-        <f t="shared" ref="CZ24:FK24" si="712">_xlfn.STDEV.S(CZ4:CZ21)</f>
+        <f t="shared" ref="CZ24" si="712">_xlfn.STDEV.S(CZ4:CZ21)</f>
         <v>1.0942046313199378E-3</v>
       </c>
       <c r="DB24">
-        <f t="shared" ref="DB24:FM24" si="713">_xlfn.STDEV.S(DB4:DB21)</f>
+        <f t="shared" ref="DB24" si="713">_xlfn.STDEV.S(DB4:DB21)</f>
         <v>1.3869463139744896E-3</v>
       </c>
       <c r="DD24">
-        <f t="shared" ref="DD24:FO24" si="714">_xlfn.STDEV.S(DD4:DD21)</f>
+        <f t="shared" ref="DD24" si="714">_xlfn.STDEV.S(DD4:DD21)</f>
         <v>1.3079482463702068E-3</v>
       </c>
       <c r="DF24">
-        <f t="shared" ref="DF24:FQ24" si="715">_xlfn.STDEV.S(DF4:DF21)</f>
+        <f t="shared" ref="DF24" si="715">_xlfn.STDEV.S(DF4:DF21)</f>
         <v>1.3471244120114268E-3</v>
       </c>
       <c r="DH24">
-        <f t="shared" ref="DH24:FS24" si="716">_xlfn.STDEV.S(DH4:DH21)</f>
+        <f t="shared" ref="DH24" si="716">_xlfn.STDEV.S(DH4:DH21)</f>
         <v>1.7536233165351459E-3</v>
       </c>
       <c r="DJ24">
-        <f t="shared" ref="DJ24:FU24" si="717">_xlfn.STDEV.S(DJ4:DJ21)</f>
+        <f t="shared" ref="DJ24" si="717">_xlfn.STDEV.S(DJ4:DJ21)</f>
         <v>2.0267578304708263E-3</v>
       </c>
       <c r="DL24">
-        <f t="shared" ref="DL24:FW24" si="718">_xlfn.STDEV.S(DL4:DL21)</f>
+        <f t="shared" ref="DL24" si="718">_xlfn.STDEV.S(DL4:DL21)</f>
         <v>1.6776466015564538E-3</v>
       </c>
       <c r="DN24">
-        <f t="shared" ref="DN24:FY24" si="719">_xlfn.STDEV.S(DN4:DN21)</f>
+        <f t="shared" ref="DN24" si="719">_xlfn.STDEV.S(DN4:DN21)</f>
         <v>1.9066176442089809E-3</v>
       </c>
       <c r="DP24">
-        <f t="shared" ref="DP24:GA24" si="720">_xlfn.STDEV.S(DP4:DP21)</f>
+        <f t="shared" ref="DP24" si="720">_xlfn.STDEV.S(DP4:DP21)</f>
         <v>1.0139768655866854E-3</v>
       </c>
       <c r="DR24">
-        <f t="shared" ref="DR24:GC24" si="721">_xlfn.STDEV.S(DR4:DR21)</f>
+        <f t="shared" ref="DR24" si="721">_xlfn.STDEV.S(DR4:DR21)</f>
         <v>1.1321911745749973E-3</v>
       </c>
       <c r="DT24">
-        <f t="shared" ref="DT24:GE24" si="722">_xlfn.STDEV.S(DT4:DT21)</f>
+        <f t="shared" ref="DT24" si="722">_xlfn.STDEV.S(DT4:DT21)</f>
         <v>1.2747796190146433E-3</v>
       </c>
       <c r="DV24">
-        <f t="shared" ref="DV24:GG24" si="723">_xlfn.STDEV.S(DV4:DV21)</f>
+        <f t="shared" ref="DV24" si="723">_xlfn.STDEV.S(DV4:DV21)</f>
         <v>1.2396482509953177E-3</v>
       </c>
       <c r="DX24">
-        <f t="shared" ref="DX24:GI24" si="724">_xlfn.STDEV.S(DX4:DX21)</f>
+        <f t="shared" ref="DX24" si="724">_xlfn.STDEV.S(DX4:DX21)</f>
         <v>1.258830689417431E-3</v>
       </c>
       <c r="DZ24">
-        <f t="shared" ref="DZ24:GK24" si="725">_xlfn.STDEV.S(DZ4:DZ21)</f>
+        <f t="shared" ref="DZ24" si="725">_xlfn.STDEV.S(DZ4:DZ21)</f>
         <v>1.2942511832656138E-3</v>
       </c>
       <c r="EB24">
-        <f t="shared" ref="EB24:GM24" si="726">_xlfn.STDEV.S(EB4:EB21)</f>
+        <f t="shared" ref="EB24" si="726">_xlfn.STDEV.S(EB4:EB21)</f>
         <v>1.2221408720386219E-3</v>
       </c>
       <c r="ED24">
-        <f t="shared" ref="ED24:GO24" si="727">_xlfn.STDEV.S(ED4:ED21)</f>
+        <f t="shared" ref="ED24" si="727">_xlfn.STDEV.S(ED4:ED21)</f>
         <v>1.4334417245301509E-3</v>
       </c>
       <c r="EF24">
-        <f t="shared" ref="EF24:GQ24" si="728">_xlfn.STDEV.S(EF4:EF21)</f>
+        <f t="shared" ref="EF24" si="728">_xlfn.STDEV.S(EF4:EF21)</f>
         <v>1.0518232157584087E-3</v>
       </c>
       <c r="EH24">
-        <f t="shared" ref="EH24:GS24" si="729">_xlfn.STDEV.S(EH4:EH21)</f>
+        <f t="shared" ref="EH24" si="729">_xlfn.STDEV.S(EH4:EH21)</f>
         <v>1.1345637499875303E-3</v>
       </c>
       <c r="EJ24">
-        <f t="shared" ref="EJ24:GU24" si="730">_xlfn.STDEV.S(EJ4:EJ21)</f>
+        <f t="shared" ref="EJ24" si="730">_xlfn.STDEV.S(EJ4:EJ21)</f>
         <v>1.2202588981913454E-3</v>
       </c>
       <c r="EL24">
-        <f t="shared" ref="EL24:GW24" si="731">_xlfn.STDEV.S(EL4:EL21)</f>
+        <f t="shared" ref="EL24" si="731">_xlfn.STDEV.S(EL4:EL21)</f>
         <v>1.0918076950557291E-3</v>
       </c>
       <c r="EN24">
-        <f t="shared" ref="EN24:GY24" si="732">_xlfn.STDEV.S(EN4:EN21)</f>
+        <f t="shared" ref="EN24" si="732">_xlfn.STDEV.S(EN4:EN21)</f>
         <v>1.1804042508424524E-3</v>
       </c>
       <c r="EP24">
-        <f t="shared" ref="EP24:HA24" si="733">_xlfn.STDEV.S(EP4:EP21)</f>
+        <f t="shared" ref="EP24" si="733">_xlfn.STDEV.S(EP4:EP21)</f>
         <v>1.1446804096326914E-3</v>
       </c>
       <c r="ER24">
-        <f t="shared" ref="ER24:HC24" si="734">_xlfn.STDEV.S(ER4:ER21)</f>
+        <f t="shared" ref="ER24" si="734">_xlfn.STDEV.S(ER4:ER21)</f>
         <v>1.0525677595117433E-3</v>
       </c>
       <c r="ET24">
-        <f t="shared" ref="ET24:HE24" si="735">_xlfn.STDEV.S(ET4:ET21)</f>
+        <f t="shared" ref="ET24" si="735">_xlfn.STDEV.S(ET4:ET21)</f>
         <v>1.1682847767386763E-3</v>
       </c>
       <c r="EV24">
-        <f t="shared" ref="EV24:HG24" si="736">_xlfn.STDEV.S(EV4:EV21)</f>
+        <f t="shared" ref="EV24" si="736">_xlfn.STDEV.S(EV4:EV21)</f>
         <v>8.9362309686816634E-4</v>
       </c>
       <c r="EX24">
-        <f t="shared" ref="EX24:HI24" si="737">_xlfn.STDEV.S(EX4:EX21)</f>
+        <f t="shared" ref="EX24" si="737">_xlfn.STDEV.S(EX4:EX21)</f>
         <v>8.1720351063150015E-4</v>
       </c>
       <c r="EZ24">
-        <f t="shared" ref="EZ24:HK24" si="738">_xlfn.STDEV.S(EZ4:EZ21)</f>
+        <f t="shared" ref="EZ24" si="738">_xlfn.STDEV.S(EZ4:EZ21)</f>
         <v>1.301870970520786E-3</v>
       </c>
       <c r="FB24">
-        <f t="shared" ref="FB24:HM24" si="739">_xlfn.STDEV.S(FB4:FB21)</f>
+        <f t="shared" ref="FB24" si="739">_xlfn.STDEV.S(FB4:FB21)</f>
         <v>1.5521726514823087E-3</v>
       </c>
       <c r="FD24">
-        <f t="shared" ref="FD24:HO24" si="740">_xlfn.STDEV.S(FD4:FD21)</f>
+        <f t="shared" ref="FD24" si="740">_xlfn.STDEV.S(FD4:FD21)</f>
         <v>8.5143852683657864E-4</v>
       </c>
       <c r="FF24">
-        <f t="shared" ref="FF24:HQ24" si="741">_xlfn.STDEV.S(FF4:FF21)</f>
+        <f t="shared" ref="FF24" si="741">_xlfn.STDEV.S(FF4:FF21)</f>
         <v>1.2981193945675619E-3</v>
       </c>
       <c r="FH24">
-        <f t="shared" ref="FH24:HS24" si="742">_xlfn.STDEV.S(FH4:FH21)</f>
+        <f t="shared" ref="FH24" si="742">_xlfn.STDEV.S(FH4:FH21)</f>
         <v>1.1294252544463406E-3</v>
       </c>
       <c r="FJ24">
-        <f t="shared" ref="FJ24:HU24" si="743">_xlfn.STDEV.S(FJ4:FJ21)</f>
+        <f t="shared" ref="FJ24" si="743">_xlfn.STDEV.S(FJ4:FJ21)</f>
         <v>1.4893562604934042E-3</v>
       </c>
       <c r="FL24">
-        <f t="shared" ref="FL24:HW24" si="744">_xlfn.STDEV.S(FL4:FL21)</f>
+        <f t="shared" ref="FL24" si="744">_xlfn.STDEV.S(FL4:FL21)</f>
         <v>1.9484092995386956E-3</v>
       </c>
       <c r="FN24">
-        <f t="shared" ref="FN24:HY24" si="745">_xlfn.STDEV.S(FN4:FN21)</f>
+        <f t="shared" ref="FN24" si="745">_xlfn.STDEV.S(FN4:FN21)</f>
         <v>1.2583514913091453E-3</v>
       </c>
       <c r="FP24">
-        <f t="shared" ref="FP24:IA24" si="746">_xlfn.STDEV.S(FP4:FP21)</f>
+        <f t="shared" ref="FP24" si="746">_xlfn.STDEV.S(FP4:FP21)</f>
         <v>7.2875561254213592E-4</v>
       </c>
       <c r="FR24">
-        <f t="shared" ref="FR24:IC24" si="747">_xlfn.STDEV.S(FR4:FR21)</f>
+        <f t="shared" ref="FR24" si="747">_xlfn.STDEV.S(FR4:FR21)</f>
         <v>1.0367997215767841E-3</v>
       </c>
       <c r="FT24">
-        <f t="shared" ref="FT24:IE24" si="748">_xlfn.STDEV.S(FT4:FT21)</f>
+        <f t="shared" ref="FT24" si="748">_xlfn.STDEV.S(FT4:FT21)</f>
         <v>1.2810362263382896E-3</v>
       </c>
       <c r="FV24">
-        <f t="shared" ref="FV24:IG24" si="749">_xlfn.STDEV.S(FV4:FV21)</f>
+        <f t="shared" ref="FV24" si="749">_xlfn.STDEV.S(FV4:FV21)</f>
         <v>1.3296635132568331E-3</v>
       </c>
       <c r="FX24">
-        <f t="shared" ref="FX24:II24" si="750">_xlfn.STDEV.S(FX4:FX21)</f>
+        <f t="shared" ref="FX24" si="750">_xlfn.STDEV.S(FX4:FX21)</f>
         <v>8.766410498174703E-4</v>
       </c>
       <c r="FZ24">
-        <f t="shared" ref="FZ24:IK24" si="751">_xlfn.STDEV.S(FZ4:FZ21)</f>
+        <f t="shared" ref="FZ24" si="751">_xlfn.STDEV.S(FZ4:FZ21)</f>
         <v>8.2507954832257402E-4</v>
       </c>
       <c r="GB24">
-        <f t="shared" ref="GB24:IM24" si="752">_xlfn.STDEV.S(GB4:GB21)</f>
+        <f t="shared" ref="GB24" si="752">_xlfn.STDEV.S(GB4:GB21)</f>
         <v>1.1950824238491011E-3</v>
       </c>
       <c r="GD24">
-        <f t="shared" ref="GD24:IO24" si="753">_xlfn.STDEV.S(GD4:GD21)</f>
+        <f t="shared" ref="GD24" si="753">_xlfn.STDEV.S(GD4:GD21)</f>
         <v>9.6398537709201397E-4</v>
       </c>
       <c r="GF24">
-        <f t="shared" ref="GF24:IQ24" si="754">_xlfn.STDEV.S(GF4:GF21)</f>
+        <f t="shared" ref="GF24" si="754">_xlfn.STDEV.S(GF4:GF21)</f>
         <v>1.1182692263568676E-3</v>
       </c>
       <c r="GH24">
-        <f t="shared" ref="GH24:IS24" si="755">_xlfn.STDEV.S(GH4:GH21)</f>
+        <f t="shared" ref="GH24" si="755">_xlfn.STDEV.S(GH4:GH21)</f>
         <v>1.2858293517749549E-3</v>
       </c>
       <c r="GJ24">
-        <f t="shared" ref="GJ24:IU24" si="756">_xlfn.STDEV.S(GJ4:GJ21)</f>
+        <f t="shared" ref="GJ24" si="756">_xlfn.STDEV.S(GJ4:GJ21)</f>
         <v>1.4922712080417825E-3</v>
       </c>
       <c r="GL24">
-        <f t="shared" ref="GL24:IW24" si="757">_xlfn.STDEV.S(GL4:GL21)</f>
+        <f t="shared" ref="GL24" si="757">_xlfn.STDEV.S(GL4:GL21)</f>
         <v>9.2862701983652295E-4</v>
       </c>
       <c r="GN24">
-        <f t="shared" ref="GN24:IY24" si="758">_xlfn.STDEV.S(GN4:GN21)</f>
+        <f t="shared" ref="GN24" si="758">_xlfn.STDEV.S(GN4:GN21)</f>
         <v>8.864744042121871E-4</v>
       </c>
       <c r="GP24">
-        <f t="shared" ref="GP24:JA24" si="759">_xlfn.STDEV.S(GP4:GP21)</f>
+        <f t="shared" ref="GP24" si="759">_xlfn.STDEV.S(GP4:GP21)</f>
         <v>1.0699715737012402E-3</v>
       </c>
       <c r="GR24">
-        <f t="shared" ref="GR24:JC24" si="760">_xlfn.STDEV.S(GR4:GR21)</f>
+        <f t="shared" ref="GR24" si="760">_xlfn.STDEV.S(GR4:GR21)</f>
         <v>1.3011986364649039E-3</v>
       </c>
       <c r="GT24">
-        <f t="shared" ref="GT24:JE24" si="761">_xlfn.STDEV.S(GT4:GT21)</f>
+        <f t="shared" ref="GT24" si="761">_xlfn.STDEV.S(GT4:GT21)</f>
         <v>2.9190879321185914E-3</v>
       </c>
       <c r="GV24">
-        <f t="shared" ref="GV24:JG24" si="762">_xlfn.STDEV.S(GV4:GV21)</f>
+        <f t="shared" ref="GV24" si="762">_xlfn.STDEV.S(GV4:GV21)</f>
         <v>1.4007184554440137E-3</v>
       </c>
       <c r="GX24">
-        <f t="shared" ref="GX24:JI24" si="763">_xlfn.STDEV.S(GX4:GX21)</f>
+        <f t="shared" ref="GX24" si="763">_xlfn.STDEV.S(GX4:GX21)</f>
         <v>1.0113433511981258E-3</v>
       </c>
       <c r="GZ24">
-        <f t="shared" ref="GZ24:JK24" si="764">_xlfn.STDEV.S(GZ4:GZ21)</f>
+        <f t="shared" ref="GZ24" si="764">_xlfn.STDEV.S(GZ4:GZ21)</f>
         <v>7.9497271245422172E-4</v>
       </c>
       <c r="HB24">
-        <f t="shared" ref="HB24:JM24" si="765">_xlfn.STDEV.S(HB4:HB21)</f>
+        <f t="shared" ref="HB24" si="765">_xlfn.STDEV.S(HB4:HB21)</f>
         <v>8.7714879334632203E-4</v>
       </c>
       <c r="HD24">
-        <f t="shared" ref="HD24:JO24" si="766">_xlfn.STDEV.S(HD4:HD21)</f>
+        <f t="shared" ref="HD24" si="766">_xlfn.STDEV.S(HD4:HD21)</f>
         <v>5.9762971971737675E-4</v>
       </c>
       <c r="HF24">
-        <f t="shared" ref="HF24:JQ24" si="767">_xlfn.STDEV.S(HF4:HF21)</f>
+        <f t="shared" ref="HF24" si="767">_xlfn.STDEV.S(HF4:HF21)</f>
         <v>7.682910859083998E-4</v>
       </c>
       <c r="HH24">
-        <f t="shared" ref="HH24:JS24" si="768">_xlfn.STDEV.S(HH4:HH21)</f>
+        <f t="shared" ref="HH24" si="768">_xlfn.STDEV.S(HH4:HH21)</f>
         <v>8.2889531933600432E-4</v>
       </c>
       <c r="HJ24">
-        <f t="shared" ref="HJ24:JU24" si="769">_xlfn.STDEV.S(HJ4:HJ21)</f>
+        <f t="shared" ref="HJ24" si="769">_xlfn.STDEV.S(HJ4:HJ21)</f>
         <v>7.6628665410825034E-4</v>
       </c>
       <c r="HL24">
-        <f t="shared" ref="HL24:JW24" si="770">_xlfn.STDEV.S(HL4:HL21)</f>
+        <f t="shared" ref="HL24" si="770">_xlfn.STDEV.S(HL4:HL21)</f>
         <v>3.0840063318349855E-3</v>
       </c>
       <c r="HN24">
-        <f t="shared" ref="HN24:JY24" si="771">_xlfn.STDEV.S(HN4:HN21)</f>
+        <f t="shared" ref="HN24" si="771">_xlfn.STDEV.S(HN4:HN21)</f>
         <v>7.9291151747562093E-4</v>
       </c>
       <c r="HP24">
-        <f t="shared" ref="HP24:KA24" si="772">_xlfn.STDEV.S(HP4:HP21)</f>
+        <f t="shared" ref="HP24" si="772">_xlfn.STDEV.S(HP4:HP21)</f>
         <v>6.2117118607719912E-4</v>
       </c>
       <c r="HR24">
-        <f t="shared" ref="HR24:KC24" si="773">_xlfn.STDEV.S(HR4:HR21)</f>
+        <f t="shared" ref="HR24" si="773">_xlfn.STDEV.S(HR4:HR21)</f>
         <v>6.1843028189482833E-4</v>
       </c>
       <c r="HT24">
-        <f t="shared" ref="HT24:KE24" si="774">_xlfn.STDEV.S(HT4:HT21)</f>
+        <f t="shared" ref="HT24" si="774">_xlfn.STDEV.S(HT4:HT21)</f>
         <v>9.2425534875657908E-4</v>
       </c>
       <c r="HV24">
-        <f t="shared" ref="HV24:KG24" si="775">_xlfn.STDEV.S(HV4:HV21)</f>
+        <f t="shared" ref="HV24" si="775">_xlfn.STDEV.S(HV4:HV21)</f>
         <v>7.2296706461177842E-4</v>
       </c>
       <c r="HX24">
-        <f t="shared" ref="HX24:KI24" si="776">_xlfn.STDEV.S(HX4:HX21)</f>
+        <f t="shared" ref="HX24" si="776">_xlfn.STDEV.S(HX4:HX21)</f>
         <v>1.3357817340472467E-3</v>
       </c>
       <c r="HZ24">
-        <f t="shared" ref="HZ24:KK24" si="777">_xlfn.STDEV.S(HZ4:HZ21)</f>
+        <f t="shared" ref="HZ24" si="777">_xlfn.STDEV.S(HZ4:HZ21)</f>
         <v>7.8282153419006551E-4</v>
       </c>
       <c r="IB24">
-        <f t="shared" ref="IB24:KM24" si="778">_xlfn.STDEV.S(IB4:IB21)</f>
+        <f t="shared" ref="IB24" si="778">_xlfn.STDEV.S(IB4:IB21)</f>
         <v>8.1000984486685225E-4</v>
       </c>
       <c r="ID24">
-        <f t="shared" ref="ID24:KO24" si="779">_xlfn.STDEV.S(ID4:ID21)</f>
+        <f t="shared" ref="ID24" si="779">_xlfn.STDEV.S(ID4:ID21)</f>
         <v>7.3567259758422249E-4</v>
       </c>
       <c r="IF24">
-        <f t="shared" ref="IF24:KQ24" si="780">_xlfn.STDEV.S(IF4:IF21)</f>
+        <f t="shared" ref="IF24" si="780">_xlfn.STDEV.S(IF4:IF21)</f>
         <v>1.0402995121474271E-3</v>
       </c>
       <c r="IH24">
-        <f t="shared" ref="IH24:KS24" si="781">_xlfn.STDEV.S(IH4:IH21)</f>
+        <f t="shared" ref="IH24" si="781">_xlfn.STDEV.S(IH4:IH21)</f>
         <v>7.0443766880076708E-4</v>
       </c>
       <c r="IJ24">
-        <f t="shared" ref="IJ24:KU24" si="782">_xlfn.STDEV.S(IJ4:IJ21)</f>
+        <f t="shared" ref="IJ24" si="782">_xlfn.STDEV.S(IJ4:IJ21)</f>
         <v>7.4183546017792424E-4</v>
       </c>
       <c r="IL24">
-        <f t="shared" ref="IL24:KW24" si="783">_xlfn.STDEV.S(IL4:IL21)</f>
+        <f t="shared" ref="IL24" si="783">_xlfn.STDEV.S(IL4:IL21)</f>
         <v>5.5921974456237314E-4</v>
       </c>
       <c r="IN24">
-        <f t="shared" ref="IN24:KY24" si="784">_xlfn.STDEV.S(IN4:IN21)</f>
+        <f t="shared" ref="IN24" si="784">_xlfn.STDEV.S(IN4:IN21)</f>
         <v>8.8271619689163524E-4</v>
       </c>
       <c r="IP24">
-        <f t="shared" ref="IP24:LA24" si="785">_xlfn.STDEV.S(IP4:IP21)</f>
+        <f t="shared" ref="IP24" si="785">_xlfn.STDEV.S(IP4:IP21)</f>
         <v>7.5691677210404905E-4</v>
       </c>
       <c r="IR24">
-        <f t="shared" ref="IR24:LC24" si="786">_xlfn.STDEV.S(IR4:IR21)</f>
+        <f t="shared" ref="IR24" si="786">_xlfn.STDEV.S(IR4:IR21)</f>
         <v>6.2800605839572691E-4</v>
       </c>
       <c r="IT24">
-        <f t="shared" ref="IT24:LE24" si="787">_xlfn.STDEV.S(IT4:IT21)</f>
+        <f t="shared" ref="IT24" si="787">_xlfn.STDEV.S(IT4:IT21)</f>
         <v>6.1687232509083454E-4</v>
       </c>
       <c r="IV24">
-        <f t="shared" ref="IV24:LG24" si="788">_xlfn.STDEV.S(IV4:IV21)</f>
+        <f t="shared" ref="IV24" si="788">_xlfn.STDEV.S(IV4:IV21)</f>
         <v>7.5017439202625439E-4</v>
       </c>
       <c r="IX24">
-        <f t="shared" ref="IX24:LI24" si="789">_xlfn.STDEV.S(IX4:IX21)</f>
+        <f t="shared" ref="IX24" si="789">_xlfn.STDEV.S(IX4:IX21)</f>
         <v>3.4259049476092342E-3</v>
       </c>
       <c r="IZ24">
-        <f t="shared" ref="IZ24:LK24" si="790">_xlfn.STDEV.S(IZ4:IZ21)</f>
+        <f t="shared" ref="IZ24" si="790">_xlfn.STDEV.S(IZ4:IZ21)</f>
         <v>6.9281852527501315E-4</v>
       </c>
       <c r="JB24">
-        <f t="shared" ref="JB24:LM24" si="791">_xlfn.STDEV.S(JB4:JB21)</f>
+        <f t="shared" ref="JB24" si="791">_xlfn.STDEV.S(JB4:JB21)</f>
         <v>8.0544794019856336E-4</v>
       </c>
       <c r="JD24">
-        <f t="shared" ref="JD24:LO24" si="792">_xlfn.STDEV.S(JD4:JD21)</f>
+        <f t="shared" ref="JD24" si="792">_xlfn.STDEV.S(JD4:JD21)</f>
         <v>5.6488774078989744E-4</v>
       </c>
       <c r="JF24">
-        <f t="shared" ref="JF24:LQ24" si="793">_xlfn.STDEV.S(JF4:JF21)</f>
+        <f t="shared" ref="JF24" si="793">_xlfn.STDEV.S(JF4:JF21)</f>
         <v>6.1573869327370212E-4</v>
       </c>
       <c r="JH24">
-        <f t="shared" ref="JH24:LS24" si="794">_xlfn.STDEV.S(JH4:JH21)</f>
+        <f t="shared" ref="JH24" si="794">_xlfn.STDEV.S(JH4:JH21)</f>
         <v>5.6506140538371255E-4</v>
       </c>
       <c r="JJ24">
-        <f t="shared" ref="JJ24:LU24" si="795">_xlfn.STDEV.S(JJ4:JJ21)</f>
+        <f t="shared" ref="JJ24" si="795">_xlfn.STDEV.S(JJ4:JJ21)</f>
         <v>1.0525229681866333E-3</v>
       </c>
       <c r="JL24">
-        <f t="shared" ref="JL24:LW24" si="796">_xlfn.STDEV.S(JL4:JL21)</f>
+        <f t="shared" ref="JL24" si="796">_xlfn.STDEV.S(JL4:JL21)</f>
         <v>7.56790519236919E-4</v>
       </c>
       <c r="JN24">
-        <f t="shared" ref="JN24:LY24" si="797">_xlfn.STDEV.S(JN4:JN21)</f>
+        <f t="shared" ref="JN24" si="797">_xlfn.STDEV.S(JN4:JN21)</f>
         <v>6.7318868752605054E-4</v>
       </c>
       <c r="JP24">
-        <f t="shared" ref="JP24:MA24" si="798">_xlfn.STDEV.S(JP4:JP21)</f>
+        <f t="shared" ref="JP24" si="798">_xlfn.STDEV.S(JP4:JP21)</f>
         <v>2.7179439159088835E-3</v>
       </c>
       <c r="JR24">
-        <f t="shared" ref="JR24:MC24" si="799">_xlfn.STDEV.S(JR4:JR21)</f>
+        <f t="shared" ref="JR24" si="799">_xlfn.STDEV.S(JR4:JR21)</f>
         <v>1.0106148850175512E-3</v>
       </c>
       <c r="JT24">
-        <f t="shared" ref="JT24:ME24" si="800">_xlfn.STDEV.S(JT4:JT21)</f>
+        <f t="shared" ref="JT24" si="800">_xlfn.STDEV.S(JT4:JT21)</f>
         <v>6.2740612923343347E-4</v>
       </c>
       <c r="JV24">
-        <f t="shared" ref="JV24:MG24" si="801">_xlfn.STDEV.S(JV4:JV21)</f>
+        <f t="shared" ref="JV24" si="801">_xlfn.STDEV.S(JV4:JV21)</f>
         <v>7.7759757141303884E-4</v>
       </c>
       <c r="JX24">
-        <f t="shared" ref="JX24:MI24" si="802">_xlfn.STDEV.S(JX4:JX21)</f>
+        <f t="shared" ref="JX24" si="802">_xlfn.STDEV.S(JX4:JX21)</f>
         <v>1.2295025991375336E-3</v>
       </c>
       <c r="JZ24">
-        <f t="shared" ref="JZ24:MK24" si="803">_xlfn.STDEV.S(JZ4:JZ21)</f>
+        <f t="shared" ref="JZ24" si="803">_xlfn.STDEV.S(JZ4:JZ21)</f>
         <v>4.7498575205532658E-4</v>
       </c>
       <c r="KB24">
-        <f t="shared" ref="KB24:MM24" si="804">_xlfn.STDEV.S(KB4:KB21)</f>
+        <f t="shared" ref="KB24" si="804">_xlfn.STDEV.S(KB4:KB21)</f>
         <v>4.6045071858643254E-4</v>
       </c>
       <c r="KD24">
-        <f t="shared" ref="KD24:MO24" si="805">_xlfn.STDEV.S(KD4:KD21)</f>
+        <f t="shared" ref="KD24" si="805">_xlfn.STDEV.S(KD4:KD21)</f>
         <v>6.2746632057504755E-4</v>
       </c>
       <c r="KF24">
-        <f t="shared" ref="KF24:MQ24" si="806">_xlfn.STDEV.S(KF4:KF21)</f>
+        <f t="shared" ref="KF24" si="806">_xlfn.STDEV.S(KF4:KF21)</f>
         <v>1.2970051362181899E-3</v>
       </c>
       <c r="KH24">
-        <f t="shared" ref="KH24:MS24" si="807">_xlfn.STDEV.S(KH4:KH21)</f>
+        <f t="shared" ref="KH24" si="807">_xlfn.STDEV.S(KH4:KH21)</f>
         <v>7.5117290223137927E-4</v>
       </c>
       <c r="KJ24">
-        <f t="shared" ref="KJ24:MU24" si="808">_xlfn.STDEV.S(KJ4:KJ21)</f>
+        <f t="shared" ref="KJ24" si="808">_xlfn.STDEV.S(KJ4:KJ21)</f>
         <v>5.2303411731156218E-4</v>
       </c>
       <c r="KL24">
-        <f t="shared" ref="KL24:MW24" si="809">_xlfn.STDEV.S(KL4:KL21)</f>
+        <f t="shared" ref="KL24" si="809">_xlfn.STDEV.S(KL4:KL21)</f>
         <v>6.7425181300643643E-4</v>
       </c>
       <c r="KN24">
-        <f t="shared" ref="KN24:MY24" si="810">_xlfn.STDEV.S(KN4:KN21)</f>
+        <f t="shared" ref="KN24" si="810">_xlfn.STDEV.S(KN4:KN21)</f>
         <v>8.6293728623185986E-4</v>
       </c>
       <c r="KP24">
-        <f t="shared" ref="KP24:NA24" si="811">_xlfn.STDEV.S(KP4:KP21)</f>
+        <f t="shared" ref="KP24" si="811">_xlfn.STDEV.S(KP4:KP21)</f>
         <v>5.1423188844555777E-4</v>
       </c>
       <c r="KR24">
-        <f t="shared" ref="KR24:NC24" si="812">_xlfn.STDEV.S(KR4:KR21)</f>
+        <f t="shared" ref="KR24" si="812">_xlfn.STDEV.S(KR4:KR21)</f>
         <v>5.7102301079456157E-4</v>
       </c>
       <c r="KT24">
-        <f t="shared" ref="KT24:NE24" si="813">_xlfn.STDEV.S(KT4:KT21)</f>
+        <f t="shared" ref="KT24" si="813">_xlfn.STDEV.S(KT4:KT21)</f>
         <v>5.5215067523396559E-4</v>
       </c>
       <c r="KV24">
-        <f t="shared" ref="KV24:NG24" si="814">_xlfn.STDEV.S(KV4:KV21)</f>
+        <f t="shared" ref="KV24" si="814">_xlfn.STDEV.S(KV4:KV21)</f>
         <v>7.2835169441098045E-4</v>
       </c>
       <c r="KX24">
-        <f t="shared" ref="KX24:NI24" si="815">_xlfn.STDEV.S(KX4:KX21)</f>
+        <f t="shared" ref="KX24" si="815">_xlfn.STDEV.S(KX4:KX21)</f>
         <v>1.5767258822737018E-3</v>
       </c>
       <c r="KZ24">
-        <f t="shared" ref="KZ24:NK24" si="816">_xlfn.STDEV.S(KZ4:KZ21)</f>
+        <f t="shared" ref="KZ24" si="816">_xlfn.STDEV.S(KZ4:KZ21)</f>
         <v>7.6769893980596301E-4</v>
       </c>
       <c r="LB24">
-        <f t="shared" ref="LB24:NM24" si="817">_xlfn.STDEV.S(LB4:LB21)</f>
+        <f t="shared" ref="LB24" si="817">_xlfn.STDEV.S(LB4:LB21)</f>
         <v>7.4052339761644236E-4</v>
       </c>
       <c r="LD24">
-        <f t="shared" ref="LD24:NO24" si="818">_xlfn.STDEV.S(LD4:LD21)</f>
+        <f t="shared" ref="LD24" si="818">_xlfn.STDEV.S(LD4:LD21)</f>
         <v>8.3207123486091813E-4</v>
       </c>
       <c r="LF24">
-        <f t="shared" ref="LF24:NQ24" si="819">_xlfn.STDEV.S(LF4:LF21)</f>
+        <f t="shared" ref="LF24" si="819">_xlfn.STDEV.S(LF4:LF21)</f>
         <v>8.5616276854198346E-4</v>
       </c>
       <c r="LH24">
-        <f t="shared" ref="LH24:NS24" si="820">_xlfn.STDEV.S(LH4:LH21)</f>
+        <f t="shared" ref="LH24" si="820">_xlfn.STDEV.S(LH4:LH21)</f>
         <v>6.3260965387579174E-4</v>
       </c>
       <c r="LJ24">
-        <f t="shared" ref="LJ24:NU24" si="821">_xlfn.STDEV.S(LJ4:LJ21)</f>
+        <f t="shared" ref="LJ24" si="821">_xlfn.STDEV.S(LJ4:LJ21)</f>
         <v>8.226594993184284E-4</v>
       </c>
       <c r="LL24">
-        <f t="shared" ref="LL24:NW24" si="822">_xlfn.STDEV.S(LL4:LL21)</f>
+        <f t="shared" ref="LL24" si="822">_xlfn.STDEV.S(LL4:LL21)</f>
         <v>5.9612875126029271E-4</v>
       </c>
       <c r="LN24">
-        <f t="shared" ref="LN24:NY24" si="823">_xlfn.STDEV.S(LN4:LN21)</f>
+        <f t="shared" ref="LN24" si="823">_xlfn.STDEV.S(LN4:LN21)</f>
         <v>2.7327798306726421E-3</v>
       </c>
       <c r="LP24">
-        <f t="shared" ref="LP24:OA24" si="824">_xlfn.STDEV.S(LP4:LP21)</f>
+        <f t="shared" ref="LP24" si="824">_xlfn.STDEV.S(LP4:LP21)</f>
         <v>7.8652202285276059E-4</v>
       </c>
       <c r="LR24">
-        <f t="shared" ref="LR24:OC24" si="825">_xlfn.STDEV.S(LR4:LR21)</f>
+        <f t="shared" ref="LR24" si="825">_xlfn.STDEV.S(LR4:LR21)</f>
         <v>6.0516012519761322E-4</v>
       </c>
       <c r="LT24">
-        <f t="shared" ref="LT24:OE24" si="826">_xlfn.STDEV.S(LT4:LT21)</f>
+        <f t="shared" ref="LT24" si="826">_xlfn.STDEV.S(LT4:LT21)</f>
         <v>6.8159798672514163E-4</v>
       </c>
       <c r="LV24">
-        <f t="shared" ref="LV24:OG24" si="827">_xlfn.STDEV.S(LV4:LV21)</f>
+        <f t="shared" ref="LV24" si="827">_xlfn.STDEV.S(LV4:LV21)</f>
         <v>1.4299099080869045E-3</v>
       </c>
       <c r="LX24">
-        <f t="shared" ref="LX24:OI24" si="828">_xlfn.STDEV.S(LX4:LX21)</f>
+        <f t="shared" ref="LX24" si="828">_xlfn.STDEV.S(LX4:LX21)</f>
         <v>7.2325665854876275E-4</v>
       </c>
       <c r="LZ24">
-        <f t="shared" ref="LZ24:OK24" si="829">_xlfn.STDEV.S(LZ4:LZ21)</f>
+        <f t="shared" ref="LZ24" si="829">_xlfn.STDEV.S(LZ4:LZ21)</f>
         <v>9.683183710395575E-4</v>
       </c>
       <c r="MB24">
-        <f t="shared" ref="MB24:OM24" si="830">_xlfn.STDEV.S(MB4:MB21)</f>
+        <f t="shared" ref="MB24" si="830">_xlfn.STDEV.S(MB4:MB21)</f>
         <v>6.8195476092064433E-4</v>
       </c>
       <c r="MD24">
-        <f t="shared" ref="MD24:OO24" si="831">_xlfn.STDEV.S(MD4:MD21)</f>
+        <f t="shared" ref="MD24" si="831">_xlfn.STDEV.S(MD4:MD21)</f>
         <v>5.5827245235096187E-4</v>
       </c>
       <c r="MF24">
-        <f t="shared" ref="MF24:OQ24" si="832">_xlfn.STDEV.S(MF4:MF21)</f>
+        <f t="shared" ref="MF24" si="832">_xlfn.STDEV.S(MF4:MF21)</f>
         <v>5.2329008988238022E-4</v>
       </c>
       <c r="MH24">
-        <f t="shared" ref="MH24:OS24" si="833">_xlfn.STDEV.S(MH4:MH21)</f>
+        <f t="shared" ref="MH24" si="833">_xlfn.STDEV.S(MH4:MH21)</f>
         <v>4.3951958395861516E-4</v>
       </c>
       <c r="MJ24">
-        <f t="shared" ref="MJ24:OU24" si="834">_xlfn.STDEV.S(MJ4:MJ21)</f>
+        <f t="shared" ref="MJ24" si="834">_xlfn.STDEV.S(MJ4:MJ21)</f>
         <v>5.3685113496749505E-4</v>
       </c>
       <c r="ML24">
-        <f t="shared" ref="ML24:OW24" si="835">_xlfn.STDEV.S(ML4:ML21)</f>
+        <f t="shared" ref="ML24" si="835">_xlfn.STDEV.S(ML4:ML21)</f>
         <v>3.9050278347180526E-4</v>
       </c>
       <c r="MN24">
-        <f t="shared" ref="MN24:OY24" si="836">_xlfn.STDEV.S(MN4:MN21)</f>
+        <f t="shared" ref="MN24" si="836">_xlfn.STDEV.S(MN4:MN21)</f>
         <v>7.9411624156551833E-4</v>
       </c>
       <c r="MP24">
-        <f t="shared" ref="MP24:PA24" si="837">_xlfn.STDEV.S(MP4:MP21)</f>
+        <f t="shared" ref="MP24" si="837">_xlfn.STDEV.S(MP4:MP21)</f>
         <v>7.2135497473701268E-4</v>
       </c>
       <c r="MR24">
-        <f t="shared" ref="MR24:PC24" si="838">_xlfn.STDEV.S(MR4:MR21)</f>
+        <f t="shared" ref="MR24" si="838">_xlfn.STDEV.S(MR4:MR21)</f>
         <v>9.4865099117620187E-4</v>
       </c>
       <c r="MT24">
-        <f t="shared" ref="MT24:PE24" si="839">_xlfn.STDEV.S(MT4:MT21)</f>
+        <f t="shared" ref="MT24" si="839">_xlfn.STDEV.S(MT4:MT21)</f>
         <v>5.1684216195425751E-4</v>
       </c>
       <c r="MV24">
-        <f t="shared" ref="MV24:PG24" si="840">_xlfn.STDEV.S(MV4:MV21)</f>
+        <f t="shared" ref="MV24" si="840">_xlfn.STDEV.S(MV4:MV21)</f>
         <v>7.3953345962851906E-4</v>
       </c>
       <c r="MX24">
-        <f t="shared" ref="MX24:PI24" si="841">_xlfn.STDEV.S(MX4:MX21)</f>
+        <f t="shared" ref="MX24" si="841">_xlfn.STDEV.S(MX4:MX21)</f>
         <v>6.933954613579568E-4</v>
       </c>
       <c r="MZ24">
-        <f t="shared" ref="MZ24:PK24" si="842">_xlfn.STDEV.S(MZ4:MZ21)</f>
+        <f t="shared" ref="MZ24" si="842">_xlfn.STDEV.S(MZ4:MZ21)</f>
         <v>5.3818000778883552E-4</v>
       </c>
       <c r="NB24">
-        <f t="shared" ref="NB24:PM24" si="843">_xlfn.STDEV.S(NB4:NB21)</f>
+        <f t="shared" ref="NB24" si="843">_xlfn.STDEV.S(NB4:NB21)</f>
         <v>6.0637292214470791E-4</v>
       </c>
       <c r="ND24">
-        <f t="shared" ref="ND24:PO24" si="844">_xlfn.STDEV.S(ND4:ND21)</f>
+        <f t="shared" ref="ND24" si="844">_xlfn.STDEV.S(ND4:ND21)</f>
         <v>1.4688667962058785E-3</v>
       </c>
       <c r="NF24">
-        <f t="shared" ref="NF24:PQ24" si="845">_xlfn.STDEV.S(NF4:NF21)</f>
+        <f t="shared" ref="NF24" si="845">_xlfn.STDEV.S(NF4:NF21)</f>
         <v>1.2713650696951366E-3</v>
       </c>
       <c r="NH24">
-        <f t="shared" ref="NH24:PS24" si="846">_xlfn.STDEV.S(NH4:NH21)</f>
+        <f t="shared" ref="NH24" si="846">_xlfn.STDEV.S(NH4:NH21)</f>
         <v>7.4697460237636555E-4</v>
       </c>
       <c r="NJ24">
-        <f t="shared" ref="NJ24:PU24" si="847">_xlfn.STDEV.S(NJ4:NJ21)</f>
+        <f t="shared" ref="NJ24" si="847">_xlfn.STDEV.S(NJ4:NJ21)</f>
         <v>9.6500384410819835E-4</v>
       </c>
       <c r="NL24">
-        <f t="shared" ref="NL24:PW24" si="848">_xlfn.STDEV.S(NL4:NL21)</f>
+        <f t="shared" ref="NL24" si="848">_xlfn.STDEV.S(NL4:NL21)</f>
         <v>5.4026617430443956E-4</v>
       </c>
       <c r="NN24">
-        <f t="shared" ref="NN24:PY24" si="849">_xlfn.STDEV.S(NN4:NN21)</f>
+        <f t="shared" ref="NN24" si="849">_xlfn.STDEV.S(NN4:NN21)</f>
         <v>9.4863099007465573E-4</v>
       </c>
       <c r="NP24">
-        <f t="shared" ref="NP24:QA24" si="850">_xlfn.STDEV.S(NP4:NP21)</f>
+        <f t="shared" ref="NP24" si="850">_xlfn.STDEV.S(NP4:NP21)</f>
         <v>6.7387891189350433E-4</v>
       </c>
       <c r="NR24">
-        <f t="shared" ref="NR24:QC24" si="851">_xlfn.STDEV.S(NR4:NR21)</f>
+        <f t="shared" ref="NR24" si="851">_xlfn.STDEV.S(NR4:NR21)</f>
         <v>6.3342615694604728E-4</v>
       </c>
       <c r="NT24">
-        <f t="shared" ref="NT24:QE24" si="852">_xlfn.STDEV.S(NT4:NT21)</f>
+        <f t="shared" ref="NT24" si="852">_xlfn.STDEV.S(NT4:NT21)</f>
         <v>7.5196428908579571E-4</v>
       </c>
       <c r="NV24">
-        <f t="shared" ref="NV24:QG24" si="853">_xlfn.STDEV.S(NV4:NV21)</f>
+        <f t="shared" ref="NV24" si="853">_xlfn.STDEV.S(NV4:NV21)</f>
         <v>7.4748400020511617E-4</v>
       </c>
       <c r="NX24">
-        <f t="shared" ref="NX24:QI24" si="854">_xlfn.STDEV.S(NX4:NX21)</f>
+        <f t="shared" ref="NX24" si="854">_xlfn.STDEV.S(NX4:NX21)</f>
         <v>4.2805854197308695E-4</v>
       </c>
       <c r="NZ24">
-        <f t="shared" ref="NZ24:QK24" si="855">_xlfn.STDEV.S(NZ4:NZ21)</f>
+        <f t="shared" ref="NZ24" si="855">_xlfn.STDEV.S(NZ4:NZ21)</f>
         <v>6.5161255431357191E-4</v>
       </c>
       <c r="OB24">
-        <f t="shared" ref="OB24:QM24" si="856">_xlfn.STDEV.S(OB4:OB21)</f>
+        <f t="shared" ref="OB24" si="856">_xlfn.STDEV.S(OB4:OB21)</f>
         <v>5.6092394379382115E-4</v>
       </c>
       <c r="OD24">
-        <f t="shared" ref="OD24:QO24" si="857">_xlfn.STDEV.S(OD4:OD21)</f>
+        <f t="shared" ref="OD24" si="857">_xlfn.STDEV.S(OD4:OD21)</f>
         <v>5.6652991816534396E-4</v>
       </c>
       <c r="OF24">
-        <f t="shared" ref="OF24:QQ24" si="858">_xlfn.STDEV.S(OF4:OF21)</f>
+        <f t="shared" ref="OF24" si="858">_xlfn.STDEV.S(OF4:OF21)</f>
         <v>4.0125511508863246E-4</v>
       </c>
       <c r="OH24">
-        <f t="shared" ref="OH24:QS24" si="859">_xlfn.STDEV.S(OH4:OH21)</f>
+        <f t="shared" ref="OH24" si="859">_xlfn.STDEV.S(OH4:OH21)</f>
         <v>5.1702682848482021E-4</v>
       </c>
       <c r="OJ24">
-        <f t="shared" ref="OJ24:QU24" si="860">_xlfn.STDEV.S(OJ4:OJ21)</f>
+        <f t="shared" ref="OJ24" si="860">_xlfn.STDEV.S(OJ4:OJ21)</f>
         <v>8.6612503911402325E-4</v>
       </c>
       <c r="OL24">
-        <f t="shared" ref="OL24:QW24" si="861">_xlfn.STDEV.S(OL4:OL21)</f>
+        <f t="shared" ref="OL24" si="861">_xlfn.STDEV.S(OL4:OL21)</f>
         <v>3.676637618136174E-4</v>
       </c>
       <c r="ON24">
-        <f t="shared" ref="ON24:QY24" si="862">_xlfn.STDEV.S(ON4:ON21)</f>
+        <f t="shared" ref="ON24" si="862">_xlfn.STDEV.S(ON4:ON21)</f>
         <v>8.6009410375682686E-4</v>
       </c>
       <c r="OP24">
-        <f t="shared" ref="OP24:RA24" si="863">_xlfn.STDEV.S(OP4:OP21)</f>
+        <f t="shared" ref="OP24" si="863">_xlfn.STDEV.S(OP4:OP21)</f>
         <v>6.7217380857237461E-4</v>
       </c>
       <c r="OR24">
-        <f t="shared" ref="OR24:RC24" si="864">_xlfn.STDEV.S(OR4:OR21)</f>
+        <f t="shared" ref="OR24" si="864">_xlfn.STDEV.S(OR4:OR21)</f>
         <v>4.5471887742090807E-4</v>
       </c>
       <c r="OT24">
-        <f t="shared" ref="OT24:RE24" si="865">_xlfn.STDEV.S(OT4:OT21)</f>
+        <f t="shared" ref="OT24" si="865">_xlfn.STDEV.S(OT4:OT21)</f>
         <v>4.4726841481846155E-4</v>
       </c>
       <c r="OV24">
-        <f t="shared" ref="OV24:RG24" si="866">_xlfn.STDEV.S(OV4:OV21)</f>
+        <f t="shared" ref="OV24" si="866">_xlfn.STDEV.S(OV4:OV21)</f>
         <v>7.5031188184667081E-4</v>
       </c>
       <c r="OX24">
-        <f t="shared" ref="OX24:RI24" si="867">_xlfn.STDEV.S(OX4:OX21)</f>
+        <f t="shared" ref="OX24" si="867">_xlfn.STDEV.S(OX4:OX21)</f>
         <v>8.0172545538618187E-4</v>
       </c>
       <c r="OZ24">
-        <f t="shared" ref="OZ24:RK24" si="868">_xlfn.STDEV.S(OZ4:OZ21)</f>
+        <f t="shared" ref="OZ24" si="868">_xlfn.STDEV.S(OZ4:OZ21)</f>
         <v>9.8755664204779698E-4</v>
       </c>
       <c r="PB24">
-        <f t="shared" ref="PB24:RM24" si="869">_xlfn.STDEV.S(PB4:PB21)</f>
+        <f t="shared" ref="PB24" si="869">_xlfn.STDEV.S(PB4:PB21)</f>
         <v>6.4065384499262419E-4</v>
       </c>
       <c r="PD24">
-        <f t="shared" ref="PD24:RO24" si="870">_xlfn.STDEV.S(PD4:PD21)</f>
+        <f t="shared" ref="PD24" si="870">_xlfn.STDEV.S(PD4:PD21)</f>
         <v>4.221021001709689E-4</v>
       </c>
       <c r="PF24">
-        <f t="shared" ref="PF24:RQ24" si="871">_xlfn.STDEV.S(PF4:PF21)</f>
+        <f t="shared" ref="PF24" si="871">_xlfn.STDEV.S(PF4:PF21)</f>
         <v>1.7107461842662186E-3</v>
       </c>
       <c r="PH24">
-        <f t="shared" ref="PH24:RS24" si="872">_xlfn.STDEV.S(PH4:PH21)</f>
+        <f t="shared" ref="PH24" si="872">_xlfn.STDEV.S(PH4:PH21)</f>
         <v>1.7107461842662186E-3</v>
       </c>
       <c r="PJ24">
-        <f t="shared" ref="PJ24:RU24" si="873">_xlfn.STDEV.S(PJ4:PJ21)</f>
+        <f t="shared" ref="PJ24" si="873">_xlfn.STDEV.S(PJ4:PJ21)</f>
         <v>7.5321080905006482E-4</v>
       </c>
       <c r="PL24">
-        <f t="shared" ref="PL24:RW24" si="874">_xlfn.STDEV.S(PL4:PL21)</f>
+        <f t="shared" ref="PL24" si="874">_xlfn.STDEV.S(PL4:PL21)</f>
         <v>5.0919271704187195E-4</v>
       </c>
       <c r="PN24">
-        <f t="shared" ref="PN24:RY24" si="875">_xlfn.STDEV.S(PN4:PN21)</f>
+        <f t="shared" ref="PN24" si="875">_xlfn.STDEV.S(PN4:PN21)</f>
         <v>6.7748138955512412E-4</v>
       </c>
       <c r="PP24">
-        <f t="shared" ref="PP24:SA24" si="876">_xlfn.STDEV.S(PP4:PP21)</f>
+        <f t="shared" ref="PP24" si="876">_xlfn.STDEV.S(PP4:PP21)</f>
         <v>5.6780594403071645E-4</v>
       </c>
       <c r="PR24">
-        <f t="shared" ref="PR24:SC24" si="877">_xlfn.STDEV.S(PR4:PR21)</f>
+        <f t="shared" ref="PR24" si="877">_xlfn.STDEV.S(PR4:PR21)</f>
         <v>7.2890223698386517E-4</v>
       </c>
       <c r="PT24">
-        <f t="shared" ref="PT24:SE24" si="878">_xlfn.STDEV.S(PT4:PT21)</f>
+        <f t="shared" ref="PT24" si="878">_xlfn.STDEV.S(PT4:PT21)</f>
         <v>2.0555429685655451E-3</v>
       </c>
       <c r="PV24">
-        <f t="shared" ref="PV24:SG24" si="879">_xlfn.STDEV.S(PV4:PV21)</f>
+        <f t="shared" ref="PV24" si="879">_xlfn.STDEV.S(PV4:PV21)</f>
         <v>6.7887093343726882E-4</v>
       </c>
       <c r="PX24">
-        <f t="shared" ref="PX24:SI24" si="880">_xlfn.STDEV.S(PX4:PX21)</f>
+        <f t="shared" ref="PX24" si="880">_xlfn.STDEV.S(PX4:PX21)</f>
         <v>4.0138689489266631E-4</v>
       </c>
       <c r="PZ24">
-        <f t="shared" ref="PZ24:SK24" si="881">_xlfn.STDEV.S(PZ4:PZ21)</f>
+        <f t="shared" ref="PZ24" si="881">_xlfn.STDEV.S(PZ4:PZ21)</f>
         <v>5.3985444574134248E-4</v>
       </c>
       <c r="QB24">
-        <f t="shared" ref="QB24:SM24" si="882">_xlfn.STDEV.S(QB4:QB21)</f>
+        <f t="shared" ref="QB24" si="882">_xlfn.STDEV.S(QB4:QB21)</f>
         <v>4.4684743790994046E-4</v>
       </c>
       <c r="QD24">
-        <f t="shared" ref="QD24:SO24" si="883">_xlfn.STDEV.S(QD4:QD21)</f>
+        <f t="shared" ref="QD24" si="883">_xlfn.STDEV.S(QD4:QD21)</f>
         <v>1.3965271375263066E-3</v>
       </c>
       <c r="QF24">
-        <f t="shared" ref="QF24:SQ24" si="884">_xlfn.STDEV.S(QF4:QF21)</f>
+        <f t="shared" ref="QF24" si="884">_xlfn.STDEV.S(QF4:QF21)</f>
         <v>6.8617841783381514E-4</v>
       </c>
       <c r="QH24">
-        <f t="shared" ref="QH24:SS24" si="885">_xlfn.STDEV.S(QH4:QH21)</f>
+        <f t="shared" ref="QH24" si="885">_xlfn.STDEV.S(QH4:QH21)</f>
         <v>5.3543246696121911E-4</v>
       </c>
       <c r="QJ24">
-        <f t="shared" ref="QJ24:SU24" si="886">_xlfn.STDEV.S(QJ4:QJ21)</f>
+        <f t="shared" ref="QJ24" si="886">_xlfn.STDEV.S(QJ4:QJ21)</f>
         <v>3.7157906380594347E-4</v>
       </c>
       <c r="QL24">
-        <f t="shared" ref="QL24:SW24" si="887">_xlfn.STDEV.S(QL4:QL21)</f>
+        <f t="shared" ref="QL24" si="887">_xlfn.STDEV.S(QL4:QL21)</f>
         <v>6.4206540618332801E-4</v>
       </c>
       <c r="QN24">
-        <f t="shared" ref="QN24:SY24" si="888">_xlfn.STDEV.S(QN4:QN21)</f>
+        <f t="shared" ref="QN24" si="888">_xlfn.STDEV.S(QN4:QN21)</f>
         <v>4.2467094380622164E-4</v>
       </c>
       <c r="QP24">
-        <f t="shared" ref="QP24:TA24" si="889">_xlfn.STDEV.S(QP4:QP21)</f>
+        <f t="shared" ref="QP24" si="889">_xlfn.STDEV.S(QP4:QP21)</f>
         <v>6.7615597331965275E-4</v>
       </c>
       <c r="QR24">
-        <f t="shared" ref="QR24:TC24" si="890">_xlfn.STDEV.S(QR4:QR21)</f>
+        <f t="shared" ref="QR24" si="890">_xlfn.STDEV.S(QR4:QR21)</f>
         <v>7.0144873130320129E-4</v>
       </c>
       <c r="QT24">
-        <f t="shared" ref="QT24:TE24" si="891">_xlfn.STDEV.S(QT4:QT21)</f>
+        <f t="shared" ref="QT24" si="891">_xlfn.STDEV.S(QT4:QT21)</f>
         <v>8.9046125864254775E-4</v>
       </c>
       <c r="QV24">
-        <f t="shared" ref="QV24:TG24" si="892">_xlfn.STDEV.S(QV4:QV21)</f>
+        <f t="shared" ref="QV24" si="892">_xlfn.STDEV.S(QV4:QV21)</f>
         <v>3.6864650407370273E-4</v>
       </c>
       <c r="QX24">
-        <f t="shared" ref="QX24:TI24" si="893">_xlfn.STDEV.S(QX4:QX21)</f>
+        <f t="shared" ref="QX24" si="893">_xlfn.STDEV.S(QX4:QX21)</f>
         <v>3.3327940832610109E-4</v>
       </c>
       <c r="QZ24">
-        <f t="shared" ref="QZ24:TK24" si="894">_xlfn.STDEV.S(QZ4:QZ21)</f>
+        <f t="shared" ref="QZ24" si="894">_xlfn.STDEV.S(QZ4:QZ21)</f>
         <v>5.0969069924330565E-4</v>
       </c>
       <c r="RB24">
-        <f t="shared" ref="RB24:TM24" si="895">_xlfn.STDEV.S(RB4:RB21)</f>
+        <f t="shared" ref="RB24" si="895">_xlfn.STDEV.S(RB4:RB21)</f>
         <v>6.6154143872324076E-4</v>
       </c>
       <c r="RD24">
-        <f t="shared" ref="RD24:TO24" si="896">_xlfn.STDEV.S(RD4:RD21)</f>
+        <f t="shared" ref="RD24" si="896">_xlfn.STDEV.S(RD4:RD21)</f>
         <v>5.1541733502577633E-4</v>
       </c>
       <c r="RF24">
-        <f t="shared" ref="RF24:TQ24" si="897">_xlfn.STDEV.S(RF4:RF21)</f>
+        <f t="shared" ref="RF24" si="897">_xlfn.STDEV.S(RF4:RF21)</f>
         <v>6.6960588853417374E-4</v>
       </c>
       <c r="RH24">
-        <f t="shared" ref="RH24:TS24" si="898">_xlfn.STDEV.S(RH4:RH21)</f>
+        <f t="shared" ref="RH24" si="898">_xlfn.STDEV.S(RH4:RH21)</f>
         <v>5.8623727734774251E-4</v>
       </c>
       <c r="RJ24">
-        <f t="shared" ref="RJ24:TU24" si="899">_xlfn.STDEV.S(RJ4:RJ21)</f>
+        <f t="shared" ref="RJ24" si="899">_xlfn.STDEV.S(RJ4:RJ21)</f>
         <v>6.7765368258273096E-4</v>
       </c>
       <c r="RL24">
-        <f t="shared" ref="RL24:TW24" si="900">_xlfn.STDEV.S(RL4:RL21)</f>
+        <f t="shared" ref="RL24" si="900">_xlfn.STDEV.S(RL4:RL21)</f>
         <v>7.3083178638860206E-4</v>
       </c>
       <c r="RN24">
-        <f t="shared" ref="RN24:TY24" si="901">_xlfn.STDEV.S(RN4:RN21)</f>
+        <f t="shared" ref="RN24" si="901">_xlfn.STDEV.S(RN4:RN21)</f>
         <v>4.8861798422395364E-4</v>
       </c>
       <c r="RP24">
-        <f t="shared" ref="RP24:UA24" si="902">_xlfn.STDEV.S(RP4:RP21)</f>
+        <f t="shared" ref="RP24" si="902">_xlfn.STDEV.S(RP4:RP21)</f>
         <v>5.1487021339607258E-4</v>
       </c>
       <c r="RR24">
-        <f t="shared" ref="RR24:UC24" si="903">_xlfn.STDEV.S(RR4:RR21)</f>
+        <f t="shared" ref="RR24" si="903">_xlfn.STDEV.S(RR4:RR21)</f>
         <v>4.3335821554954041E-4</v>
       </c>
       <c r="RT24">
-        <f t="shared" ref="RT24:UE24" si="904">_xlfn.STDEV.S(RT4:RT21)</f>
+        <f t="shared" ref="RT24" si="904">_xlfn.STDEV.S(RT4:RT21)</f>
         <v>4.6930707618621958E-4</v>
       </c>
       <c r="RV24">
-        <f t="shared" ref="RV24:UG24" si="905">_xlfn.STDEV.S(RV4:RV21)</f>
+        <f t="shared" ref="RV24" si="905">_xlfn.STDEV.S(RV4:RV21)</f>
         <v>4.2066540767567856E-4</v>
       </c>
       <c r="RX24">
-        <f t="shared" ref="RX24:UI24" si="906">_xlfn.STDEV.S(RX4:RX21)</f>
+        <f t="shared" ref="RX24" si="906">_xlfn.STDEV.S(RX4:RX21)</f>
         <v>4.2842870632641886E-4</v>
       </c>
       <c r="RZ24">
-        <f t="shared" ref="RZ24:UK24" si="907">_xlfn.STDEV.S(RZ4:RZ21)</f>
+        <f t="shared" ref="RZ24" si="907">_xlfn.STDEV.S(RZ4:RZ21)</f>
         <v>6.2988706604863226E-4</v>
       </c>
       <c r="SB24">
-        <f t="shared" ref="SB24:UM24" si="908">_xlfn.STDEV.S(SB4:SB21)</f>
+        <f t="shared" ref="SB24" si="908">_xlfn.STDEV.S(SB4:SB21)</f>
         <v>4.4252593738324105E-4</v>
       </c>
       <c r="SD24">
-        <f t="shared" ref="SD24:UO24" si="909">_xlfn.STDEV.S(SD4:SD21)</f>
+        <f t="shared" ref="SD24" si="909">_xlfn.STDEV.S(SD4:SD21)</f>
         <v>5.3986692830123662E-4</v>
       </c>
       <c r="SF24">
-        <f t="shared" ref="SF24:UQ24" si="910">_xlfn.STDEV.S(SF4:SF21)</f>
+        <f t="shared" ref="SF24" si="910">_xlfn.STDEV.S(SF4:SF21)</f>
         <v>6.8290371668122078E-4</v>
       </c>
       <c r="SH24">
-        <f t="shared" ref="SH24:US24" si="911">_xlfn.STDEV.S(SH4:SH21)</f>
+        <f t="shared" ref="SH24" si="911">_xlfn.STDEV.S(SH4:SH21)</f>
         <v>3.6551709113948793E-4</v>
       </c>
       <c r="SJ24">
-        <f t="shared" ref="SJ24:UU24" si="912">_xlfn.STDEV.S(SJ4:SJ21)</f>
+        <f t="shared" ref="SJ24" si="912">_xlfn.STDEV.S(SJ4:SJ21)</f>
         <v>6.0338798766320376E-4</v>
       </c>
       <c r="SL24">
-        <f t="shared" ref="SL24:UW24" si="913">_xlfn.STDEV.S(SL4:SL21)</f>
+        <f t="shared" ref="SL24" si="913">_xlfn.STDEV.S(SL4:SL21)</f>
         <v>4.5049687163047493E-4</v>
       </c>
       <c r="SN24">
-        <f t="shared" ref="SN24:UY24" si="914">_xlfn.STDEV.S(SN4:SN21)</f>
+        <f t="shared" ref="SN24" si="914">_xlfn.STDEV.S(SN4:SN21)</f>
         <v>4.2480316092348425E-4</v>
       </c>
       <c r="SP24">
-        <f t="shared" ref="SP24:VA24" si="915">_xlfn.STDEV.S(SP4:SP21)</f>
+        <f t="shared" ref="SP24" si="915">_xlfn.STDEV.S(SP4:SP21)</f>
         <v>7.1543609324554612E-4</v>
       </c>
       <c r="SR24">
-        <f t="shared" ref="SR24:VC24" si="916">_xlfn.STDEV.S(SR4:SR21)</f>
+        <f t="shared" ref="SR24" si="916">_xlfn.STDEV.S(SR4:SR21)</f>
         <v>6.66255064991588E-4</v>
       </c>
       <c r="ST24">
-        <f t="shared" ref="ST24:VE24" si="917">_xlfn.STDEV.S(ST4:ST21)</f>
+        <f t="shared" ref="ST24" si="917">_xlfn.STDEV.S(ST4:ST21)</f>
         <v>3.7316889033044094E-4</v>
       </c>
       <c r="SV24">
-        <f t="shared" ref="SV24:VG24" si="918">_xlfn.STDEV.S(SV4:SV21)</f>
+        <f t="shared" ref="SV24" si="918">_xlfn.STDEV.S(SV4:SV21)</f>
         <v>4.8426304705891419E-4</v>
       </c>
       <c r="SX24">
-        <f t="shared" ref="SX24:VI24" si="919">_xlfn.STDEV.S(SX4:SX21)</f>
+        <f t="shared" ref="SX24" si="919">_xlfn.STDEV.S(SX4:SX21)</f>
         <v>4.0803070242478889E-4</v>
       </c>
       <c r="SZ24">
-        <f t="shared" ref="SZ24:VK24" si="920">_xlfn.STDEV.S(SZ4:SZ21)</f>
+        <f t="shared" ref="SZ24" si="920">_xlfn.STDEV.S(SZ4:SZ21)</f>
         <v>7.1033672160005347E-4</v>
       </c>
       <c r="TB24">
-        <f t="shared" ref="TB24:VM24" si="921">_xlfn.STDEV.S(TB4:TB21)</f>
+        <f t="shared" ref="TB24" si="921">_xlfn.STDEV.S(TB4:TB21)</f>
         <v>3.4363392582966259E-4</v>
       </c>
       <c r="TD24">
-        <f t="shared" ref="TD24:VO24" si="922">_xlfn.STDEV.S(TD4:TD21)</f>
+        <f t="shared" ref="TD24" si="922">_xlfn.STDEV.S(TD4:TD21)</f>
         <v>7.5336984803324989E-4</v>
       </c>
       <c r="TF24">
-        <f t="shared" ref="TF24:VQ24" si="923">_xlfn.STDEV.S(TF4:TF21)</f>
+        <f t="shared" ref="TF24" si="923">_xlfn.STDEV.S(TF4:TF21)</f>
         <v>7.5336984803324989E-4</v>
       </c>
       <c r="TH24">
-        <f t="shared" ref="TH24:VS24" si="924">_xlfn.STDEV.S(TH4:TH21)</f>
+        <f t="shared" ref="TH24" si="924">_xlfn.STDEV.S(TH4:TH21)</f>
         <v>4.6008569550564217E-4</v>
       </c>
       <c r="TJ24">
-        <f t="shared" ref="TJ24:VU24" si="925">_xlfn.STDEV.S(TJ4:TJ21)</f>
+        <f t="shared" ref="TJ24" si="925">_xlfn.STDEV.S(TJ4:TJ21)</f>
         <v>1.0395743351189414E-3</v>
       </c>
       <c r="TL24">
-        <f t="shared" ref="TL24:VW24" si="926">_xlfn.STDEV.S(TL4:TL21)</f>
+        <f t="shared" ref="TL24" si="926">_xlfn.STDEV.S(TL4:TL21)</f>
         <v>4.7661786587111887E-4</v>
       </c>
       <c r="TN24">
-        <f t="shared" ref="TN24:VY24" si="927">_xlfn.STDEV.S(TN4:TN21)</f>
+        <f t="shared" ref="TN24" si="927">_xlfn.STDEV.S(TN4:TN21)</f>
         <v>8.8065972568196168E-4</v>
       </c>
       <c r="TP24">
-        <f t="shared" ref="TP24:WA24" si="928">_xlfn.STDEV.S(TP4:TP21)</f>
+        <f t="shared" ref="TP24" si="928">_xlfn.STDEV.S(TP4:TP21)</f>
         <v>4.8171884796630878E-4</v>
       </c>
       <c r="TR24">
-        <f t="shared" ref="TR24:WC24" si="929">_xlfn.STDEV.S(TR4:TR21)</f>
+        <f t="shared" ref="TR24" si="929">_xlfn.STDEV.S(TR4:TR21)</f>
         <v>5.2246589674978874E-4</v>
       </c>
       <c r="TT24">
-        <f t="shared" ref="TT24:WE24" si="930">_xlfn.STDEV.S(TT4:TT21)</f>
+        <f t="shared" ref="TT24" si="930">_xlfn.STDEV.S(TT4:TT21)</f>
         <v>4.6752437481621998E-4</v>
       </c>
       <c r="TV24">
-        <f t="shared" ref="TV24:WG24" si="931">_xlfn.STDEV.S(TV4:TV21)</f>
+        <f t="shared" ref="TV24" si="931">_xlfn.STDEV.S(TV4:TV21)</f>
         <v>5.5386496643066048E-4</v>
       </c>
       <c r="TX24">
-        <f t="shared" ref="TX24:WI24" si="932">_xlfn.STDEV.S(TX4:TX21)</f>
+        <f t="shared" ref="TX24" si="932">_xlfn.STDEV.S(TX4:TX21)</f>
         <v>5.0446604270647656E-4</v>
       </c>
       <c r="TZ24">
-        <f t="shared" ref="TZ24:WK24" si="933">_xlfn.STDEV.S(TZ4:TZ21)</f>
+        <f t="shared" ref="TZ24" si="933">_xlfn.STDEV.S(TZ4:TZ21)</f>
         <v>6.9794273917405346E-4</v>
       </c>
       <c r="UB24">
-        <f t="shared" ref="UB24:WM24" si="934">_xlfn.STDEV.S(UB4:UB21)</f>
+        <f t="shared" ref="UB24" si="934">_xlfn.STDEV.S(UB4:UB21)</f>
         <v>1.3625574030071358E-3</v>
       </c>
       <c r="UD24">
-        <f t="shared" ref="UD24:WO24" si="935">_xlfn.STDEV.S(UD4:UD21)</f>
+        <f t="shared" ref="UD24" si="935">_xlfn.STDEV.S(UD4:UD21)</f>
         <v>6.6324886722857028E-4</v>
       </c>
       <c r="UF24">
-        <f t="shared" ref="UF24:WQ24" si="936">_xlfn.STDEV.S(UF4:UF21)</f>
+        <f t="shared" ref="UF24" si="936">_xlfn.STDEV.S(UF4:UF21)</f>
         <v>7.3445605140864197E-4</v>
       </c>
       <c r="UH24">
-        <f t="shared" ref="UH24:WS24" si="937">_xlfn.STDEV.S(UH4:UH21)</f>
+        <f t="shared" ref="UH24" si="937">_xlfn.STDEV.S(UH4:UH21)</f>
         <v>4.4998121348741038E-4</v>
       </c>
       <c r="UJ24">
-        <f t="shared" ref="UJ24:WU24" si="938">_xlfn.STDEV.S(UJ4:UJ21)</f>
+        <f t="shared" ref="UJ24" si="938">_xlfn.STDEV.S(UJ4:UJ21)</f>
         <v>4.5105735863618449E-4</v>
       </c>
       <c r="UL24">
-        <f t="shared" ref="UL24:WW24" si="939">_xlfn.STDEV.S(UL4:UL21)</f>
+        <f t="shared" ref="UL24" si="939">_xlfn.STDEV.S(UL4:UL21)</f>
         <v>5.6541586676101398E-4</v>
       </c>
       <c r="UN24">
-        <f t="shared" ref="UN24:WY24" si="940">_xlfn.STDEV.S(UN4:UN21)</f>
+        <f t="shared" ref="UN24" si="940">_xlfn.STDEV.S(UN4:UN21)</f>
         <v>9.7696974482964485E-4</v>
       </c>
       <c r="UP24">
-        <f t="shared" ref="UP24:XA24" si="941">_xlfn.STDEV.S(UP4:UP21)</f>
+        <f t="shared" ref="UP24" si="941">_xlfn.STDEV.S(UP4:UP21)</f>
         <v>7.056738854363863E-4</v>
       </c>
       <c r="UR24">
-        <f t="shared" ref="UR24:XC24" si="942">_xlfn.STDEV.S(UR4:UR21)</f>
+        <f t="shared" ref="UR24" si="942">_xlfn.STDEV.S(UR4:UR21)</f>
         <v>4.1259587176623139E-4</v>
       </c>
       <c r="UT24">
-        <f t="shared" ref="UT24:XE24" si="943">_xlfn.STDEV.S(UT4:UT21)</f>
+        <f t="shared" ref="UT24" si="943">_xlfn.STDEV.S(UT4:UT21)</f>
         <v>1.1545854358794945E-3</v>
       </c>
       <c r="UV24">
-        <f t="shared" ref="UV24:XG24" si="944">_xlfn.STDEV.S(UV4:UV21)</f>
+        <f t="shared" ref="UV24" si="944">_xlfn.STDEV.S(UV4:UV21)</f>
         <v>6.9860797024981708E-4</v>
       </c>
       <c r="UX24">
-        <f t="shared" ref="UX24:XI24" si="945">_xlfn.STDEV.S(UX4:UX21)</f>
+        <f t="shared" ref="UX24" si="945">_xlfn.STDEV.S(UX4:UX21)</f>
         <v>1.1167828885684781E-3</v>
       </c>
       <c r="UZ24">
-        <f t="shared" ref="UZ24:XK24" si="946">_xlfn.STDEV.S(UZ4:UZ21)</f>
+        <f t="shared" ref="UZ24" si="946">_xlfn.STDEV.S(UZ4:UZ21)</f>
         <v>4.9080291230282609E-4</v>
       </c>
       <c r="VB24">
-        <f t="shared" ref="VB24:XM24" si="947">_xlfn.STDEV.S(VB4:VB21)</f>
+        <f t="shared" ref="VB24" si="947">_xlfn.STDEV.S(VB4:VB21)</f>
         <v>5.0406804288722381E-4</v>
       </c>
       <c r="VD24">
-        <f t="shared" ref="VD24:XO24" si="948">_xlfn.STDEV.S(VD4:VD21)</f>
+        <f t="shared" ref="VD24" si="948">_xlfn.STDEV.S(VD4:VD21)</f>
         <v>3.7636336617582854E-4</v>
       </c>
       <c r="VF24">
-        <f t="shared" ref="VF24:XQ24" si="949">_xlfn.STDEV.S(VF4:VF21)</f>
+        <f t="shared" ref="VF24" si="949">_xlfn.STDEV.S(VF4:VF21)</f>
         <v>4.0072749291480156E-4</v>
       </c>
       <c r="VH24">
-        <f t="shared" ref="VH24:XS24" si="950">_xlfn.STDEV.S(VH4:VH21)</f>
+        <f t="shared" ref="VH24" si="950">_xlfn.STDEV.S(VH4:VH21)</f>
         <v>3.9569786065505171E-4</v>
       </c>
       <c r="VJ24">
-        <f t="shared" ref="VJ24:XU24" si="951">_xlfn.STDEV.S(VJ4:VJ21)</f>
+        <f t="shared" ref="VJ24" si="951">_xlfn.STDEV.S(VJ4:VJ21)</f>
         <v>2.7762861771192472E-4</v>
       </c>
       <c r="VL24">
-        <f t="shared" ref="VL24:XW24" si="952">_xlfn.STDEV.S(VL4:VL21)</f>
+        <f t="shared" ref="VL24" si="952">_xlfn.STDEV.S(VL4:VL21)</f>
         <v>6.034565025866839E-4</v>
       </c>
       <c r="VN24">
-        <f t="shared" ref="VN24:XY24" si="953">_xlfn.STDEV.S(VN4:VN21)</f>
+        <f t="shared" ref="VN24" si="953">_xlfn.STDEV.S(VN4:VN21)</f>
         <v>3.2772059273993357E-4</v>
       </c>
       <c r="VP24">
-        <f t="shared" ref="VP24:YA24" si="954">_xlfn.STDEV.S(VP4:VP21)</f>
+        <f t="shared" ref="VP24" si="954">_xlfn.STDEV.S(VP4:VP21)</f>
         <v>1.0432521132354769E-3</v>
       </c>
       <c r="VR24">
-        <f t="shared" ref="VR24:YC24" si="955">_xlfn.STDEV.S(VR4:VR21)</f>
+        <f t="shared" ref="VR24" si="955">_xlfn.STDEV.S(VR4:VR21)</f>
         <v>1.5561328811323674E-3</v>
       </c>
       <c r="VT24">
-        <f t="shared" ref="VT24:YE24" si="956">_xlfn.STDEV.S(VT4:VT21)</f>
+        <f t="shared" ref="VT24" si="956">_xlfn.STDEV.S(VT4:VT21)</f>
         <v>4.8917338915062955E-4</v>
       </c>
       <c r="VV24">
-        <f t="shared" ref="VV24:YG24" si="957">_xlfn.STDEV.S(VV4:VV21)</f>
+        <f t="shared" ref="VV24" si="957">_xlfn.STDEV.S(VV4:VV21)</f>
         <v>7.7114847506159307E-4</v>
       </c>
       <c r="VX24">
-        <f t="shared" ref="VX24:YI24" si="958">_xlfn.STDEV.S(VX4:VX21)</f>
+        <f t="shared" ref="VX24" si="958">_xlfn.STDEV.S(VX4:VX21)</f>
         <v>3.0965873738651977E-4</v>
       </c>
       <c r="VZ24">
-        <f t="shared" ref="VZ24:YK24" si="959">_xlfn.STDEV.S(VZ4:VZ21)</f>
+        <f t="shared" ref="VZ24" si="959">_xlfn.STDEV.S(VZ4:VZ21)</f>
         <v>2.8362127735953748E-4</v>
       </c>
       <c r="WB24">
-        <f t="shared" ref="WB24:YM24" si="960">_xlfn.STDEV.S(WB4:WB21)</f>
+        <f t="shared" ref="WB24" si="960">_xlfn.STDEV.S(WB4:WB21)</f>
         <v>4.003391014661702E-4</v>
       </c>
       <c r="WD24">
-        <f t="shared" ref="WD24:YO24" si="961">_xlfn.STDEV.S(WD4:WD21)</f>
+        <f t="shared" ref="WD24" si="961">_xlfn.STDEV.S(WD4:WD21)</f>
         <v>1.5385265038871782E-3</v>
       </c>
       <c r="WF24">
-        <f t="shared" ref="WF24:YQ24" si="962">_xlfn.STDEV.S(WF4:WF21)</f>
+        <f t="shared" ref="WF24" si="962">_xlfn.STDEV.S(WF4:WF21)</f>
         <v>7.2685926594286403E-4</v>
       </c>
       <c r="WH24">
-        <f t="shared" ref="WH24:YS24" si="963">_xlfn.STDEV.S(WH4:WH21)</f>
+        <f t="shared" ref="WH24" si="963">_xlfn.STDEV.S(WH4:WH21)</f>
         <v>7.2685926594286403E-4</v>
       </c>
       <c r="WJ24">
-        <f t="shared" ref="WJ24:YU24" si="964">_xlfn.STDEV.S(WJ4:WJ21)</f>
+        <f t="shared" ref="WJ24" si="964">_xlfn.STDEV.S(WJ4:WJ21)</f>
         <v>7.1162040833186251E-4</v>
       </c>
       <c r="WL24">
-        <f t="shared" ref="WL24:YW24" si="965">_xlfn.STDEV.S(WL4:WL21)</f>
+        <f t="shared" ref="WL24" si="965">_xlfn.STDEV.S(WL4:WL21)</f>
         <v>4.3881927475225921E-4</v>
       </c>
       <c r="WN24">
-        <f t="shared" ref="WN24:YY24" si="966">_xlfn.STDEV.S(WN4:WN21)</f>
+        <f t="shared" ref="WN24" si="966">_xlfn.STDEV.S(WN4:WN21)</f>
         <v>3.8876873181982225E-4</v>
       </c>
       <c r="WP24">
-        <f t="shared" ref="WP24:ZA24" si="967">_xlfn.STDEV.S(WP4:WP21)</f>
+        <f t="shared" ref="WP24" si="967">_xlfn.STDEV.S(WP4:WP21)</f>
         <v>4.2978081039650847E-4</v>
       </c>
       <c r="WR24">
-        <f t="shared" ref="WR24:ZC24" si="968">_xlfn.STDEV.S(WR4:WR21)</f>
+        <f t="shared" ref="WR24" si="968">_xlfn.STDEV.S(WR4:WR21)</f>
         <v>3.2579566880513197E-4</v>
       </c>
       <c r="WT24">
-        <f t="shared" ref="WT24:ZE24" si="969">_xlfn.STDEV.S(WT4:WT21)</f>
+        <f t="shared" ref="WT24" si="969">_xlfn.STDEV.S(WT4:WT21)</f>
         <v>5.8603300022489954E-4</v>
       </c>
       <c r="WV24">
-        <f t="shared" ref="WV24:ZG24" si="970">_xlfn.STDEV.S(WV4:WV21)</f>
+        <f t="shared" ref="WV24" si="970">_xlfn.STDEV.S(WV4:WV21)</f>
         <v>5.3435440822533311E-4</v>
       </c>
       <c r="WX24">
-        <f t="shared" ref="WX24:ZI24" si="971">_xlfn.STDEV.S(WX4:WX21)</f>
+        <f t="shared" ref="WX24" si="971">_xlfn.STDEV.S(WX4:WX21)</f>
         <v>2.7484542034703291E-4</v>
       </c>
       <c r="WZ24">
-        <f t="shared" ref="WZ24:ZK24" si="972">_xlfn.STDEV.S(WZ4:WZ21)</f>
+        <f t="shared" ref="WZ24" si="972">_xlfn.STDEV.S(WZ4:WZ21)</f>
         <v>1.1822674935886702E-3</v>
       </c>
       <c r="XB24">
-        <f t="shared" ref="XB24:ZM24" si="973">_xlfn.STDEV.S(XB4:XB21)</f>
+        <f t="shared" ref="XB24" si="973">_xlfn.STDEV.S(XB4:XB21)</f>
         <v>5.8165791506774409E-4</v>
       </c>
       <c r="XD24">
-        <f t="shared" ref="XD24:ZO24" si="974">_xlfn.STDEV.S(XD4:XD21)</f>
+        <f t="shared" ref="XD24" si="974">_xlfn.STDEV.S(XD4:XD21)</f>
         <v>3.8746365112039653E-4</v>
       </c>
       <c r="XF24">
-        <f t="shared" ref="XF24:ZQ24" si="975">_xlfn.STDEV.S(XF4:XF21)</f>
+        <f t="shared" ref="XF24" si="975">_xlfn.STDEV.S(XF4:XF21)</f>
         <v>4.2935419599529569E-4</v>
       </c>
       <c r="XH24">
-        <f t="shared" ref="XH24:ZS24" si="976">_xlfn.STDEV.S(XH4:XH21)</f>
+        <f t="shared" ref="XH24" si="976">_xlfn.STDEV.S(XH4:XH21)</f>
         <v>3.9172092536572515E-4</v>
       </c>
       <c r="XJ24">
-        <f t="shared" ref="XJ24:ZU24" si="977">_xlfn.STDEV.S(XJ4:XJ21)</f>
+        <f t="shared" ref="XJ24" si="977">_xlfn.STDEV.S(XJ4:XJ21)</f>
         <v>3.6767195911224055E-4</v>
       </c>
       <c r="XL24">
-        <f t="shared" ref="XL24:ZW24" si="978">_xlfn.STDEV.S(XL4:XL21)</f>
+        <f t="shared" ref="XL24" si="978">_xlfn.STDEV.S(XL4:XL21)</f>
         <v>4.6855228916031018E-4</v>
       </c>
       <c r="XN24">
-        <f t="shared" ref="XN24:ZY24" si="979">_xlfn.STDEV.S(XN4:XN21)</f>
+        <f t="shared" ref="XN24" si="979">_xlfn.STDEV.S(XN4:XN21)</f>
         <v>1.3626479240903902E-3</v>
       </c>
       <c r="XP24">
-        <f t="shared" ref="XP24:AAA24" si="980">_xlfn.STDEV.S(XP4:XP21)</f>
+        <f t="shared" ref="XP24" si="980">_xlfn.STDEV.S(XP4:XP21)</f>
         <v>4.257072826227363E-4</v>
       </c>
       <c r="XR24">
-        <f t="shared" ref="XR24:AAC24" si="981">_xlfn.STDEV.S(XR4:XR21)</f>
+        <f t="shared" ref="XR24" si="981">_xlfn.STDEV.S(XR4:XR21)</f>
         <v>6.8327617354003024E-4</v>
       </c>
       <c r="XT24">
-        <f t="shared" ref="XT24:AAE24" si="982">_xlfn.STDEV.S(XT4:XT21)</f>
+        <f t="shared" ref="XT24" si="982">_xlfn.STDEV.S(XT4:XT21)</f>
         <v>6.7403526767015581E-4</v>
       </c>
       <c r="XV24">
-        <f t="shared" ref="XV24:AAG24" si="983">_xlfn.STDEV.S(XV4:XV21)</f>
+        <f t="shared" ref="XV24" si="983">_xlfn.STDEV.S(XV4:XV21)</f>
         <v>6.7755997986732053E-4</v>
       </c>
       <c r="XX24">
-        <f t="shared" ref="XX24:AAI24" si="984">_xlfn.STDEV.S(XX4:XX21)</f>
+        <f t="shared" ref="XX24" si="984">_xlfn.STDEV.S(XX4:XX21)</f>
         <v>2.9556375679717722E-4</v>
       </c>
       <c r="XZ24">
-        <f t="shared" ref="XZ24:AAK24" si="985">_xlfn.STDEV.S(XZ4:XZ21)</f>
+        <f t="shared" ref="XZ24" si="985">_xlfn.STDEV.S(XZ4:XZ21)</f>
         <v>3.3850008739278804E-4</v>
       </c>
       <c r="YB24">
-        <f t="shared" ref="YB24:AAM24" si="986">_xlfn.STDEV.S(YB4:YB21)</f>
+        <f t="shared" ref="YB24" si="986">_xlfn.STDEV.S(YB4:YB21)</f>
         <v>4.6682319028473111E-4</v>
       </c>
       <c r="YD24">
-        <f t="shared" ref="YD24:AAO24" si="987">_xlfn.STDEV.S(YD4:YD21)</f>
+        <f t="shared" ref="YD24" si="987">_xlfn.STDEV.S(YD4:YD21)</f>
         <v>4.0915335972079709E-4</v>
       </c>
       <c r="YF24">
-        <f t="shared" ref="YF24:AAQ24" si="988">_xlfn.STDEV.S(YF4:YF21)</f>
+        <f t="shared" ref="YF24" si="988">_xlfn.STDEV.S(YF4:YF21)</f>
         <v>3.5231395693279585E-4</v>
       </c>
       <c r="YH24">
-        <f t="shared" ref="YH24:AAS24" si="989">_xlfn.STDEV.S(YH4:YH21)</f>
+        <f t="shared" ref="YH24" si="989">_xlfn.STDEV.S(YH4:YH21)</f>
         <v>1.3651200036398094E-3</v>
       </c>
       <c r="YJ24">
-        <f t="shared" ref="YJ24:AAU24" si="990">_xlfn.STDEV.S(YJ4:YJ21)</f>
+        <f t="shared" ref="YJ24" si="990">_xlfn.STDEV.S(YJ4:YJ21)</f>
         <v>6.8058951040046224E-4</v>
       </c>
       <c r="YL24">
-        <f t="shared" ref="YL24:AAW24" si="991">_xlfn.STDEV.S(YL4:YL21)</f>
+        <f t="shared" ref="YL24" si="991">_xlfn.STDEV.S(YL4:YL21)</f>
         <v>5.1740250011799295E-4</v>
       </c>
       <c r="YN24">
-        <f t="shared" ref="YN24:AAY24" si="992">_xlfn.STDEV.S(YN4:YN21)</f>
+        <f t="shared" ref="YN24" si="992">_xlfn.STDEV.S(YN4:YN21)</f>
         <v>3.7502227785712211E-4</v>
       </c>
       <c r="YP24">
-        <f t="shared" ref="YP24:ABA24" si="993">_xlfn.STDEV.S(YP4:YP21)</f>
+        <f t="shared" ref="YP24" si="993">_xlfn.STDEV.S(YP4:YP21)</f>
         <v>4.4817777022382972E-4</v>
       </c>
       <c r="YR24">
-        <f t="shared" ref="YR24:ABC24" si="994">_xlfn.STDEV.S(YR4:YR21)</f>
+        <f t="shared" ref="YR24" si="994">_xlfn.STDEV.S(YR4:YR21)</f>
         <v>7.1844993610073178E-4</v>
       </c>
       <c r="YT24">
-        <f t="shared" ref="YT24:ABE24" si="995">_xlfn.STDEV.S(YT4:YT21)</f>
+        <f t="shared" ref="YT24" si="995">_xlfn.STDEV.S(YT4:YT21)</f>
         <v>3.7021533276127878E-4</v>
       </c>
       <c r="YV24">
-        <f t="shared" ref="YV24:ABG24" si="996">_xlfn.STDEV.S(YV4:YV21)</f>
+        <f t="shared" ref="YV24" si="996">_xlfn.STDEV.S(YV4:YV21)</f>
         <v>1.370361979043696E-3</v>
       </c>
       <c r="YX24">
-        <f t="shared" ref="YX24:ABI24" si="997">_xlfn.STDEV.S(YX4:YX21)</f>
+        <f t="shared" ref="YX24" si="997">_xlfn.STDEV.S(YX4:YX21)</f>
         <v>1.370361979043696E-3</v>
       </c>
       <c r="YZ24">
-        <f t="shared" ref="YZ24:ABK24" si="998">_xlfn.STDEV.S(YZ4:YZ21)</f>
+        <f t="shared" ref="YZ24" si="998">_xlfn.STDEV.S(YZ4:YZ21)</f>
         <v>3.4599783246735548E-4</v>
       </c>
       <c r="ZB24">
-        <f t="shared" ref="ZB24:ABM24" si="999">_xlfn.STDEV.S(ZB4:ZB21)</f>
+        <f t="shared" ref="ZB24" si="999">_xlfn.STDEV.S(ZB4:ZB21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="ZD24">
-        <f t="shared" ref="ZD24:ABO24" si="1000">_xlfn.STDEV.S(ZD4:ZD21)</f>
+        <f t="shared" ref="ZD24" si="1000">_xlfn.STDEV.S(ZD4:ZD21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="ZF24">
-        <f t="shared" ref="ZF24:ABQ24" si="1001">_xlfn.STDEV.S(ZF4:ZF21)</f>
+        <f t="shared" ref="ZF24" si="1001">_xlfn.STDEV.S(ZF4:ZF21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="ZH24">
-        <f t="shared" ref="ZH24:ABS24" si="1002">_xlfn.STDEV.S(ZH4:ZH21)</f>
+        <f t="shared" ref="ZH24" si="1002">_xlfn.STDEV.S(ZH4:ZH21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="ZJ24">
-        <f t="shared" ref="ZJ24:ABU24" si="1003">_xlfn.STDEV.S(ZJ4:ZJ21)</f>
+        <f t="shared" ref="ZJ24" si="1003">_xlfn.STDEV.S(ZJ4:ZJ21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="ZL24">
-        <f t="shared" ref="ZL24:ABW24" si="1004">_xlfn.STDEV.S(ZL4:ZL21)</f>
+        <f t="shared" ref="ZL24" si="1004">_xlfn.STDEV.S(ZL4:ZL21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="ZN24">
-        <f t="shared" ref="ZN24:ABY24" si="1005">_xlfn.STDEV.S(ZN4:ZN21)</f>
+        <f t="shared" ref="ZN24" si="1005">_xlfn.STDEV.S(ZN4:ZN21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="ZP24">
-        <f t="shared" ref="ZP24:ACA24" si="1006">_xlfn.STDEV.S(ZP4:ZP21)</f>
+        <f t="shared" ref="ZP24" si="1006">_xlfn.STDEV.S(ZP4:ZP21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="ZR24">
-        <f t="shared" ref="ZR24:ACC24" si="1007">_xlfn.STDEV.S(ZR4:ZR21)</f>
+        <f t="shared" ref="ZR24" si="1007">_xlfn.STDEV.S(ZR4:ZR21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="ZT24">
-        <f t="shared" ref="ZT24:ACE24" si="1008">_xlfn.STDEV.S(ZT4:ZT21)</f>
+        <f t="shared" ref="ZT24" si="1008">_xlfn.STDEV.S(ZT4:ZT21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="ZV24">
-        <f t="shared" ref="ZV24:ACG24" si="1009">_xlfn.STDEV.S(ZV4:ZV21)</f>
+        <f t="shared" ref="ZV24" si="1009">_xlfn.STDEV.S(ZV4:ZV21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="ZX24">
-        <f t="shared" ref="ZX24:ACI24" si="1010">_xlfn.STDEV.S(ZX4:ZX21)</f>
+        <f t="shared" ref="ZX24" si="1010">_xlfn.STDEV.S(ZX4:ZX21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="ZZ24">
-        <f t="shared" ref="ZZ24:ACK24" si="1011">_xlfn.STDEV.S(ZZ4:ZZ21)</f>
+        <f t="shared" ref="ZZ24" si="1011">_xlfn.STDEV.S(ZZ4:ZZ21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="AAB24">
-        <f t="shared" ref="AAB24:ACM24" si="1012">_xlfn.STDEV.S(AAB4:AAB21)</f>
+        <f t="shared" ref="AAB24" si="1012">_xlfn.STDEV.S(AAB4:AAB21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="AAD24">
-        <f t="shared" ref="AAD24:ACO24" si="1013">_xlfn.STDEV.S(AAD4:AAD21)</f>
+        <f t="shared" ref="AAD24" si="1013">_xlfn.STDEV.S(AAD4:AAD21)</f>
         <v>1.3663899153363232E-3</v>
       </c>
       <c r="AAF24">
-        <f t="shared" ref="AAF24:ACQ24" si="1014">_xlfn.STDEV.S(AAF4:AAF21)</f>
+        <f t="shared" ref="AAF24" si="1014">_xlfn.STDEV.S(AAF4:AAF21)</f>
         <v>6.8898969937337138E-4</v>
       </c>
       <c r="AAH24">
-        <f t="shared" ref="AAH24:ACS24" si="1015">_xlfn.STDEV.S(AAH4:AAH21)</f>
+        <f t="shared" ref="AAH24" si="1015">_xlfn.STDEV.S(AAH4:AAH21)</f>
         <v>5.514503041402954E-4</v>
       </c>
       <c r="AAJ24">
-        <f t="shared" ref="AAJ24:ACU24" si="1016">_xlfn.STDEV.S(AAJ4:AAJ21)</f>
+        <f t="shared" ref="AAJ24" si="1016">_xlfn.STDEV.S(AAJ4:AAJ21)</f>
         <v>6.2890061385781435E-4</v>
       </c>
       <c r="AAL24">
-        <f t="shared" ref="AAL24:ACW24" si="1017">_xlfn.STDEV.S(AAL4:AAL21)</f>
+        <f t="shared" ref="AAL24" si="1017">_xlfn.STDEV.S(AAL4:AAL21)</f>
         <v>4.404771139770364E-4</v>
       </c>
       <c r="AAN24">
-        <f t="shared" ref="AAN24:ACY24" si="1018">_xlfn.STDEV.S(AAN4:AAN21)</f>
+        <f t="shared" ref="AAN24" si="1018">_xlfn.STDEV.S(AAN4:AAN21)</f>
         <v>2.4418649218199158E-4</v>
       </c>
       <c r="AAP24">
-        <f t="shared" ref="AAP24:ADA24" si="1019">_xlfn.STDEV.S(AAP4:AAP21)</f>
+        <f t="shared" ref="AAP24" si="1019">_xlfn.STDEV.S(AAP4:AAP21)</f>
         <v>5.5194109572218118E-4</v>
       </c>
       <c r="AAR24">
-        <f t="shared" ref="AAR24:ADC24" si="1020">_xlfn.STDEV.S(AAR4:AAR21)</f>
+        <f t="shared" ref="AAR24" si="1020">_xlfn.STDEV.S(AAR4:AAR21)</f>
         <v>4.1982958303615775E-4</v>
       </c>
       <c r="AAT24">
-        <f t="shared" ref="AAT24:ADE24" si="1021">_xlfn.STDEV.S(AAT4:AAT21)</f>
+        <f t="shared" ref="AAT24" si="1021">_xlfn.STDEV.S(AAT4:AAT21)</f>
         <v>3.7088976862140535E-4</v>
       </c>
       <c r="AAV24">
-        <f t="shared" ref="AAV24:ADG24" si="1022">_xlfn.STDEV.S(AAV4:AAV21)</f>
+        <f t="shared" ref="AAV24" si="1022">_xlfn.STDEV.S(AAV4:AAV21)</f>
         <v>4.8847660962836044E-4</v>
       </c>
       <c r="AAX24">
-        <f t="shared" ref="AAX24:ADI24" si="1023">_xlfn.STDEV.S(AAX4:AAX21)</f>
+        <f t="shared" ref="AAX24" si="1023">_xlfn.STDEV.S(AAX4:AAX21)</f>
         <v>6.9532563081785498E-4</v>
       </c>
       <c r="AAZ24">
-        <f t="shared" ref="AAZ24:ADK24" si="1024">_xlfn.STDEV.S(AAZ4:AAZ21)</f>
+        <f t="shared" ref="AAZ24" si="1024">_xlfn.STDEV.S(AAZ4:AAZ21)</f>
         <v>3.8294107318481675E-4</v>
       </c>
       <c r="ABB24">
-        <f t="shared" ref="ABB24:ADM24" si="1025">_xlfn.STDEV.S(ABB4:ABB21)</f>
+        <f t="shared" ref="ABB24" si="1025">_xlfn.STDEV.S(ABB4:ABB21)</f>
         <v>3.3776083617211516E-4</v>
       </c>
       <c r="ABD24">
-        <f t="shared" ref="ABD24:ADO24" si="1026">_xlfn.STDEV.S(ABD4:ABD21)</f>
+        <f t="shared" ref="ABD24" si="1026">_xlfn.STDEV.S(ABD4:ABD21)</f>
         <v>6.2057326502288907E-4</v>
       </c>
       <c r="ABF24">
-        <f t="shared" ref="ABF24:ADQ24" si="1027">_xlfn.STDEV.S(ABF4:ABF21)</f>
+        <f t="shared" ref="ABF24" si="1027">_xlfn.STDEV.S(ABF4:ABF21)</f>
         <v>3.5386842990613876E-4</v>
       </c>
       <c r="ABH24">
-        <f t="shared" ref="ABH24:ADS24" si="1028">_xlfn.STDEV.S(ABH4:ABH21)</f>
+        <f t="shared" ref="ABH24" si="1028">_xlfn.STDEV.S(ABH4:ABH21)</f>
         <v>3.2622187779728399E-4</v>
       </c>
       <c r="ABJ24">
-        <f t="shared" ref="ABJ24:ADU24" si="1029">_xlfn.STDEV.S(ABJ4:ABJ21)</f>
+        <f t="shared" ref="ABJ24" si="1029">_xlfn.STDEV.S(ABJ4:ABJ21)</f>
         <v>6.8627158721467545E-4</v>
       </c>
       <c r="ABL24">
-        <f t="shared" ref="ABL24:ADW24" si="1030">_xlfn.STDEV.S(ABL4:ABL21)</f>
+        <f t="shared" ref="ABL24" si="1030">_xlfn.STDEV.S(ABL4:ABL21)</f>
         <v>7.2119259708042151E-4</v>
       </c>
       <c r="ABN24">
-        <f t="shared" ref="ABN24:ADY24" si="1031">_xlfn.STDEV.S(ABN4:ABN21)</f>
+        <f t="shared" ref="ABN24" si="1031">_xlfn.STDEV.S(ABN4:ABN21)</f>
         <v>6.9090675080670872E-4</v>
       </c>
       <c r="ABP24">
-        <f t="shared" ref="ABP24:AEA24" si="1032">_xlfn.STDEV.S(ABP4:ABP21)</f>
+        <f t="shared" ref="ABP24" si="1032">_xlfn.STDEV.S(ABP4:ABP21)</f>
         <v>4.9369241626848301E-4</v>
       </c>
       <c r="ABR24">
-        <f t="shared" ref="ABR24:AEC24" si="1033">_xlfn.STDEV.S(ABR4:ABR21)</f>
+        <f t="shared" ref="ABR24" si="1033">_xlfn.STDEV.S(ABR4:ABR21)</f>
         <v>2.5920035691819629E-4</v>
       </c>
       <c r="ABT24">
-        <f t="shared" ref="ABT24:AEE24" si="1034">_xlfn.STDEV.S(ABT4:ABT21)</f>
+        <f t="shared" ref="ABT24" si="1034">_xlfn.STDEV.S(ABT4:ABT21)</f>
         <v>5.3457609156082255E-4</v>
       </c>
       <c r="ABV24">
-        <f t="shared" ref="ABV24:AEG24" si="1035">_xlfn.STDEV.S(ABV4:ABV21)</f>
+        <f t="shared" ref="ABV24" si="1035">_xlfn.STDEV.S(ABV4:ABV21)</f>
         <v>5.5956995733465523E-4</v>
       </c>
       <c r="ABX24">
-        <f t="shared" ref="ABX24:AEI24" si="1036">_xlfn.STDEV.S(ABX4:ABX21)</f>
+        <f t="shared" ref="ABX24" si="1036">_xlfn.STDEV.S(ABX4:ABX21)</f>
         <v>8.0767042890014362E-4</v>
       </c>
       <c r="ABZ24">
-        <f t="shared" ref="ABZ24:AEK24" si="1037">_xlfn.STDEV.S(ABZ4:ABZ21)</f>
+        <f t="shared" ref="ABZ24" si="1037">_xlfn.STDEV.S(ABZ4:ABZ21)</f>
         <v>5.1156096410286058E-4</v>
       </c>
       <c r="ACB24">
-        <f t="shared" ref="ACB24:AEM24" si="1038">_xlfn.STDEV.S(ACB4:ACB21)</f>
+        <f t="shared" ref="ACB24" si="1038">_xlfn.STDEV.S(ACB4:ACB21)</f>
         <v>3.9726500618253002E-4</v>
       </c>
       <c r="ACD24">
-        <f t="shared" ref="ACD24:AEO24" si="1039">_xlfn.STDEV.S(ACD4:ACD21)</f>
+        <f t="shared" ref="ACD24" si="1039">_xlfn.STDEV.S(ACD4:ACD21)</f>
         <v>3.1460585741007737E-4</v>
       </c>
       <c r="ACF24">
-        <f t="shared" ref="ACF24:AEQ24" si="1040">_xlfn.STDEV.S(ACF4:ACF21)</f>
+        <f t="shared" ref="ACF24" si="1040">_xlfn.STDEV.S(ACF4:ACF21)</f>
         <v>3.5700631784592313E-4</v>
       </c>
       <c r="ACH24">
-        <f t="shared" ref="ACH24:AES24" si="1041">_xlfn.STDEV.S(ACH4:ACH21)</f>
+        <f t="shared" ref="ACH24" si="1041">_xlfn.STDEV.S(ACH4:ACH21)</f>
         <v>4.8207139823804165E-4</v>
       </c>
       <c r="ACJ24">
-        <f t="shared" ref="ACJ24:AEU24" si="1042">_xlfn.STDEV.S(ACJ4:ACJ21)</f>
+        <f t="shared" ref="ACJ24" si="1042">_xlfn.STDEV.S(ACJ4:ACJ21)</f>
         <v>4.4345928942204384E-4</v>
       </c>
       <c r="ACL24">
-        <f t="shared" ref="ACL24:AEW24" si="1043">_xlfn.STDEV.S(ACL4:ACL21)</f>
+        <f t="shared" ref="ACL24" si="1043">_xlfn.STDEV.S(ACL4:ACL21)</f>
         <v>1.2295778357352043E-3</v>
       </c>
       <c r="ACN24">
-        <f t="shared" ref="ACN24:AEY24" si="1044">_xlfn.STDEV.S(ACN4:ACN21)</f>
+        <f t="shared" ref="ACN24" si="1044">_xlfn.STDEV.S(ACN4:ACN21)</f>
         <v>6.9487277867662234E-4</v>
       </c>
       <c r="ACP24">
-        <f t="shared" ref="ACP24:AFA24" si="1045">_xlfn.STDEV.S(ACP4:ACP21)</f>
+        <f t="shared" ref="ACP24" si="1045">_xlfn.STDEV.S(ACP4:ACP21)</f>
         <v>3.6599184309253743E-4</v>
       </c>
       <c r="ACR24">
-        <f t="shared" ref="ACR24:AFC24" si="1046">_xlfn.STDEV.S(ACR4:ACR21)</f>
+        <f t="shared" ref="ACR24" si="1046">_xlfn.STDEV.S(ACR4:ACR21)</f>
         <v>2.5200794184656873E-4</v>
       </c>
       <c r="ACT24">
-        <f t="shared" ref="ACT24:AFE24" si="1047">_xlfn.STDEV.S(ACT4:ACT21)</f>
+        <f t="shared" ref="ACT24" si="1047">_xlfn.STDEV.S(ACT4:ACT21)</f>
         <v>3.5652921513723817E-4</v>
       </c>
       <c r="ACV24">
-        <f t="shared" ref="ACV24:AFG24" si="1048">_xlfn.STDEV.S(ACV4:ACV21)</f>
+        <f t="shared" ref="ACV24" si="1048">_xlfn.STDEV.S(ACV4:ACV21)</f>
         <v>6.9806721871104821E-4</v>
       </c>
       <c r="ACX24">
-        <f t="shared" ref="ACX24:AFI24" si="1049">_xlfn.STDEV.S(ACX4:ACX21)</f>
+        <f t="shared" ref="ACX24" si="1049">_xlfn.STDEV.S(ACX4:ACX21)</f>
         <v>3.1280808643315564E-4</v>
       </c>
       <c r="ACZ24">
-        <f t="shared" ref="ACZ24:AFK24" si="1050">_xlfn.STDEV.S(ACZ4:ACZ21)</f>
+        <f t="shared" ref="ACZ24" si="1050">_xlfn.STDEV.S(ACZ4:ACZ21)</f>
         <v>2.9505013472404278E-4</v>
       </c>
       <c r="ADB24">
-        <f t="shared" ref="ADB24:AFM24" si="1051">_xlfn.STDEV.S(ADB4:ADB21)</f>
+        <f t="shared" ref="ADB24" si="1051">_xlfn.STDEV.S(ADB4:ADB21)</f>
         <v>3.6114058984028829E-4</v>
       </c>
       <c r="ADD24">
-        <f t="shared" ref="ADD24:AFO24" si="1052">_xlfn.STDEV.S(ADD4:ADD21)</f>
+        <f t="shared" ref="ADD24" si="1052">_xlfn.STDEV.S(ADD4:ADD21)</f>
         <v>6.2548495511911253E-4</v>
       </c>
       <c r="ADF24">
-        <f t="shared" ref="ADF24:AFQ24" si="1053">_xlfn.STDEV.S(ADF4:ADF21)</f>
+        <f t="shared" ref="ADF24" si="1053">_xlfn.STDEV.S(ADF4:ADF21)</f>
         <v>6.6155404614650357E-4</v>
       </c>
       <c r="ADH24">
-        <f t="shared" ref="ADH24:AFS24" si="1054">_xlfn.STDEV.S(ADH4:ADH21)</f>
+        <f t="shared" ref="ADH24" si="1054">_xlfn.STDEV.S(ADH4:ADH21)</f>
         <v>3.4099324615381499E-4</v>
       </c>
       <c r="ADJ24">
-        <f t="shared" ref="ADJ24:AFU24" si="1055">_xlfn.STDEV.S(ADJ4:ADJ21)</f>
+        <f t="shared" ref="ADJ24" si="1055">_xlfn.STDEV.S(ADJ4:ADJ21)</f>
         <v>5.0106226780345393E-4</v>
       </c>
       <c r="ADL24">
-        <f t="shared" ref="ADL24:AFW24" si="1056">_xlfn.STDEV.S(ADL4:ADL21)</f>
+        <f t="shared" ref="ADL24" si="1056">_xlfn.STDEV.S(ADL4:ADL21)</f>
         <v>9.2726354163069516E-4</v>
       </c>
       <c r="ADN24">
-        <f t="shared" ref="ADN24:AFY24" si="1057">_xlfn.STDEV.S(ADN4:ADN21)</f>
+        <f t="shared" ref="ADN24" si="1057">_xlfn.STDEV.S(ADN4:ADN21)</f>
         <v>3.5678318306156916E-4</v>
       </c>
       <c r="ADP24">
-        <f t="shared" ref="ADP24:AGA24" si="1058">_xlfn.STDEV.S(ADP4:ADP21)</f>
+        <f t="shared" ref="ADP24" si="1058">_xlfn.STDEV.S(ADP4:ADP21)</f>
         <v>3.5036496783630148E-4</v>
       </c>
       <c r="ADR24">
-        <f t="shared" ref="ADR24:AGC24" si="1059">_xlfn.STDEV.S(ADR4:ADR21)</f>
+        <f t="shared" ref="ADR24" si="1059">_xlfn.STDEV.S(ADR4:ADR21)</f>
         <v>6.9010556721602859E-4</v>
       </c>
       <c r="ADT24">
-        <f t="shared" ref="ADT24:AGE24" si="1060">_xlfn.STDEV.S(ADT4:ADT21)</f>
+        <f t="shared" ref="ADT24" si="1060">_xlfn.STDEV.S(ADT4:ADT21)</f>
         <v>5.0800461696979974E-4</v>
       </c>
       <c r="ADV24">
-        <f t="shared" ref="ADV24:AGG24" si="1061">_xlfn.STDEV.S(ADV4:ADV21)</f>
+        <f t="shared" ref="ADV24" si="1061">_xlfn.STDEV.S(ADV4:ADV21)</f>
         <v>7.8549754926805337E-4</v>
       </c>
       <c r="ADX24">
-        <f t="shared" ref="ADX24:AGI24" si="1062">_xlfn.STDEV.S(ADX4:ADX21)</f>
+        <f t="shared" ref="ADX24" si="1062">_xlfn.STDEV.S(ADX4:ADX21)</f>
         <v>2.7407307163939781E-4</v>
       </c>
       <c r="ADZ24">
-        <f t="shared" ref="ADZ24:AGK24" si="1063">_xlfn.STDEV.S(ADZ4:ADZ21)</f>
+        <f t="shared" ref="ADZ24" si="1063">_xlfn.STDEV.S(ADZ4:ADZ21)</f>
         <v>3.144888327501254E-4</v>
       </c>
       <c r="AEB24">
-        <f t="shared" ref="AEB24:AGM24" si="1064">_xlfn.STDEV.S(AEB4:AEB21)</f>
+        <f t="shared" ref="AEB24" si="1064">_xlfn.STDEV.S(AEB4:AEB21)</f>
         <v>2.7326822248970809E-4</v>
       </c>
       <c r="AED24">
-        <f t="shared" ref="AED24:AGO24" si="1065">_xlfn.STDEV.S(AED4:AED21)</f>
+        <f t="shared" ref="AED24" si="1065">_xlfn.STDEV.S(AED4:AED21)</f>
         <v>4.636530381708949E-4</v>
       </c>
       <c r="AEF24">
-        <f t="shared" ref="AEF24:AGQ24" si="1066">_xlfn.STDEV.S(AEF4:AEF21)</f>
+        <f t="shared" ref="AEF24" si="1066">_xlfn.STDEV.S(AEF4:AEF21)</f>
         <v>2.8616478139558565E-4</v>
       </c>
       <c r="AEH24">
-        <f t="shared" ref="AEH24:AGS24" si="1067">_xlfn.STDEV.S(AEH4:AEH21)</f>
+        <f t="shared" ref="AEH24" si="1067">_xlfn.STDEV.S(AEH4:AEH21)</f>
         <v>6.9865488935654039E-4</v>
       </c>
       <c r="AEJ24">
-        <f t="shared" ref="AEJ24:AGU24" si="1068">_xlfn.STDEV.S(AEJ4:AEJ21)</f>
+        <f t="shared" ref="AEJ24" si="1068">_xlfn.STDEV.S(AEJ4:AEJ21)</f>
         <v>5.084616537978495E-4</v>
       </c>
       <c r="AEL24">
-        <f t="shared" ref="AEL24:AGW24" si="1069">_xlfn.STDEV.S(AEL4:AEL21)</f>
+        <f t="shared" ref="AEL24" si="1069">_xlfn.STDEV.S(AEL4:AEL21)</f>
         <v>3.3132041812975767E-4</v>
       </c>
       <c r="AEN24">
-        <f t="shared" ref="AEN24:AGY24" si="1070">_xlfn.STDEV.S(AEN4:AEN21)</f>
+        <f t="shared" ref="AEN24" si="1070">_xlfn.STDEV.S(AEN4:AEN21)</f>
         <v>6.8882931895140377E-4</v>
       </c>
       <c r="AEP24">
-        <f t="shared" ref="AEP24:AHA24" si="1071">_xlfn.STDEV.S(AEP4:AEP21)</f>
+        <f t="shared" ref="AEP24" si="1071">_xlfn.STDEV.S(AEP4:AEP21)</f>
         <v>3.5004488274690746E-4</v>
       </c>
       <c r="AER24">
-        <f t="shared" ref="AER24:AHC24" si="1072">_xlfn.STDEV.S(AER4:AER21)</f>
+        <f t="shared" ref="AER24" si="1072">_xlfn.STDEV.S(AER4:AER21)</f>
         <v>4.3985402710737558E-4</v>
       </c>
       <c r="AET24">
-        <f t="shared" ref="AET24:AHE24" si="1073">_xlfn.STDEV.S(AET4:AET21)</f>
+        <f t="shared" ref="AET24" si="1073">_xlfn.STDEV.S(AET4:AET21)</f>
         <v>3.7678321672307818E-4</v>
       </c>
       <c r="AEV24">
-        <f t="shared" ref="AEV24:AHG24" si="1074">_xlfn.STDEV.S(AEV4:AEV21)</f>
+        <f t="shared" ref="AEV24" si="1074">_xlfn.STDEV.S(AEV4:AEV21)</f>
         <v>2.8827635165027288E-4</v>
       </c>
       <c r="AEX24">
-        <f t="shared" ref="AEX24:AHI24" si="1075">_xlfn.STDEV.S(AEX4:AEX21)</f>
+        <f t="shared" ref="AEX24" si="1075">_xlfn.STDEV.S(AEX4:AEX21)</f>
         <v>7.0328325624401339E-4</v>
       </c>
       <c r="AEZ24">
-        <f t="shared" ref="AEZ24:AHK24" si="1076">_xlfn.STDEV.S(AEZ4:AEZ21)</f>
+        <f t="shared" ref="AEZ24" si="1076">_xlfn.STDEV.S(AEZ4:AEZ21)</f>
         <v>2.3123135708309886E-4</v>
       </c>
       <c r="AFB24">
-        <f t="shared" ref="AFB24:AHM24" si="1077">_xlfn.STDEV.S(AFB4:AFB21)</f>
+        <f t="shared" ref="AFB24" si="1077">_xlfn.STDEV.S(AFB4:AFB21)</f>
         <v>9.2295985863567558E-4</v>
       </c>
       <c r="AFD24">
-        <f t="shared" ref="AFD24:AHO24" si="1078">_xlfn.STDEV.S(AFD4:AFD21)</f>
+        <f t="shared" ref="AFD24" si="1078">_xlfn.STDEV.S(AFD4:AFD21)</f>
         <v>5.2258665978323197E-4</v>
       </c>
       <c r="AFF24">
-        <f t="shared" ref="AFF24:AHQ24" si="1079">_xlfn.STDEV.S(AFF4:AFF21)</f>
+        <f t="shared" ref="AFF24" si="1079">_xlfn.STDEV.S(AFF4:AFF21)</f>
         <v>7.2633614596593948E-4</v>
       </c>
       <c r="AFH24">
-        <f t="shared" ref="AFH24:AHS24" si="1080">_xlfn.STDEV.S(AFH4:AFH21)</f>
+        <f t="shared" ref="AFH24" si="1080">_xlfn.STDEV.S(AFH4:AFH21)</f>
         <v>4.1515245949934343E-4</v>
       </c>
       <c r="AFJ24">
-        <f t="shared" ref="AFJ24:AHU24" si="1081">_xlfn.STDEV.S(AFJ4:AFJ21)</f>
+        <f t="shared" ref="AFJ24" si="1081">_xlfn.STDEV.S(AFJ4:AFJ21)</f>
         <v>3.9130088177829835E-4</v>
       </c>
       <c r="AFL24">
-        <f t="shared" ref="AFL24:AHW24" si="1082">_xlfn.STDEV.S(AFL4:AFL21)</f>
+        <f t="shared" ref="AFL24" si="1082">_xlfn.STDEV.S(AFL4:AFL21)</f>
         <v>3.5327723181969564E-4</v>
       </c>
       <c r="AFN24">
-        <f t="shared" ref="AFN24:AHY24" si="1083">_xlfn.STDEV.S(AFN4:AFN21)</f>
+        <f t="shared" ref="AFN24" si="1083">_xlfn.STDEV.S(AFN4:AFN21)</f>
         <v>4.0313850514804795E-4</v>
       </c>
       <c r="AFP24">
-        <f t="shared" ref="AFP24:AIA24" si="1084">_xlfn.STDEV.S(AFP4:AFP21)</f>
+        <f t="shared" ref="AFP24" si="1084">_xlfn.STDEV.S(AFP4:AFP21)</f>
         <v>4.5103997182501443E-4</v>
       </c>
       <c r="AFR24">
-        <f t="shared" ref="AFR24:AIC24" si="1085">_xlfn.STDEV.S(AFR4:AFR21)</f>
+        <f t="shared" ref="AFR24" si="1085">_xlfn.STDEV.S(AFR4:AFR21)</f>
         <v>2.4340476668545011E-4</v>
       </c>
       <c r="AFT24">
-        <f t="shared" ref="AFT24:AIE24" si="1086">_xlfn.STDEV.S(AFT4:AFT21)</f>
+        <f t="shared" ref="AFT24" si="1086">_xlfn.STDEV.S(AFT4:AFT21)</f>
         <v>2.6562063736895486E-4</v>
       </c>
       <c r="AFV24">
-        <f t="shared" ref="AFV24:AIG24" si="1087">_xlfn.STDEV.S(AFV4:AFV21)</f>
+        <f t="shared" ref="AFV24" si="1087">_xlfn.STDEV.S(AFV4:AFV21)</f>
         <v>3.4286367079538078E-4</v>
       </c>
       <c r="AFX24">
-        <f t="shared" ref="AFX24:AII24" si="1088">_xlfn.STDEV.S(AFX4:AFX21)</f>
+        <f t="shared" ref="AFX24" si="1088">_xlfn.STDEV.S(AFX4:AFX21)</f>
         <v>4.1585122643637466E-4</v>
       </c>
       <c r="AFZ24">
-        <f t="shared" ref="AFZ24:AIK24" si="1089">_xlfn.STDEV.S(AFZ4:AFZ21)</f>
+        <f t="shared" ref="AFZ24" si="1089">_xlfn.STDEV.S(AFZ4:AFZ21)</f>
         <v>3.3441021417503311E-4</v>
       </c>
       <c r="AGB24">
-        <f t="shared" ref="AGB24:AIM24" si="1090">_xlfn.STDEV.S(AGB4:AGB21)</f>
+        <f t="shared" ref="AGB24" si="1090">_xlfn.STDEV.S(AGB4:AGB21)</f>
         <v>3.2957981089784972E-4</v>
       </c>
       <c r="AGD24">
-        <f t="shared" ref="AGD24:AIO24" si="1091">_xlfn.STDEV.S(AGD4:AGD21)</f>
+        <f t="shared" ref="AGD24" si="1091">_xlfn.STDEV.S(AGD4:AGD21)</f>
         <v>3.8300275036285488E-4</v>
       </c>
       <c r="AGF24">
-        <f t="shared" ref="AGF24:AIQ24" si="1092">_xlfn.STDEV.S(AGF4:AGF21)</f>
+        <f t="shared" ref="AGF24" si="1092">_xlfn.STDEV.S(AGF4:AGF21)</f>
         <v>3.0292211318238795E-4</v>
       </c>
       <c r="AGH24">
-        <f t="shared" ref="AGH24:AIS24" si="1093">_xlfn.STDEV.S(AGH4:AGH21)</f>
+        <f t="shared" ref="AGH24" si="1093">_xlfn.STDEV.S(AGH4:AGH21)</f>
         <v>3.4725757837704207E-4</v>
       </c>
       <c r="AGJ24">
-        <f t="shared" ref="AGJ24:AIU24" si="1094">_xlfn.STDEV.S(AGJ4:AGJ21)</f>
+        <f t="shared" ref="AGJ24" si="1094">_xlfn.STDEV.S(AGJ4:AGJ21)</f>
         <v>2.5919472276240209E-4</v>
       </c>
       <c r="AGL24">
-        <f t="shared" ref="AGL24:AIW24" si="1095">_xlfn.STDEV.S(AGL4:AGL21)</f>
+        <f t="shared" ref="AGL24" si="1095">_xlfn.STDEV.S(AGL4:AGL21)</f>
         <v>4.0548274615272286E-4</v>
       </c>
       <c r="AGN24">
-        <f t="shared" ref="AGN24:AIY24" si="1096">_xlfn.STDEV.S(AGN4:AGN21)</f>
+        <f t="shared" ref="AGN24" si="1096">_xlfn.STDEV.S(AGN4:AGN21)</f>
         <v>2.5893517104263395E-4</v>
       </c>
       <c r="AGP24">
-        <f t="shared" ref="AGP24:AJA24" si="1097">_xlfn.STDEV.S(AGP4:AGP21)</f>
+        <f t="shared" ref="AGP24" si="1097">_xlfn.STDEV.S(AGP4:AGP21)</f>
         <v>4.1838471932303749E-4</v>
       </c>
       <c r="AGR24">
-        <f t="shared" ref="AGR24:AJC24" si="1098">_xlfn.STDEV.S(AGR4:AGR21)</f>
+        <f t="shared" ref="AGR24" si="1098">_xlfn.STDEV.S(AGR4:AGR21)</f>
         <v>4.5914843278875995E-4</v>
       </c>
       <c r="AGT24">
-        <f t="shared" ref="AGT24:AJE24" si="1099">_xlfn.STDEV.S(AGT4:AGT21)</f>
+        <f t="shared" ref="AGT24" si="1099">_xlfn.STDEV.S(AGT4:AGT21)</f>
         <v>3.2170200928823895E-4</v>
       </c>
       <c r="AGV24">
-        <f t="shared" ref="AGV24:AJG24" si="1100">_xlfn.STDEV.S(AGV4:AGV21)</f>
+        <f t="shared" ref="AGV24" si="1100">_xlfn.STDEV.S(AGV4:AGV21)</f>
         <v>2.5753674292392409E-4</v>
       </c>
       <c r="AGX24">
-        <f t="shared" ref="AGX24:AJI24" si="1101">_xlfn.STDEV.S(AGX4:AGX21)</f>
+        <f t="shared" ref="AGX24" si="1101">_xlfn.STDEV.S(AGX4:AGX21)</f>
         <v>1.0277714842827725E-3</v>
       </c>
       <c r="AGZ24">
-        <f t="shared" ref="AGZ24:AJK24" si="1102">_xlfn.STDEV.S(AGZ4:AGZ21)</f>
+        <f t="shared" ref="AGZ24" si="1102">_xlfn.STDEV.S(AGZ4:AGZ21)</f>
         <v>1.0277714842827725E-3</v>
       </c>
       <c r="AHB24">
-        <f t="shared" ref="AHB24:AJM24" si="1103">_xlfn.STDEV.S(AHB4:AHB21)</f>
+        <f t="shared" ref="AHB24" si="1103">_xlfn.STDEV.S(AHB4:AHB21)</f>
         <v>1.0277714842827725E-3</v>
       </c>
       <c r="AHD24">
-        <f t="shared" ref="AHD24:AJO24" si="1104">_xlfn.STDEV.S(AHD4:AHD21)</f>
+        <f t="shared" ref="AHD24" si="1104">_xlfn.STDEV.S(AHD4:AHD21)</f>
         <v>1.0277714842827725E-3</v>
       </c>
       <c r="AHF24">
-        <f t="shared" ref="AHF24:AJQ24" si="1105">_xlfn.STDEV.S(AHF4:AHF21)</f>
+        <f t="shared" ref="AHF24" si="1105">_xlfn.STDEV.S(AHF4:AHF21)</f>
         <v>1.0277714842827725E-3</v>
       </c>
       <c r="AHH24">
-        <f t="shared" ref="AHH24:AJS24" si="1106">_xlfn.STDEV.S(AHH4:AHH21)</f>
+        <f t="shared" ref="AHH24" si="1106">_xlfn.STDEV.S(AHH4:AHH21)</f>
         <v>1.0277714842827725E-3</v>
       </c>
       <c r="AHJ24">
-        <f t="shared" ref="AHJ24:AJU24" si="1107">_xlfn.STDEV.S(AHJ4:AHJ21)</f>
+        <f t="shared" ref="AHJ24" si="1107">_xlfn.STDEV.S(AHJ4:AHJ21)</f>
         <v>2.8572896791410549E-4</v>
       </c>
       <c r="AHL24">
-        <f t="shared" ref="AHL24:AJW24" si="1108">_xlfn.STDEV.S(AHL4:AHL21)</f>
+        <f t="shared" ref="AHL24" si="1108">_xlfn.STDEV.S(AHL4:AHL21)</f>
         <v>3.371557440416807E-4</v>
       </c>
       <c r="AHN24">
-        <f t="shared" ref="AHN24:AJY24" si="1109">_xlfn.STDEV.S(AHN4:AHN21)</f>
+        <f t="shared" ref="AHN24" si="1109">_xlfn.STDEV.S(AHN4:AHN21)</f>
         <v>3.2808018683044886E-4</v>
       </c>
       <c r="AHP24">
-        <f t="shared" ref="AHP24:AKA24" si="1110">_xlfn.STDEV.S(AHP4:AHP21)</f>
+        <f t="shared" ref="AHP24" si="1110">_xlfn.STDEV.S(AHP4:AHP21)</f>
         <v>3.0545371276490365E-4</v>
       </c>
       <c r="AHR24">
-        <f t="shared" ref="AHR24:AKC24" si="1111">_xlfn.STDEV.S(AHR4:AHR21)</f>
+        <f t="shared" ref="AHR24" si="1111">_xlfn.STDEV.S(AHR4:AHR21)</f>
         <v>2.8578274402669957E-4</v>
       </c>
       <c r="AHT24">
-        <f t="shared" ref="AHT24:AKE24" si="1112">_xlfn.STDEV.S(AHT4:AHT21)</f>
+        <f t="shared" ref="AHT24" si="1112">_xlfn.STDEV.S(AHT4:AHT21)</f>
         <v>4.1398880018703112E-4</v>
       </c>
       <c r="AHV24">
-        <f t="shared" ref="AHV24:AKG24" si="1113">_xlfn.STDEV.S(AHV4:AHV21)</f>
+        <f t="shared" ref="AHV24" si="1113">_xlfn.STDEV.S(AHV4:AHV21)</f>
         <v>6.8565616340787001E-4</v>
       </c>
       <c r="AHX24">
-        <f t="shared" ref="AHX24:AKI24" si="1114">_xlfn.STDEV.S(AHX4:AHX21)</f>
+        <f t="shared" ref="AHX24" si="1114">_xlfn.STDEV.S(AHX4:AHX21)</f>
         <v>3.0128067018742592E-4</v>
       </c>
       <c r="AHZ24">
-        <f t="shared" ref="AHZ24:AKK24" si="1115">_xlfn.STDEV.S(AHZ4:AHZ21)</f>
+        <f t="shared" ref="AHZ24" si="1115">_xlfn.STDEV.S(AHZ4:AHZ21)</f>
         <v>2.3713861156588801E-4</v>
       </c>
       <c r="AIB24">
-        <f t="shared" ref="AIB24:AKM24" si="1116">_xlfn.STDEV.S(AIB4:AIB21)</f>
+        <f t="shared" ref="AIB24" si="1116">_xlfn.STDEV.S(AIB4:AIB21)</f>
         <v>1.0078899344951797E-3</v>
       </c>
       <c r="AID24">
-        <f t="shared" ref="AID24:AKO24" si="1117">_xlfn.STDEV.S(AID4:AID21)</f>
+        <f t="shared" ref="AID24" si="1117">_xlfn.STDEV.S(AID4:AID21)</f>
         <v>1.0078899344951797E-3</v>
       </c>
       <c r="AIF24">
-        <f t="shared" ref="AIF24:AKQ24" si="1118">_xlfn.STDEV.S(AIF4:AIF21)</f>
+        <f t="shared" ref="AIF24" si="1118">_xlfn.STDEV.S(AIF4:AIF21)</f>
         <v>4.1442790171770315E-4</v>
       </c>
       <c r="AIH24">
-        <f t="shared" ref="AIH24:AKS24" si="1119">_xlfn.STDEV.S(AIH4:AIH21)</f>
+        <f t="shared" ref="AIH24" si="1119">_xlfn.STDEV.S(AIH4:AIH21)</f>
         <v>2.8528458553867854E-4</v>
       </c>
       <c r="AIJ24">
-        <f t="shared" ref="AIJ24:AKU24" si="1120">_xlfn.STDEV.S(AIJ4:AIJ21)</f>
+        <f t="shared" ref="AIJ24" si="1120">_xlfn.STDEV.S(AIJ4:AIJ21)</f>
         <v>1.9734805785999603E-4</v>
       </c>
       <c r="AIL24">
-        <f t="shared" ref="AIL24:AKW24" si="1121">_xlfn.STDEV.S(AIL4:AIL21)</f>
+        <f t="shared" ref="AIL24" si="1121">_xlfn.STDEV.S(AIL4:AIL21)</f>
         <v>2.7704938885648751E-4</v>
       </c>
       <c r="AIN24">
-        <f t="shared" ref="AIN24:AKY24" si="1122">_xlfn.STDEV.S(AIN4:AIN21)</f>
+        <f t="shared" ref="AIN24" si="1122">_xlfn.STDEV.S(AIN4:AIN21)</f>
         <v>4.189164438553048E-4</v>
       </c>
       <c r="AIP24">
-        <f t="shared" ref="AIP24:ALA24" si="1123">_xlfn.STDEV.S(AIP4:AIP21)</f>
+        <f t="shared" ref="AIP24" si="1123">_xlfn.STDEV.S(AIP4:AIP21)</f>
         <v>3.2063108286583229E-4</v>
       </c>
       <c r="AIR24">
-        <f t="shared" ref="AIR24:ALC24" si="1124">_xlfn.STDEV.S(AIR4:AIR21)</f>
+        <f t="shared" ref="AIR24" si="1124">_xlfn.STDEV.S(AIR4:AIR21)</f>
         <v>2.018589065496512E-4</v>
       </c>
       <c r="AIT24">
-        <f t="shared" ref="AIT24:ALE24" si="1125">_xlfn.STDEV.S(AIT4:AIT21)</f>
+        <f t="shared" ref="AIT24" si="1125">_xlfn.STDEV.S(AIT4:AIT21)</f>
         <v>5.3747608036912157E-4</v>
       </c>
       <c r="AIV24">
-        <f t="shared" ref="AIV24:ALG24" si="1126">_xlfn.STDEV.S(AIV4:AIV21)</f>
+        <f t="shared" ref="AIV24" si="1126">_xlfn.STDEV.S(AIV4:AIV21)</f>
         <v>2.5074969548268211E-4</v>
       </c>
       <c r="AIX24">
-        <f t="shared" ref="AIX24:ALI24" si="1127">_xlfn.STDEV.S(AIX4:AIX21)</f>
+        <f t="shared" ref="AIX24" si="1127">_xlfn.STDEV.S(AIX4:AIX21)</f>
         <v>3.7842815095813319E-4</v>
       </c>
       <c r="AIZ24">
-        <f t="shared" ref="AIZ24:ALK24" si="1128">_xlfn.STDEV.S(AIZ4:AIZ21)</f>
+        <f t="shared" ref="AIZ24" si="1128">_xlfn.STDEV.S(AIZ4:AIZ21)</f>
         <v>3.5682428137381097E-4</v>
       </c>
       <c r="AJB24">
-        <f t="shared" ref="AJB24:ALM24" si="1129">_xlfn.STDEV.S(AJB4:AJB21)</f>
+        <f t="shared" ref="AJB24" si="1129">_xlfn.STDEV.S(AJB4:AJB21)</f>
         <v>4.2261801978540588E-4</v>
       </c>
       <c r="AJD24">
-        <f t="shared" ref="AJD24:ALO24" si="1130">_xlfn.STDEV.S(AJD4:AJD21)</f>
+        <f t="shared" ref="AJD24" si="1130">_xlfn.STDEV.S(AJD4:AJD21)</f>
         <v>2.7931090920318188E-4</v>
       </c>
       <c r="AJF24">
-        <f t="shared" ref="AJF24:ALQ24" si="1131">_xlfn.STDEV.S(AJF4:AJF21)</f>
+        <f t="shared" ref="AJF24" si="1131">_xlfn.STDEV.S(AJF4:AJF21)</f>
         <v>3.5147240461824394E-4</v>
       </c>
       <c r="AJH24">
-        <f t="shared" ref="AJH24:ALS24" si="1132">_xlfn.STDEV.S(AJH4:AJH21)</f>
+        <f t="shared" ref="AJH24" si="1132">_xlfn.STDEV.S(AJH4:AJH21)</f>
         <v>3.6209074659022462E-4</v>
       </c>
       <c r="AJJ24">
-        <f t="shared" ref="AJJ24:ALU24" si="1133">_xlfn.STDEV.S(AJJ4:AJJ21)</f>
+        <f t="shared" ref="AJJ24" si="1133">_xlfn.STDEV.S(AJJ4:AJJ21)</f>
         <v>3.2316384069360605E-4</v>
       </c>
       <c r="AJL24">
-        <f t="shared" ref="AJL24:ALW24" si="1134">_xlfn.STDEV.S(AJL4:AJL21)</f>
+        <f t="shared" ref="AJL24" si="1134">_xlfn.STDEV.S(AJL4:AJL21)</f>
         <v>2.7038386204848068E-4</v>
       </c>
       <c r="AJN24">
-        <f t="shared" ref="AJN24:ALY24" si="1135">_xlfn.STDEV.S(AJN4:AJN21)</f>
+        <f t="shared" ref="AJN24" si="1135">_xlfn.STDEV.S(AJN4:AJN21)</f>
         <v>7.2745162491338119E-4</v>
       </c>
       <c r="AJP24">
-        <f t="shared" ref="AJP24:AMA24" si="1136">_xlfn.STDEV.S(AJP4:AJP21)</f>
+        <f t="shared" ref="AJP24" si="1136">_xlfn.STDEV.S(AJP4:AJP21)</f>
         <v>7.2745162491338119E-4</v>
       </c>
       <c r="AJR24">
-        <f t="shared" ref="AJR24:AMC24" si="1137">_xlfn.STDEV.S(AJR4:AJR21)</f>
+        <f t="shared" ref="AJR24" si="1137">_xlfn.STDEV.S(AJR4:AJR21)</f>
         <v>7.2745162491338119E-4</v>
       </c>
       <c r="AJT24">
-        <f t="shared" ref="AJT24:AME24" si="1138">_xlfn.STDEV.S(AJT4:AJT21)</f>
+        <f t="shared" ref="AJT24" si="1138">_xlfn.STDEV.S(AJT4:AJT21)</f>
         <v>3.4355233843862918E-4</v>
       </c>
       <c r="AJV24">
-        <f t="shared" ref="AJV24:AMG24" si="1139">_xlfn.STDEV.S(AJV4:AJV21)</f>
+        <f t="shared" ref="AJV24" si="1139">_xlfn.STDEV.S(AJV4:AJV21)</f>
         <v>3.450339082867375E-4</v>
       </c>
       <c r="AJX24">
-        <f t="shared" ref="AJX24:AMI24" si="1140">_xlfn.STDEV.S(AJX4:AJX21)</f>
+        <f t="shared" ref="AJX24" si="1140">_xlfn.STDEV.S(AJX4:AJX21)</f>
         <v>2.8452890076187767E-4</v>
       </c>
       <c r="AJZ24">
-        <f t="shared" ref="AJZ24:AMK24" si="1141">_xlfn.STDEV.S(AJZ4:AJZ21)</f>
+        <f t="shared" ref="AJZ24" si="1141">_xlfn.STDEV.S(AJZ4:AJZ21)</f>
         <v>4.078439890237981E-4</v>
       </c>
       <c r="AKB24">
-        <f t="shared" ref="AKB24:AMM24" si="1142">_xlfn.STDEV.S(AKB4:AKB21)</f>
+        <f t="shared" ref="AKB24" si="1142">_xlfn.STDEV.S(AKB4:AKB21)</f>
         <v>4.1334006731651916E-4</v>
       </c>
       <c r="AKD24">
-        <f t="shared" ref="AKD24:AMO24" si="1143">_xlfn.STDEV.S(AKD4:AKD21)</f>
+        <f t="shared" ref="AKD24" si="1143">_xlfn.STDEV.S(AKD4:AKD21)</f>
         <v>6.9544214476674731E-4</v>
       </c>
       <c r="AKF24">
-        <f t="shared" ref="AKF24:AMQ24" si="1144">_xlfn.STDEV.S(AKF4:AKF21)</f>
+        <f t="shared" ref="AKF24" si="1144">_xlfn.STDEV.S(AKF4:AKF21)</f>
         <v>6.7674327120587617E-4</v>
       </c>
       <c r="AKH24">
-        <f t="shared" ref="AKH24:AMS24" si="1145">_xlfn.STDEV.S(AKH4:AKH21)</f>
+        <f t="shared" ref="AKH24" si="1145">_xlfn.STDEV.S(AKH4:AKH21)</f>
         <v>3.5771508081035194E-4</v>
       </c>
       <c r="AKJ24">
-        <f t="shared" ref="AKJ24:AMU24" si="1146">_xlfn.STDEV.S(AKJ4:AKJ21)</f>
+        <f t="shared" ref="AKJ24" si="1146">_xlfn.STDEV.S(AKJ4:AKJ21)</f>
         <v>2.2684939257557317E-4</v>
       </c>
       <c r="AKL24">
-        <f t="shared" ref="AKL24:AMW24" si="1147">_xlfn.STDEV.S(AKL4:AKL21)</f>
+        <f t="shared" ref="AKL24" si="1147">_xlfn.STDEV.S(AKL4:AKL21)</f>
         <v>3.75707624088327E-4</v>
       </c>
       <c r="AKN24">
-        <f t="shared" ref="AKN24:AMY24" si="1148">_xlfn.STDEV.S(AKN4:AKN21)</f>
+        <f t="shared" ref="AKN24" si="1148">_xlfn.STDEV.S(AKN4:AKN21)</f>
         <v>2.2445636519866666E-4</v>
       </c>
       <c r="AKP24">
-        <f t="shared" ref="AKP24:ANA24" si="1149">_xlfn.STDEV.S(AKP4:AKP21)</f>
+        <f t="shared" ref="AKP24" si="1149">_xlfn.STDEV.S(AKP4:AKP21)</f>
         <v>3.5070652841783873E-4</v>
       </c>
       <c r="AKR24">
-        <f t="shared" ref="AKR24:ANC24" si="1150">_xlfn.STDEV.S(AKR4:AKR21)</f>
+        <f t="shared" ref="AKR24" si="1150">_xlfn.STDEV.S(AKR4:AKR21)</f>
         <v>3.9752077920606442E-4</v>
       </c>
       <c r="AKT24">
-        <f t="shared" ref="AKT24:ANE24" si="1151">_xlfn.STDEV.S(AKT4:AKT21)</f>
+        <f t="shared" ref="AKT24" si="1151">_xlfn.STDEV.S(AKT4:AKT21)</f>
         <v>2.9913916246664698E-4</v>
       </c>
       <c r="AKV24">
-        <f t="shared" ref="AKV24:ANG24" si="1152">_xlfn.STDEV.S(AKV4:AKV21)</f>
+        <f t="shared" ref="AKV24" si="1152">_xlfn.STDEV.S(AKV4:AKV21)</f>
         <v>3.0176191881756977E-4</v>
       </c>
       <c r="AKX24">
-        <f t="shared" ref="AKX24:ANI24" si="1153">_xlfn.STDEV.S(AKX4:AKX21)</f>
+        <f t="shared" ref="AKX24" si="1153">_xlfn.STDEV.S(AKX4:AKX21)</f>
         <v>9.2281026668562544E-4</v>
       </c>
       <c r="AKZ24">
-        <f t="shared" ref="AKZ24:ANK24" si="1154">_xlfn.STDEV.S(AKZ4:AKZ21)</f>
+        <f t="shared" ref="AKZ24" si="1154">_xlfn.STDEV.S(AKZ4:AKZ21)</f>
         <v>2.3806604419739322E-4</v>
       </c>
       <c r="ALB24">
-        <f t="shared" ref="ALB24:ANM24" si="1155">_xlfn.STDEV.S(ALB4:ALB21)</f>
+        <f t="shared" ref="ALB24" si="1155">_xlfn.STDEV.S(ALB4:ALB21)</f>
         <v>3.1353810478189944E-4</v>
       </c>
       <c r="ALD24">
-        <f t="shared" ref="ALD24:ANO24" si="1156">_xlfn.STDEV.S(ALD4:ALD21)</f>
+        <f t="shared" ref="ALD24" si="1156">_xlfn.STDEV.S(ALD4:ALD21)</f>
         <v>3.7947897713805275E-4</v>
       </c>
       <c r="ALF24">
-        <f t="shared" ref="ALF24:ANQ24" si="1157">_xlfn.STDEV.S(ALF4:ALF21)</f>
+        <f t="shared" ref="ALF24" si="1157">_xlfn.STDEV.S(ALF4:ALF21)</f>
         <v>6.8849259086684804E-4</v>
       </c>
       <c r="ALH24">
-        <f t="shared" ref="ALH24:ANS24" si="1158">_xlfn.STDEV.S(ALH4:ALH21)</f>
+        <f t="shared" ref="ALH24" si="1158">_xlfn.STDEV.S(ALH4:ALH21)</f>
         <v>3.3843088394659151E-4</v>
       </c>
       <c r="ALJ24">
-        <f t="shared" ref="ALJ24:ANU24" si="1159">_xlfn.STDEV.S(ALJ4:ALJ21)</f>
+        <f t="shared" ref="ALJ24" si="1159">_xlfn.STDEV.S(ALJ4:ALJ21)</f>
         <v>3.7582073815888527E-4</v>
       </c>
       <c r="ALL24">
-        <f t="shared" ref="ALL24:ANW24" si="1160">_xlfn.STDEV.S(ALL4:ALL21)</f>
+        <f t="shared" ref="ALL24" si="1160">_xlfn.STDEV.S(ALL4:ALL21)</f>
         <v>4.2805921110483473E-4</v>
       </c>
       <c r="ALN24">
-        <f t="shared" ref="ALN24:ANY24" si="1161">_xlfn.STDEV.S(ALN4:ALN21)</f>
+        <f t="shared" ref="ALN24" si="1161">_xlfn.STDEV.S(ALN4:ALN21)</f>
         <v>3.7855932216346072E-4</v>
       </c>
       <c r="ALP24">
-        <f t="shared" ref="ALP24:AOA24" si="1162">_xlfn.STDEV.S(ALP4:ALP21)</f>
+        <f t="shared" ref="ALP24" si="1162">_xlfn.STDEV.S(ALP4:ALP21)</f>
         <v>2.0276951210927301E-4</v>
       </c>
       <c r="ALR24">
-        <f t="shared" ref="ALR24:AOC24" si="1163">_xlfn.STDEV.S(ALR4:ALR21)</f>
+        <f t="shared" ref="ALR24" si="1163">_xlfn.STDEV.S(ALR4:ALR21)</f>
         <v>7.1896944333169359E-4</v>
       </c>
       <c r="ALT24">
-        <f t="shared" ref="ALT24:AOE24" si="1164">_xlfn.STDEV.S(ALT4:ALT21)</f>
+        <f t="shared" ref="ALT24" si="1164">_xlfn.STDEV.S(ALT4:ALT21)</f>
         <v>4.2856762743461553E-4</v>
       </c>
       <c r="ALV24">
-        <f t="shared" ref="ALV24:AOG24" si="1165">_xlfn.STDEV.S(ALV4:ALV21)</f>
+        <f t="shared" ref="ALV24" si="1165">_xlfn.STDEV.S(ALV4:ALV21)</f>
         <v>9.2311590233230757E-4</v>
       </c>
       <c r="ALX24">
-        <f t="shared" ref="ALX24:AOI24" si="1166">_xlfn.STDEV.S(ALX4:ALX21)</f>
+        <f t="shared" ref="ALX24" si="1166">_xlfn.STDEV.S(ALX4:ALX21)</f>
         <v>9.2311590233230757E-4</v>
       </c>
       <c r="ALZ24">
-        <f t="shared" ref="ALZ24:AOK24" si="1167">_xlfn.STDEV.S(ALZ4:ALZ21)</f>
+        <f t="shared" ref="ALZ24" si="1167">_xlfn.STDEV.S(ALZ4:ALZ21)</f>
         <v>9.2311590233230757E-4</v>
       </c>
       <c r="AMB24">
-        <f t="shared" ref="AMB24:AOM24" si="1168">_xlfn.STDEV.S(AMB4:AMB21)</f>
+        <f t="shared" ref="AMB24" si="1168">_xlfn.STDEV.S(AMB4:AMB21)</f>
         <v>9.2311590233230757E-4</v>
       </c>
       <c r="AMD24">
-        <f t="shared" ref="AMD24:AOO24" si="1169">_xlfn.STDEV.S(AMD4:AMD21)</f>
+        <f t="shared" ref="AMD24" si="1169">_xlfn.STDEV.S(AMD4:AMD21)</f>
         <v>9.2311590233230757E-4</v>
       </c>
       <c r="AMF24">
-        <f t="shared" ref="AMF24:AOQ24" si="1170">_xlfn.STDEV.S(AMF4:AMF21)</f>
+        <f t="shared" ref="AMF24" si="1170">_xlfn.STDEV.S(AMF4:AMF21)</f>
         <v>9.2311590233230757E-4</v>
       </c>
       <c r="AMH24">
-        <f t="shared" ref="AMH24:AOS24" si="1171">_xlfn.STDEV.S(AMH4:AMH21)</f>
+        <f t="shared" ref="AMH24" si="1171">_xlfn.STDEV.S(AMH4:AMH21)</f>
         <v>4.358435908291754E-4</v>
       </c>
       <c r="AMJ24">
-        <f t="shared" ref="AMJ24:AOU24" si="1172">_xlfn.STDEV.S(AMJ4:AMJ21)</f>
+        <f t="shared" ref="AMJ24" si="1172">_xlfn.STDEV.S(AMJ4:AMJ21)</f>
         <v>3.697429886325286E-4</v>
       </c>
       <c r="AML24">
-        <f t="shared" ref="AML24:AOW24" si="1173">_xlfn.STDEV.S(AML4:AML21)</f>
+        <f t="shared" ref="AML24" si="1173">_xlfn.STDEV.S(AML4:AML21)</f>
         <v>3.5156886853090786E-4</v>
       </c>
       <c r="AMN24">
-        <f t="shared" ref="AMN24:AOY24" si="1174">_xlfn.STDEV.S(AMN4:AMN21)</f>
+        <f t="shared" ref="AMN24" si="1174">_xlfn.STDEV.S(AMN4:AMN21)</f>
         <v>9.1832049504746529E-4</v>
       </c>
       <c r="AMP24">
-        <f t="shared" ref="AMP24:APA24" si="1175">_xlfn.STDEV.S(AMP4:AMP21)</f>
+        <f t="shared" ref="AMP24" si="1175">_xlfn.STDEV.S(AMP4:AMP21)</f>
         <v>9.1832049504746529E-4</v>
       </c>
       <c r="AMR24">
-        <f t="shared" ref="AMR24:APC24" si="1176">_xlfn.STDEV.S(AMR4:AMR21)</f>
+        <f t="shared" ref="AMR24" si="1176">_xlfn.STDEV.S(AMR4:AMR21)</f>
         <v>3.6526971764531231E-4</v>
       </c>
       <c r="AMT24">
-        <f t="shared" ref="AMT24:APE24" si="1177">_xlfn.STDEV.S(AMT4:AMT21)</f>
+        <f t="shared" ref="AMT24" si="1177">_xlfn.STDEV.S(AMT4:AMT21)</f>
         <v>6.8173463905677118E-4</v>
       </c>
       <c r="AMV24">
-        <f t="shared" ref="AMV24:APG24" si="1178">_xlfn.STDEV.S(AMV4:AMV21)</f>
+        <f t="shared" ref="AMV24" si="1178">_xlfn.STDEV.S(AMV4:AMV21)</f>
         <v>2.4510453865101756E-4</v>
       </c>
       <c r="AMX24">
-        <f t="shared" ref="AMX24:API24" si="1179">_xlfn.STDEV.S(AMX4:AMX21)</f>
+        <f t="shared" ref="AMX24" si="1179">_xlfn.STDEV.S(AMX4:AMX21)</f>
         <v>6.1640185731766416E-4</v>
       </c>
       <c r="AMZ24">
-        <f t="shared" ref="AMZ24:APK24" si="1180">_xlfn.STDEV.S(AMZ4:AMZ21)</f>
+        <f t="shared" ref="AMZ24" si="1180">_xlfn.STDEV.S(AMZ4:AMZ21)</f>
         <v>2.5769661408381789E-4</v>
       </c>
       <c r="ANB24">
-        <f t="shared" ref="ANB24:APM24" si="1181">_xlfn.STDEV.S(ANB4:ANB21)</f>
+        <f t="shared" ref="ANB24" si="1181">_xlfn.STDEV.S(ANB4:ANB21)</f>
         <v>3.518067741110169E-4</v>
       </c>
       <c r="AND24">
-        <f t="shared" ref="AND24:APO24" si="1182">_xlfn.STDEV.S(AND4:AND21)</f>
+        <f t="shared" ref="AND24" si="1182">_xlfn.STDEV.S(AND4:AND21)</f>
         <v>6.8867968206156325E-4</v>
       </c>
       <c r="ANF24">
-        <f t="shared" ref="ANF24:APQ24" si="1183">_xlfn.STDEV.S(ANF4:ANF21)</f>
+        <f t="shared" ref="ANF24" si="1183">_xlfn.STDEV.S(ANF4:ANF21)</f>
         <v>3.7200548780459762E-4</v>
       </c>
       <c r="ANH24">
-        <f t="shared" ref="ANH24:APS24" si="1184">_xlfn.STDEV.S(ANH4:ANH21)</f>
+        <f t="shared" ref="ANH24" si="1184">_xlfn.STDEV.S(ANH4:ANH21)</f>
         <v>4.0740101275753683E-4</v>
       </c>
       <c r="ANJ24">
-        <f t="shared" ref="ANJ24:APU24" si="1185">_xlfn.STDEV.S(ANJ4:ANJ21)</f>
+        <f t="shared" ref="ANJ24" si="1185">_xlfn.STDEV.S(ANJ4:ANJ21)</f>
         <v>6.8717871512204111E-4</v>
       </c>
       <c r="ANL24">
-        <f t="shared" ref="ANL24:APW24" si="1186">_xlfn.STDEV.S(ANL4:ANL21)</f>
+        <f t="shared" ref="ANL24" si="1186">_xlfn.STDEV.S(ANL4:ANL21)</f>
         <v>3.4305509244626195E-4</v>
       </c>
       <c r="ANN24">
-        <f t="shared" ref="ANN24:APY24" si="1187">_xlfn.STDEV.S(ANN4:ANN21)</f>
+        <f t="shared" ref="ANN24" si="1187">_xlfn.STDEV.S(ANN4:ANN21)</f>
         <v>2.4906086082432095E-4</v>
       </c>
       <c r="ANP24">
-        <f t="shared" ref="ANP24:AQA24" si="1188">_xlfn.STDEV.S(ANP4:ANP21)</f>
+        <f t="shared" ref="ANP24" si="1188">_xlfn.STDEV.S(ANP4:ANP21)</f>
         <v>3.9997626391933004E-4</v>
       </c>
       <c r="ANR24">
-        <f t="shared" ref="ANR24:AQC24" si="1189">_xlfn.STDEV.S(ANR4:ANR21)</f>
+        <f t="shared" ref="ANR24" si="1189">_xlfn.STDEV.S(ANR4:ANR21)</f>
         <v>6.8887098750698976E-4</v>
       </c>
       <c r="ANT24">
-        <f t="shared" ref="ANT24:AQE24" si="1190">_xlfn.STDEV.S(ANT4:ANT21)</f>
+        <f t="shared" ref="ANT24" si="1190">_xlfn.STDEV.S(ANT4:ANT21)</f>
         <v>4.0434088217667269E-4</v>
       </c>
       <c r="ANV24">
-        <f t="shared" ref="ANV24:AQG24" si="1191">_xlfn.STDEV.S(ANV4:ANV21)</f>
+        <f t="shared" ref="ANV24" si="1191">_xlfn.STDEV.S(ANV4:ANV21)</f>
         <v>2.7428471855160327E-4</v>
       </c>
       <c r="ANX24">
-        <f t="shared" ref="ANX24:AQI24" si="1192">_xlfn.STDEV.S(ANX4:ANX21)</f>
+        <f t="shared" ref="ANX24" si="1192">_xlfn.STDEV.S(ANX4:ANX21)</f>
         <v>3.4592222661100592E-4</v>
       </c>
       <c r="ANZ24">
-        <f t="shared" ref="ANZ24:AQK24" si="1193">_xlfn.STDEV.S(ANZ4:ANZ21)</f>
+        <f t="shared" ref="ANZ24" si="1193">_xlfn.STDEV.S(ANZ4:ANZ21)</f>
         <v>6.1876663213256968E-4</v>
       </c>
       <c r="AOB24">
-        <f t="shared" ref="AOB24:AQM24" si="1194">_xlfn.STDEV.S(AOB4:AOB21)</f>
+        <f t="shared" ref="AOB24" si="1194">_xlfn.STDEV.S(AOB4:AOB21)</f>
         <v>6.346963966179836E-4</v>
       </c>
       <c r="AOD24">
-        <f t="shared" ref="AOD24:AQO24" si="1195">_xlfn.STDEV.S(AOD4:AOD21)</f>
+        <f t="shared" ref="AOD24" si="1195">_xlfn.STDEV.S(AOD4:AOD21)</f>
         <v>4.5896184682546275E-4</v>
       </c>
       <c r="AOF24">
-        <f t="shared" ref="AOF24:AQQ24" si="1196">_xlfn.STDEV.S(AOF4:AOF21)</f>
+        <f t="shared" ref="AOF24" si="1196">_xlfn.STDEV.S(AOF4:AOF21)</f>
         <v>2.4207304513951941E-4</v>
       </c>
       <c r="AOH24">
-        <f t="shared" ref="AOH24:AQS24" si="1197">_xlfn.STDEV.S(AOH4:AOH21)</f>
+        <f t="shared" ref="AOH24" si="1197">_xlfn.STDEV.S(AOH4:AOH21)</f>
         <v>4.519291996432279E-4</v>
       </c>
       <c r="AOJ24">
-        <f t="shared" ref="AOJ24:AQU24" si="1198">_xlfn.STDEV.S(AOJ4:AOJ21)</f>
+        <f t="shared" ref="AOJ24" si="1198">_xlfn.STDEV.S(AOJ4:AOJ21)</f>
         <v>6.8132818743067008E-4</v>
       </c>
       <c r="AOL24">
-        <f t="shared" ref="AOL24:AQW24" si="1199">_xlfn.STDEV.S(AOL4:AOL21)</f>
+        <f t="shared" ref="AOL24" si="1199">_xlfn.STDEV.S(AOL4:AOL21)</f>
         <v>3.4770871764953958E-4</v>
       </c>
       <c r="AON24">
-        <f t="shared" ref="AON24:AQY24" si="1200">_xlfn.STDEV.S(AON4:AON21)</f>
+        <f t="shared" ref="AON24" si="1200">_xlfn.STDEV.S(AON4:AON21)</f>
         <v>2.9737088747720352E-4</v>
       </c>
       <c r="AOP24">
-        <f t="shared" ref="AOP24:ARA24" si="1201">_xlfn.STDEV.S(AOP4:AOP21)</f>
+        <f t="shared" ref="AOP24" si="1201">_xlfn.STDEV.S(AOP4:AOP21)</f>
         <v>2.2488830681877538E-4</v>
       </c>
       <c r="AOR24">
-        <f t="shared" ref="AOR24:ARC24" si="1202">_xlfn.STDEV.S(AOR4:AOR21)</f>
+        <f t="shared" ref="AOR24" si="1202">_xlfn.STDEV.S(AOR4:AOR21)</f>
         <v>3.1509841538238423E-4</v>
       </c>
       <c r="AOT24">
-        <f t="shared" ref="AOT24:ARE24" si="1203">_xlfn.STDEV.S(AOT4:AOT21)</f>
+        <f t="shared" ref="AOT24" si="1203">_xlfn.STDEV.S(AOT4:AOT21)</f>
         <v>3.9941127067713458E-4</v>
       </c>
       <c r="AOV24">
-        <f t="shared" ref="AOV24:ARG24" si="1204">_xlfn.STDEV.S(AOV4:AOV21)</f>
+        <f t="shared" ref="AOV24" si="1204">_xlfn.STDEV.S(AOV4:AOV21)</f>
         <v>2.3063342749953588E-4</v>
       </c>
       <c r="AOX24">
-        <f t="shared" ref="AOX24:ARI24" si="1205">_xlfn.STDEV.S(AOX4:AOX21)</f>
+        <f t="shared" ref="AOX24" si="1205">_xlfn.STDEV.S(AOX4:AOX21)</f>
         <v>6.8875688532749535E-4</v>
       </c>
       <c r="AOZ24">
-        <f t="shared" ref="AOZ24:ARK24" si="1206">_xlfn.STDEV.S(AOZ4:AOZ21)</f>
+        <f t="shared" ref="AOZ24" si="1206">_xlfn.STDEV.S(AOZ4:AOZ21)</f>
         <v>2.810078097432173E-4</v>
       </c>
       <c r="APB24">
-        <f t="shared" ref="APB24:ARM24" si="1207">_xlfn.STDEV.S(APB4:APB21)</f>
+        <f t="shared" ref="APB24" si="1207">_xlfn.STDEV.S(APB4:APB21)</f>
         <v>3.1602218610477087E-4</v>
       </c>
       <c r="APD24">
-        <f t="shared" ref="APD24:ARO24" si="1208">_xlfn.STDEV.S(APD4:APD21)</f>
+        <f t="shared" ref="APD24" si="1208">_xlfn.STDEV.S(APD4:APD21)</f>
         <v>4.3770484405416659E-4</v>
       </c>
       <c r="APF24">
-        <f t="shared" ref="APF24:ARQ24" si="1209">_xlfn.STDEV.S(APF4:APF21)</f>
+        <f t="shared" ref="APF24" si="1209">_xlfn.STDEV.S(APF4:APF21)</f>
         <v>4.1878495249559608E-4</v>
       </c>
       <c r="APH24">
-        <f t="shared" ref="APH24:ARS24" si="1210">_xlfn.STDEV.S(APH4:APH21)</f>
+        <f t="shared" ref="APH24" si="1210">_xlfn.STDEV.S(APH4:APH21)</f>
         <v>6.8529991648692335E-4</v>
       </c>
       <c r="APJ24">
-        <f t="shared" ref="APJ24:ARU24" si="1211">_xlfn.STDEV.S(APJ4:APJ21)</f>
+        <f t="shared" ref="APJ24" si="1211">_xlfn.STDEV.S(APJ4:APJ21)</f>
         <v>2.5720838739224896E-4</v>
       </c>
       <c r="APL24">
-        <f t="shared" ref="APL24:ARW24" si="1212">_xlfn.STDEV.S(APL4:APL21)</f>
+        <f t="shared" ref="APL24" si="1212">_xlfn.STDEV.S(APL4:APL21)</f>
         <v>4.6034699674833446E-4</v>
       </c>
       <c r="APN24">
-        <f t="shared" ref="APN24:ARY24" si="1213">_xlfn.STDEV.S(APN4:APN21)</f>
+        <f t="shared" ref="APN24" si="1213">_xlfn.STDEV.S(APN4:APN21)</f>
         <v>3.0398502594447752E-4</v>
       </c>
       <c r="APP24">
-        <f t="shared" ref="APP24:ASA24" si="1214">_xlfn.STDEV.S(APP4:APP21)</f>
+        <f t="shared" ref="APP24" si="1214">_xlfn.STDEV.S(APP4:APP21)</f>
         <v>6.9016920439130176E-4</v>
       </c>
       <c r="APR24">
-        <f t="shared" ref="APR24:ASC24" si="1215">_xlfn.STDEV.S(APR4:APR21)</f>
+        <f t="shared" ref="APR24" si="1215">_xlfn.STDEV.S(APR4:APR21)</f>
         <v>2.4139005776439038E-4</v>
       </c>
       <c r="APT24">
-        <f t="shared" ref="APT24:ASE24" si="1216">_xlfn.STDEV.S(APT4:APT21)</f>
+        <f t="shared" ref="APT24" si="1216">_xlfn.STDEV.S(APT4:APT21)</f>
         <v>8.4079284326581149E-4</v>
       </c>
       <c r="APV24">
-        <f t="shared" ref="APV24:ASG24" si="1217">_xlfn.STDEV.S(APV4:APV21)</f>
+        <f t="shared" ref="APV24" si="1217">_xlfn.STDEV.S(APV4:APV21)</f>
         <v>8.4079284326581149E-4</v>
       </c>
       <c r="APX24">
-        <f t="shared" ref="APX24:ASI24" si="1218">_xlfn.STDEV.S(APX4:APX21)</f>
+        <f t="shared" ref="APX24" si="1218">_xlfn.STDEV.S(APX4:APX21)</f>
         <v>2.4558743136682612E-4</v>
       </c>
       <c r="APZ24">
-        <f t="shared" ref="APZ24:ASK24" si="1219">_xlfn.STDEV.S(APZ4:APZ21)</f>
+        <f t="shared" ref="APZ24" si="1219">_xlfn.STDEV.S(APZ4:APZ21)</f>
         <v>2.7140328135634006E-4</v>
       </c>
       <c r="AQB24">
-        <f t="shared" ref="AQB24:ASM24" si="1220">_xlfn.STDEV.S(AQB4:AQB21)</f>
+        <f t="shared" ref="AQB24" si="1220">_xlfn.STDEV.S(AQB4:AQB21)</f>
         <v>2.2236816086383936E-4</v>
       </c>
       <c r="AQD24">
-        <f t="shared" ref="AQD24:ASO24" si="1221">_xlfn.STDEV.S(AQD4:AQD21)</f>
+        <f t="shared" ref="AQD24" si="1221">_xlfn.STDEV.S(AQD4:AQD21)</f>
         <v>2.4905240154042687E-4</v>
       </c>
       <c r="AQF24">
-        <f t="shared" ref="AQF24:ASQ24" si="1222">_xlfn.STDEV.S(AQF4:AQF21)</f>
+        <f t="shared" ref="AQF24" si="1222">_xlfn.STDEV.S(AQF4:AQF21)</f>
         <v>3.135257666392853E-4</v>
       </c>
       <c r="AQH24">
-        <f t="shared" ref="AQH24:ASS24" si="1223">_xlfn.STDEV.S(AQH4:AQH21)</f>
+        <f t="shared" ref="AQH24" si="1223">_xlfn.STDEV.S(AQH4:AQH21)</f>
         <v>3.6172319138220532E-4</v>
       </c>
       <c r="AQJ24">
-        <f t="shared" ref="AQJ24:ARO24" si="1224">_xlfn.STDEV.S(AQJ4:AQJ21)</f>
+        <f t="shared" ref="AQJ24" si="1224">_xlfn.STDEV.S(AQJ4:AQJ21)</f>
         <v>4.4371985698320459E-4</v>
       </c>
       <c r="AQL24">
-        <f t="shared" ref="AQL24:ARQ24" si="1225">_xlfn.STDEV.S(AQL4:AQL21)</f>
+        <f t="shared" ref="AQL24" si="1225">_xlfn.STDEV.S(AQL4:AQL21)</f>
         <v>6.3611680587733106E-4</v>
       </c>
       <c r="AQN24">
-        <f t="shared" ref="AQN24:ARS24" si="1226">_xlfn.STDEV.S(AQN4:AQN21)</f>
+        <f t="shared" ref="AQN24" si="1226">_xlfn.STDEV.S(AQN4:AQN21)</f>
         <v>4.0738616487500062E-4</v>
       </c>
       <c r="AQP24">
-        <f t="shared" ref="AQP24:ARU24" si="1227">_xlfn.STDEV.S(AQP4:AQP21)</f>
+        <f t="shared" ref="AQP24" si="1227">_xlfn.STDEV.S(AQP4:AQP21)</f>
         <v>6.7951771343155323E-4</v>
       </c>
       <c r="AQR24">
-        <f t="shared" ref="AQR24:ARW24" si="1228">_xlfn.STDEV.S(AQR4:AQR21)</f>
+        <f t="shared" ref="AQR24" si="1228">_xlfn.STDEV.S(AQR4:AQR21)</f>
         <v>4.3508472888436131E-4</v>
       </c>
       <c r="AQT24">
-        <f t="shared" ref="AQT24:ARY24" si="1229">_xlfn.STDEV.S(AQT4:AQT21)</f>
+        <f t="shared" ref="AQT24" si="1229">_xlfn.STDEV.S(AQT4:AQT21)</f>
         <v>3.670069403413764E-4</v>
       </c>
       <c r="AQV24">
-        <f t="shared" ref="AQV24:ASA24" si="1230">_xlfn.STDEV.S(AQV4:AQV21)</f>
+        <f t="shared" ref="AQV24" si="1230">_xlfn.STDEV.S(AQV4:AQV21)</f>
         <v>3.3053572661451695E-4</v>
       </c>
       <c r="AQX24">
-        <f t="shared" ref="AQX24:ASC24" si="1231">_xlfn.STDEV.S(AQX4:AQX21)</f>
+        <f t="shared" ref="AQX24" si="1231">_xlfn.STDEV.S(AQX4:AQX21)</f>
         <v>2.7326730541237632E-4</v>
       </c>
       <c r="AQZ24">
-        <f t="shared" ref="AQZ24:ASE24" si="1232">_xlfn.STDEV.S(AQZ4:AQZ21)</f>
+        <f t="shared" ref="AQZ24" si="1232">_xlfn.STDEV.S(AQZ4:AQZ21)</f>
         <v>2.3119907985074008E-4</v>
       </c>
       <c r="ARB24">
-        <f t="shared" ref="ARB24:ASG24" si="1233">_xlfn.STDEV.S(ARB4:ARB21)</f>
+        <f t="shared" ref="ARB24" si="1233">_xlfn.STDEV.S(ARB4:ARB21)</f>
         <v>2.6380362718519924E-4</v>
       </c>
       <c r="ARD24">
-        <f t="shared" ref="ARD24:ASI24" si="1234">_xlfn.STDEV.S(ARD4:ARD21)</f>
+        <f t="shared" ref="ARD24" si="1234">_xlfn.STDEV.S(ARD4:ARD21)</f>
         <v>2.4833782793839401E-4</v>
       </c>
       <c r="ARF24">
-        <f t="shared" ref="ARF24:ASK24" si="1235">_xlfn.STDEV.S(ARF4:ARF21)</f>
+        <f t="shared" ref="ARF24" si="1235">_xlfn.STDEV.S(ARF4:ARF21)</f>
         <v>6.8402061181711436E-4</v>
       </c>
       <c r="ARH24">
-        <f t="shared" ref="ARH24:ASM24" si="1236">_xlfn.STDEV.S(ARH4:ARH21)</f>
+        <f t="shared" ref="ARH24" si="1236">_xlfn.STDEV.S(ARH4:ARH21)</f>
         <v>2.1620341428670652E-4</v>
       </c>
       <c r="ARJ24">
-        <f t="shared" ref="ARJ24:ASO24" si="1237">_xlfn.STDEV.S(ARJ4:ARJ21)</f>
+        <f t="shared" ref="ARJ24" si="1237">_xlfn.STDEV.S(ARJ4:ARJ21)</f>
         <v>6.8336511846810285E-4</v>
       </c>
       <c r="ARL24">
-        <f t="shared" ref="ARL24:ASQ24" si="1238">_xlfn.STDEV.S(ARL4:ARL21)</f>
+        <f t="shared" ref="ARL24" si="1238">_xlfn.STDEV.S(ARL4:ARL21)</f>
         <v>3.6709830579087266E-4</v>
       </c>
       <c r="ARN24">
-        <f t="shared" ref="ARN24:ASS24" si="1239">_xlfn.STDEV.S(ARN4:ARN21)</f>
+        <f t="shared" ref="ARN24" si="1239">_xlfn.STDEV.S(ARN4:ARN21)</f>
         <v>3.9967097152444631E-4</v>
       </c>
       <c r="ARP24">
-        <f t="shared" ref="ARP24:ASU24" si="1240">_xlfn.STDEV.S(ARP4:ARP21)</f>
+        <f t="shared" ref="ARP24" si="1240">_xlfn.STDEV.S(ARP4:ARP21)</f>
         <v>2.8744869785803979E-4</v>
       </c>
       <c r="ARR24">
-        <f t="shared" ref="ARR24:ASW24" si="1241">_xlfn.STDEV.S(ARR4:ARR21)</f>
+        <f t="shared" ref="ARR24" si="1241">_xlfn.STDEV.S(ARR4:ARR21)</f>
         <v>4.0808180239110568E-4</v>
       </c>
       <c r="ART24">
-        <f t="shared" ref="ART24:ASY24" si="1242">_xlfn.STDEV.S(ART4:ART21)</f>
+        <f t="shared" ref="ART24" si="1242">_xlfn.STDEV.S(ART4:ART21)</f>
         <v>1.9857716115546361E-4</v>
       </c>
       <c r="ARV24">
-        <f t="shared" ref="ARV24:ATA24" si="1243">_xlfn.STDEV.S(ARV4:ARV21)</f>
+        <f t="shared" ref="ARV24" si="1243">_xlfn.STDEV.S(ARV4:ARV21)</f>
         <v>2.3452297445171515E-4</v>
       </c>
       <c r="ARX24">
-        <f t="shared" ref="ARX24:ATC24" si="1244">_xlfn.STDEV.S(ARX4:ARX21)</f>
+        <f t="shared" ref="ARX24" si="1244">_xlfn.STDEV.S(ARX4:ARX21)</f>
         <v>2.279649532811507E-4</v>
       </c>
       <c r="ARZ24">
-        <f t="shared" ref="ARZ24:ATE24" si="1245">_xlfn.STDEV.S(ARZ4:ARZ21)</f>
+        <f t="shared" ref="ARZ24" si="1245">_xlfn.STDEV.S(ARZ4:ARZ21)</f>
         <v>2.0167693997694759E-4</v>
       </c>
       <c r="ASB24">
-        <f t="shared" ref="ASB24:ATG24" si="1246">_xlfn.STDEV.S(ASB4:ASB21)</f>
+        <f t="shared" ref="ASB24" si="1246">_xlfn.STDEV.S(ASB4:ASB21)</f>
         <v>6.7947336027204884E-4</v>
       </c>
       <c r="ASD24">
-        <f t="shared" ref="ASD24:ATI24" si="1247">_xlfn.STDEV.S(ASD4:ASD21)</f>
+        <f t="shared" ref="ASD24" si="1247">_xlfn.STDEV.S(ASD4:ASD21)</f>
         <v>8.0950976667034627E-4</v>
       </c>
       <c r="ASF24">
-        <f t="shared" ref="ASF24:ATK24" si="1248">_xlfn.STDEV.S(ASF4:ASF21)</f>
+        <f t="shared" ref="ASF24" si="1248">_xlfn.STDEV.S(ASF4:ASF21)</f>
         <v>3.1809039154427442E-4</v>
       </c>
       <c r="ASH24">
-        <f t="shared" ref="ASH24:ATM24" si="1249">_xlfn.STDEV.S(ASH4:ASH21)</f>
+        <f t="shared" ref="ASH24" si="1249">_xlfn.STDEV.S(ASH4:ASH21)</f>
         <v>3.1270090414768647E-4</v>
       </c>
       <c r="ASJ24">
-        <f t="shared" ref="ASJ24:ATO24" si="1250">_xlfn.STDEV.S(ASJ4:ASJ21)</f>
+        <f t="shared" ref="ASJ24" si="1250">_xlfn.STDEV.S(ASJ4:ASJ21)</f>
         <v>2.0854891323570055E-4</v>
       </c>
       <c r="ASL24">
-        <f t="shared" ref="ASL24:ATQ24" si="1251">_xlfn.STDEV.S(ASL4:ASL21)</f>
+        <f t="shared" ref="ASL24" si="1251">_xlfn.STDEV.S(ASL4:ASL21)</f>
         <v>3.9175888189686172E-4</v>
       </c>
       <c r="ASN24">
-        <f t="shared" ref="ASN24:ATS24" si="1252">_xlfn.STDEV.S(ASN4:ASN21)</f>
+        <f t="shared" ref="ASN24" si="1252">_xlfn.STDEV.S(ASN4:ASN21)</f>
         <v>6.2201501874307183E-4</v>
       </c>
       <c r="ASP24">
-        <f t="shared" ref="ASP24:ATU24" si="1253">_xlfn.STDEV.S(ASP4:ASP21)</f>
+        <f t="shared" ref="ASP24" si="1253">_xlfn.STDEV.S(ASP4:ASP21)</f>
         <v>4.5581045702675174E-4</v>
       </c>
       <c r="ASR24">
-        <f t="shared" ref="ASR24:ATW24" si="1254">_xlfn.STDEV.S(ASR4:ASR21)</f>
+        <f t="shared" ref="ASR24" si="1254">_xlfn.STDEV.S(ASR4:ASR21)</f>
         <v>2.3794412046620079E-4</v>
       </c>
       <c r="AST24">
-        <f t="shared" ref="AST24:ATY24" si="1255">_xlfn.STDEV.S(AST4:AST21)</f>
+        <f t="shared" ref="AST24" si="1255">_xlfn.STDEV.S(AST4:AST21)</f>
         <v>3.5334398989587674E-4</v>
       </c>
       <c r="ASV24">
-        <f t="shared" ref="ASV24:AUA24" si="1256">_xlfn.STDEV.S(ASV4:ASV21)</f>
+        <f t="shared" ref="ASV24" si="1256">_xlfn.STDEV.S(ASV4:ASV21)</f>
         <v>3.8088955878863307E-4</v>
       </c>
       <c r="ASX24">
-        <f t="shared" ref="ASX24:AUC24" si="1257">_xlfn.STDEV.S(ASX4:ASX21)</f>
+        <f t="shared" ref="ASX24" si="1257">_xlfn.STDEV.S(ASX4:ASX21)</f>
         <v>2.6882120119438763E-4</v>
       </c>
       <c r="ASZ24">
-        <f t="shared" ref="ASZ24:AUE24" si="1258">_xlfn.STDEV.S(ASZ4:ASZ21)</f>
+        <f t="shared" ref="ASZ24" si="1258">_xlfn.STDEV.S(ASZ4:ASZ21)</f>
         <v>6.7993133163070059E-4</v>
       </c>
       <c r="ATB24">
-        <f t="shared" ref="ATB24:AUG24" si="1259">_xlfn.STDEV.S(ATB4:ATB21)</f>
+        <f t="shared" ref="ATB24" si="1259">_xlfn.STDEV.S(ATB4:ATB21)</f>
         <v>3.4513416471376848E-4</v>
       </c>
       <c r="ATD24">
-        <f t="shared" ref="ATD24:AUI24" si="1260">_xlfn.STDEV.S(ATD4:ATD21)</f>
+        <f t="shared" ref="ATD24" si="1260">_xlfn.STDEV.S(ATD4:ATD21)</f>
         <v>6.8104585802810974E-4</v>
       </c>
       <c r="ATF24">
-        <f t="shared" ref="ATF24:AUK24" si="1261">_xlfn.STDEV.S(ATF4:ATF21)</f>
+        <f t="shared" ref="ATF24" si="1261">_xlfn.STDEV.S(ATF4:ATF21)</f>
         <v>3.4520459867149432E-4</v>
       </c>
       <c r="ATH24">
-        <f t="shared" ref="ATH24:AUM24" si="1262">_xlfn.STDEV.S(ATH4:ATH21)</f>
+        <f t="shared" ref="ATH24" si="1262">_xlfn.STDEV.S(ATH4:ATH21)</f>
         <v>3.767386222344018E-4</v>
       </c>
       <c r="ATJ24">
-        <f t="shared" ref="ATJ24:AUO24" si="1263">_xlfn.STDEV.S(ATJ4:ATJ21)</f>
+        <f t="shared" ref="ATJ24" si="1263">_xlfn.STDEV.S(ATJ4:ATJ21)</f>
         <v>2.6118067222935651E-4</v>
       </c>
       <c r="ATL24">
-        <f t="shared" ref="ATL24:AUQ24" si="1264">_xlfn.STDEV.S(ATL4:ATL21)</f>
+        <f t="shared" ref="ATL24" si="1264">_xlfn.STDEV.S(ATL4:ATL21)</f>
         <v>2.5166221614866916E-4</v>
       </c>
       <c r="ATN24">
-        <f t="shared" ref="ATN24:AUS24" si="1265">_xlfn.STDEV.S(ATN4:ATN21)</f>
+        <f t="shared" ref="ATN24" si="1265">_xlfn.STDEV.S(ATN4:ATN21)</f>
         <v>1.9178591508407902E-4</v>
       </c>
       <c r="ATP24">
-        <f t="shared" ref="ATP24:AUU24" si="1266">_xlfn.STDEV.S(ATP4:ATP21)</f>
+        <f t="shared" ref="ATP24" si="1266">_xlfn.STDEV.S(ATP4:ATP21)</f>
         <v>3.9399077816031905E-4</v>
       </c>
       <c r="ATR24">
-        <f t="shared" ref="ATR24:AUW24" si="1267">_xlfn.STDEV.S(ATR4:ATR21)</f>
+        <f t="shared" ref="ATR24" si="1267">_xlfn.STDEV.S(ATR4:ATR21)</f>
         <v>1.9310127162528403E-4</v>
       </c>
       <c r="ATT24">
-        <f t="shared" ref="ATT24:AUY24" si="1268">_xlfn.STDEV.S(ATT4:ATT21)</f>
+        <f t="shared" ref="ATT24" si="1268">_xlfn.STDEV.S(ATT4:ATT21)</f>
         <v>1.8901519675330376E-4</v>
       </c>
       <c r="ATV24">
-        <f t="shared" ref="ATV24:AVA24" si="1269">_xlfn.STDEV.S(ATV4:ATV21)</f>
+        <f t="shared" ref="ATV24" si="1269">_xlfn.STDEV.S(ATV4:ATV21)</f>
         <v>2.579814333414111E-4</v>
       </c>
       <c r="ATX24">
-        <f t="shared" ref="ATX24:AVC24" si="1270">_xlfn.STDEV.S(ATX4:ATX21)</f>
+        <f t="shared" ref="ATX24" si="1270">_xlfn.STDEV.S(ATX4:ATX21)</f>
         <v>7.3600857033421314E-4</v>
       </c>
       <c r="ATZ24">
-        <f t="shared" ref="ATZ24:AVE24" si="1271">_xlfn.STDEV.S(ATZ4:ATZ21)</f>
+        <f t="shared" ref="ATZ24" si="1271">_xlfn.STDEV.S(ATZ4:ATZ21)</f>
         <v>3.6165710130731978E-4</v>
       </c>
       <c r="AUB24">
-        <f t="shared" ref="AUB24:AVG24" si="1272">_xlfn.STDEV.S(AUB4:AUB21)</f>
+        <f t="shared" ref="AUB24" si="1272">_xlfn.STDEV.S(AUB4:AUB21)</f>
         <v>6.159401671402148E-4</v>
       </c>
       <c r="AUD24">
-        <f t="shared" ref="AUD24:AVI24" si="1273">_xlfn.STDEV.S(AUD4:AUD21)</f>
+        <f t="shared" ref="AUD24" si="1273">_xlfn.STDEV.S(AUD4:AUD21)</f>
         <v>3.6385830455754335E-4</v>
       </c>
       <c r="AUF24">
-        <f t="shared" ref="AUF24:AVK24" si="1274">_xlfn.STDEV.S(AUF4:AUF21)</f>
+        <f t="shared" ref="AUF24" si="1274">_xlfn.STDEV.S(AUF4:AUF21)</f>
         <v>2.3085831851809373E-4</v>
       </c>
       <c r="AUH24">
-        <f t="shared" ref="AUH24:AVM24" si="1275">_xlfn.STDEV.S(AUH4:AUH21)</f>
+        <f t="shared" ref="AUH24" si="1275">_xlfn.STDEV.S(AUH4:AUH21)</f>
         <v>5.1891711356136987E-4</v>
       </c>
       <c r="AUJ24">
-        <f t="shared" ref="AUJ24:AVO24" si="1276">_xlfn.STDEV.S(AUJ4:AUJ21)</f>
+        <f t="shared" ref="AUJ24" si="1276">_xlfn.STDEV.S(AUJ4:AUJ21)</f>
         <v>3.3202170928551796E-4</v>
       </c>
       <c r="AUL24">
-        <f t="shared" ref="AUL24:AVQ24" si="1277">_xlfn.STDEV.S(AUL4:AUL21)</f>
+        <f t="shared" ref="AUL24" si="1277">_xlfn.STDEV.S(AUL4:AUL21)</f>
         <v>6.8427664752065292E-4</v>
       </c>
       <c r="AUN24">
-        <f t="shared" ref="AUN24:AVS24" si="1278">_xlfn.STDEV.S(AUN4:AUN21)</f>
+        <f t="shared" ref="AUN24" si="1278">_xlfn.STDEV.S(AUN4:AUN21)</f>
         <v>1.8668557660421315E-4</v>
       </c>
       <c r="AUP24">
-        <f t="shared" ref="AUP24:AVU24" si="1279">_xlfn.STDEV.S(AUP4:AUP21)</f>
+        <f t="shared" ref="AUP24" si="1279">_xlfn.STDEV.S(AUP4:AUP21)</f>
         <v>6.8129535249824365E-4</v>
       </c>
       <c r="AUR24">
-        <f t="shared" ref="AUR24:AVW24" si="1280">_xlfn.STDEV.S(AUR4:AUR21)</f>
+        <f t="shared" ref="AUR24" si="1280">_xlfn.STDEV.S(AUR4:AUR21)</f>
         <v>3.7301163864021013E-4</v>
       </c>
       <c r="AUT24">
-        <f t="shared" ref="AUT24:AVY24" si="1281">_xlfn.STDEV.S(AUT4:AUT21)</f>
+        <f t="shared" ref="AUT24" si="1281">_xlfn.STDEV.S(AUT4:AUT21)</f>
         <v>3.5915594836024949E-4</v>
       </c>
       <c r="AUV24">
-        <f t="shared" ref="AUV24:AWA24" si="1282">_xlfn.STDEV.S(AUV4:AUV21)</f>
+        <f t="shared" ref="AUV24" si="1282">_xlfn.STDEV.S(AUV4:AUV21)</f>
         <v>5.3529593382363623E-4</v>
       </c>
       <c r="AUX24">
-        <f t="shared" ref="AUX24:AWC24" si="1283">_xlfn.STDEV.S(AUX4:AUX21)</f>
+        <f t="shared" ref="AUX24" si="1283">_xlfn.STDEV.S(AUX4:AUX21)</f>
         <v>6.7576842360736716E-4</v>
       </c>
       <c r="AUZ24">
-        <f t="shared" ref="AUZ24:AWE24" si="1284">_xlfn.STDEV.S(AUZ4:AUZ21)</f>
+        <f t="shared" ref="AUZ24" si="1284">_xlfn.STDEV.S(AUZ4:AUZ21)</f>
         <v>3.9576019014028339E-4</v>
       </c>
       <c r="AVB24">
-        <f t="shared" ref="AVB24:AWG24" si="1285">_xlfn.STDEV.S(AVB4:AVB21)</f>
+        <f t="shared" ref="AVB24" si="1285">_xlfn.STDEV.S(AVB4:AVB21)</f>
         <v>6.8227105264791156E-4</v>
       </c>
       <c r="AVD24">
-        <f t="shared" ref="AVD24:AWI24" si="1286">_xlfn.STDEV.S(AVD4:AVD21)</f>
+        <f t="shared" ref="AVD24" si="1286">_xlfn.STDEV.S(AVD4:AVD21)</f>
         <v>6.808015184188187E-4</v>
       </c>
       <c r="AVF24">
-        <f t="shared" ref="AVF24:AWK24" si="1287">_xlfn.STDEV.S(AVF4:AVF21)</f>
+        <f t="shared" ref="AVF24" si="1287">_xlfn.STDEV.S(AVF4:AVF21)</f>
         <v>6.808015184188187E-4</v>
       </c>
       <c r="AVH24">
-        <f t="shared" ref="AVH24:AWM24" si="1288">_xlfn.STDEV.S(AVH4:AVH21)</f>
+        <f t="shared" ref="AVH24" si="1288">_xlfn.STDEV.S(AVH4:AVH21)</f>
         <v>2.9891373008049616E-4</v>
       </c>
       <c r="AVJ24">
-        <f t="shared" ref="AVJ24:AWO24" si="1289">_xlfn.STDEV.S(AVJ4:AVJ21)</f>
+        <f t="shared" ref="AVJ24" si="1289">_xlfn.STDEV.S(AVJ4:AVJ21)</f>
         <v>3.6797156070463016E-4</v>
       </c>
       <c r="AVL24">
-        <f t="shared" ref="AVL24:AWQ24" si="1290">_xlfn.STDEV.S(AVL4:AVL21)</f>
+        <f t="shared" ref="AVL24" si="1290">_xlfn.STDEV.S(AVL4:AVL21)</f>
         <v>3.6797156070463016E-4</v>
       </c>
       <c r="AVN24">
-        <f t="shared" ref="AVN24:AWS24" si="1291">_xlfn.STDEV.S(AVN4:AVN21)</f>
+        <f t="shared" ref="AVN24" si="1291">_xlfn.STDEV.S(AVN4:AVN21)</f>
         <v>5.2115981551325967E-4</v>
       </c>
       <c r="AVP24">
-        <f t="shared" ref="AVP24:AWU24" si="1292">_xlfn.STDEV.S(AVP4:AVP21)</f>
+        <f t="shared" ref="AVP24" si="1292">_xlfn.STDEV.S(AVP4:AVP21)</f>
         <v>5.7980871265688144E-4</v>
       </c>
       <c r="AVR24">
-        <f t="shared" ref="AVR24:AWW24" si="1293">_xlfn.STDEV.S(AVR4:AVR21)</f>
+        <f t="shared" ref="AVR24" si="1293">_xlfn.STDEV.S(AVR4:AVR21)</f>
         <v>2.9290381809412474E-4</v>
       </c>
       <c r="AVT24">
-        <f t="shared" ref="AVT24:AWY24" si="1294">_xlfn.STDEV.S(AVT4:AVT21)</f>
+        <f t="shared" ref="AVT24" si="1294">_xlfn.STDEV.S(AVT4:AVT21)</f>
         <v>3.601835532875277E-4</v>
       </c>
       <c r="AVV24">
-        <f t="shared" ref="AVV24:AXA24" si="1295">_xlfn.STDEV.S(AVV4:AVV21)</f>
+        <f t="shared" ref="AVV24" si="1295">_xlfn.STDEV.S(AVV4:AVV21)</f>
         <v>3.7990465425946662E-4</v>
       </c>
       <c r="AVX24">
-        <f t="shared" ref="AVX24:AXC24" si="1296">_xlfn.STDEV.S(AVX4:AVX21)</f>
+        <f t="shared" ref="AVX24" si="1296">_xlfn.STDEV.S(AVX4:AVX21)</f>
         <v>6.8119355866439531E-4</v>
       </c>
       <c r="AVZ24">
-        <f t="shared" ref="AVZ24:AXE24" si="1297">_xlfn.STDEV.S(AVZ4:AVZ21)</f>
+        <f t="shared" ref="AVZ24" si="1297">_xlfn.STDEV.S(AVZ4:AVZ21)</f>
         <v>2.3176533913484048E-4</v>
       </c>
       <c r="AWB24">
-        <f t="shared" ref="AWB24:AXG24" si="1298">_xlfn.STDEV.S(AWB4:AWB21)</f>
+        <f t="shared" ref="AWB24" si="1298">_xlfn.STDEV.S(AWB4:AWB21)</f>
         <v>3.2886218724118027E-4</v>
       </c>
       <c r="AWD24">
-        <f t="shared" ref="AWD24:AXI24" si="1299">_xlfn.STDEV.S(AWD4:AWD21)</f>
+        <f t="shared" ref="AWD24" si="1299">_xlfn.STDEV.S(AWD4:AWD21)</f>
         <v>2.2721219104989332E-4</v>
       </c>
       <c r="AWF24">
-        <f t="shared" ref="AWF24:AXZ24" si="1300">_xlfn.STDEV.S(AWF4:AWF21)</f>
+        <f t="shared" ref="AWF24" si="1300">_xlfn.STDEV.S(AWF4:AWF21)</f>
         <v>3.6398025402051553E-4</v>
       </c>
       <c r="AWH24">
-        <f t="shared" ref="AWH24:AXZ24" si="1301">_xlfn.STDEV.S(AWH4:AWH21)</f>
+        <f t="shared" ref="AWH24" si="1301">_xlfn.STDEV.S(AWH4:AWH21)</f>
         <v>2.7141161427958428E-4</v>
       </c>
       <c r="AWJ24">
-        <f t="shared" ref="AWJ24:AXZ24" si="1302">_xlfn.STDEV.S(AWJ4:AWJ21)</f>
+        <f t="shared" ref="AWJ24" si="1302">_xlfn.STDEV.S(AWJ4:AWJ21)</f>
         <v>2.7445131091328686E-4</v>
       </c>
       <c r="AWL24">
-        <f t="shared" ref="AWL24:AXZ24" si="1303">_xlfn.STDEV.S(AWL4:AWL21)</f>
+        <f t="shared" ref="AWL24" si="1303">_xlfn.STDEV.S(AWL4:AWL21)</f>
         <v>4.5663068018657007E-4</v>
       </c>
       <c r="AWN24">
-        <f t="shared" ref="AWN24:AXZ24" si="1304">_xlfn.STDEV.S(AWN4:AWN21)</f>
+        <f t="shared" ref="AWN24" si="1304">_xlfn.STDEV.S(AWN4:AWN21)</f>
         <v>4.3222715551334426E-4</v>
       </c>
       <c r="AWP24">
-        <f t="shared" ref="AWP24:AXZ24" si="1305">_xlfn.STDEV.S(AWP4:AWP21)</f>
+        <f t="shared" ref="AWP24" si="1305">_xlfn.STDEV.S(AWP4:AWP21)</f>
         <v>4.3222715551334426E-4</v>
       </c>
       <c r="AWR24">
-        <f t="shared" ref="AWR24:AXZ24" si="1306">_xlfn.STDEV.S(AWR4:AWR21)</f>
+        <f t="shared" ref="AWR24" si="1306">_xlfn.STDEV.S(AWR4:AWR21)</f>
         <v>2.4534587387051952E-4</v>
       </c>
       <c r="AWT24">
-        <f t="shared" ref="AWT24:AXZ24" si="1307">_xlfn.STDEV.S(AWT4:AWT21)</f>
+        <f t="shared" ref="AWT24" si="1307">_xlfn.STDEV.S(AWT4:AWT21)</f>
         <v>2.3202123092702634E-4</v>
       </c>
       <c r="AWV24">
-        <f t="shared" ref="AWV24:AXZ24" si="1308">_xlfn.STDEV.S(AWV4:AWV21)</f>
+        <f t="shared" ref="AWV24" si="1308">_xlfn.STDEV.S(AWV4:AWV21)</f>
         <v>3.281852051546746E-4</v>
       </c>
       <c r="AWX24">
-        <f t="shared" ref="AWX24:AXZ24" si="1309">_xlfn.STDEV.S(AWX4:AWX21)</f>
+        <f t="shared" ref="AWX24" si="1309">_xlfn.STDEV.S(AWX4:AWX21)</f>
         <v>3.3512446081430768E-4</v>
       </c>
       <c r="AWZ24">
-        <f t="shared" ref="AWZ24:AXZ24" si="1310">_xlfn.STDEV.S(AWZ4:AWZ21)</f>
+        <f t="shared" ref="AWZ24" si="1310">_xlfn.STDEV.S(AWZ4:AWZ21)</f>
         <v>6.8440324232245451E-4</v>
       </c>
       <c r="AXB24">
-        <f t="shared" ref="AXB24:AXZ24" si="1311">_xlfn.STDEV.S(AXB4:AXB21)</f>
+        <f t="shared" ref="AXB24" si="1311">_xlfn.STDEV.S(AXB4:AXB21)</f>
         <v>3.0434333858647125E-4</v>
       </c>
       <c r="AXD24">
-        <f t="shared" ref="AXD24:AXZ24" si="1312">_xlfn.STDEV.S(AXD4:AXD21)</f>
+        <f t="shared" ref="AXD24" si="1312">_xlfn.STDEV.S(AXD4:AXD21)</f>
         <v>3.114445490330776E-4</v>
       </c>
       <c r="AXF24">
-        <f t="shared" ref="AXF24:AXZ24" si="1313">_xlfn.STDEV.S(AXF4:AXF21)</f>
+        <f t="shared" ref="AXF24" si="1313">_xlfn.STDEV.S(AXF4:AXF21)</f>
         <v>4.0634233736972999E-4</v>
       </c>
       <c r="AXH24">
-        <f t="shared" ref="AXH24:AXZ24" si="1314">_xlfn.STDEV.S(AXH4:AXH21)</f>
+        <f t="shared" ref="AXH24" si="1314">_xlfn.STDEV.S(AXH4:AXH21)</f>
         <v>7.195517268786775E-4</v>
       </c>
       <c r="AXJ24">
-        <f t="shared" ref="AXJ24:AXZ24" si="1315">_xlfn.STDEV.S(AXJ4:AXJ21)</f>
+        <f t="shared" ref="AXJ24" si="1315">_xlfn.STDEV.S(AXJ4:AXJ21)</f>
         <v>7.4707531028689615E-4</v>
       </c>
       <c r="AXL24">
-        <f t="shared" ref="AXL24:AXZ24" si="1316">_xlfn.STDEV.S(AXL4:AXL21)</f>
+        <f t="shared" ref="AXL24" si="1316">_xlfn.STDEV.S(AXL4:AXL21)</f>
         <v>7.4707531028689615E-4</v>
       </c>
       <c r="AXN24">
-        <f t="shared" ref="AXN24:AXZ24" si="1317">_xlfn.STDEV.S(AXN4:AXN21)</f>
+        <f t="shared" ref="AXN24" si="1317">_xlfn.STDEV.S(AXN4:AXN21)</f>
         <v>7.4707531028689615E-4</v>
       </c>
       <c r="AXP24">
-        <f t="shared" ref="AXP24:AXZ24" si="1318">_xlfn.STDEV.S(AXP4:AXP21)</f>
+        <f t="shared" ref="AXP24" si="1318">_xlfn.STDEV.S(AXP4:AXP21)</f>
         <v>3.2502980297804366E-4</v>
       </c>
       <c r="AXR24">
-        <f t="shared" ref="AXR24:AXZ24" si="1319">_xlfn.STDEV.S(AXR4:AXR21)</f>
+        <f t="shared" ref="AXR24" si="1319">_xlfn.STDEV.S(AXR4:AXR21)</f>
         <v>2.7995231995885057E-4</v>
       </c>
       <c r="AXT24">
-        <f t="shared" ref="AXT24:AXZ24" si="1320">_xlfn.STDEV.S(AXT4:AXT21)</f>
+        <f t="shared" ref="AXT24" si="1320">_xlfn.STDEV.S(AXT4:AXT21)</f>
         <v>2.3056222710868439E-4</v>
       </c>
       <c r="AXV24">
-        <f t="shared" ref="AXV24:AXZ24" si="1321">_xlfn.STDEV.S(AXV4:AXV21)</f>
+        <f t="shared" ref="AXV24" si="1321">_xlfn.STDEV.S(AXV4:AXV21)</f>
         <v>2.189750907497713E-4</v>
       </c>
       <c r="AXX24">
-        <f t="shared" ref="AXX24:AXZ24" si="1322">_xlfn.STDEV.S(AXX4:AXX21)</f>
+        <f t="shared" ref="AXX24" si="1322">_xlfn.STDEV.S(AXX4:AXX21)</f>
         <v>2.8329061275397588E-4</v>
       </c>
       <c r="AXZ24">
@@ -92372,13 +92388,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -93175,7 +93191,7 @@
         <v>4.8043809929201702E-2</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="C23:E23" si="4">AVERAGE(E4:E21)</f>
+        <f t="shared" ref="E23" si="4">AVERAGE(E4:E21)</f>
         <v>5.8762049091842005E-3</v>
       </c>
       <c r="I23">
@@ -93200,7 +93216,7 @@
         <v>1.3791057694371745E-2</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="C24:E24" si="5">_xlfn.STDEV.S(E4:E21)</f>
+        <f t="shared" ref="E24" si="5">_xlfn.STDEV.S(E4:E21)</f>
         <v>4.582667702726871E-3</v>
       </c>
       <c r="I24">
@@ -93214,6 +93230,12 @@
       <c r="Q24">
         <f>_xlfn.STDEV.S(Q4:Q21)</f>
         <v>4.9049281412000559E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q26">
+        <f>AVERAGE(Q4:Q20)</f>
+        <v>6.0478002980759567E-2</v>
       </c>
     </row>
   </sheetData>
